--- a/bin/Debug/Simulações/Título.xlsx
+++ b/bin/Debug/Simulações/Título.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal\Source\Repos\henrique4d\Simulador\bin\Debug\Simulações\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07179458-2EFE-434A-8227-250CB60C2FAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0DC63C-CC3B-4EC4-884A-DF728ED508B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="1680" windowWidth="15375" windowHeight="8325" xr2:uid="{96546CC8-CD5E-49C1-9F9C-9A11C2AF6B38}"/>
+    <workbookView xWindow="2235" yWindow="1680" windowWidth="15375" windowHeight="8325" xr2:uid="{06964167-1777-464B-A014-6C8D0A17F012}"/>
   </bookViews>
   <sheets>
     <sheet name="Talhão" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="17">
   <si>
     <t>Região</t>
   </si>
@@ -81,10 +81,10 @@
     <t>VET</t>
   </si>
   <si>
-    <t>-</t>
+    <t>maybe</t>
   </si>
   <si>
-    <t>dor</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -435,18 +435,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03B99C8-0A32-4682-BD8E-BC18AEDB726F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC17056-8991-4818-A3C6-C666B0CCB601}">
   <dimension ref="A1:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -492,8 +490,8 @@
       <c r="A2">
         <v>66</v>
       </c>
-      <c r="B2">
-        <v>33</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -520,24 +518,24 @@
         <v>5.4090932181536058</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>66</v>
       </c>
-      <c r="B3">
-        <v>33</v>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -580,8 +578,8 @@
       <c r="A5">
         <v>66</v>
       </c>
-      <c r="B5">
-        <v>33</v>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -608,24 +606,24 @@
         <v>5.2434746467715883</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>66</v>
       </c>
-      <c r="B6">
-        <v>33</v>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -668,8 +666,8 @@
       <c r="A8">
         <v>66</v>
       </c>
-      <c r="B8">
-        <v>33</v>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -696,24 +694,24 @@
         <v>5.4090932181536058</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>66</v>
       </c>
-      <c r="B9">
-        <v>33</v>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -756,8 +754,8 @@
       <c r="A11">
         <v>66</v>
       </c>
-      <c r="B11">
-        <v>33</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -784,24 +782,24 @@
         <v>4.4429044461770175</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>66</v>
       </c>
-      <c r="B12">
-        <v>33</v>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -844,8 +842,8 @@
       <c r="A14">
         <v>66</v>
       </c>
-      <c r="B14">
-        <v>33</v>
+      <c r="B14" t="s">
+        <v>15</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -872,24 +870,24 @@
         <v>5.2434746467715883</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>66</v>
       </c>
-      <c r="B15">
-        <v>33</v>
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -932,8 +930,8 @@
       <c r="A17">
         <v>66</v>
       </c>
-      <c r="B17">
-        <v>33</v>
+      <c r="B17" t="s">
+        <v>15</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -960,24 +958,24 @@
         <v>4.4429044461770175</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>66</v>
       </c>
-      <c r="B18">
-        <v>33</v>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -1020,8 +1018,8 @@
       <c r="A20">
         <v>66</v>
       </c>
-      <c r="B20">
-        <v>33</v>
+      <c r="B20" t="s">
+        <v>15</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -1048,24 +1046,24 @@
         <v>8.8471320701173433</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>66</v>
       </c>
-      <c r="B21">
-        <v>33</v>
+      <c r="B21" t="s">
+        <v>15</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -1108,8 +1106,8 @@
       <c r="A23">
         <v>66</v>
       </c>
-      <c r="B23">
-        <v>33</v>
+      <c r="B23" t="s">
+        <v>15</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1136,24 +1134,24 @@
         <v>5.4090932181536058</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>66</v>
       </c>
-      <c r="B24">
-        <v>33</v>
+      <c r="B24" t="s">
+        <v>15</v>
       </c>
       <c r="C24">
         <v>15</v>
@@ -1196,8 +1194,8 @@
       <c r="A26">
         <v>66</v>
       </c>
-      <c r="B26">
-        <v>33</v>
+      <c r="B26" t="s">
+        <v>15</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -1224,24 +1222,24 @@
         <v>5.4090932181536058</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>66</v>
       </c>
-      <c r="B27">
-        <v>33</v>
+      <c r="B27" t="s">
+        <v>15</v>
       </c>
       <c r="C27">
         <v>17</v>
@@ -1284,8 +1282,8 @@
       <c r="A29">
         <v>66</v>
       </c>
-      <c r="B29">
-        <v>33</v>
+      <c r="B29" t="s">
+        <v>15</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -1312,24 +1310,24 @@
         <v>8.5711092564619253</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>66</v>
       </c>
-      <c r="B30">
-        <v>33</v>
+      <c r="B30" t="s">
+        <v>15</v>
       </c>
       <c r="C30">
         <v>14</v>
@@ -1372,8 +1370,8 @@
       <c r="A32">
         <v>66</v>
       </c>
-      <c r="B32">
-        <v>33</v>
+      <c r="B32" t="s">
+        <v>15</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -1400,24 +1398,24 @@
         <v>5.2434746467715883</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>66</v>
       </c>
-      <c r="B33">
-        <v>33</v>
+      <c r="B33" t="s">
+        <v>15</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -1460,8 +1458,8 @@
       <c r="A35">
         <v>66</v>
       </c>
-      <c r="B35">
-        <v>33</v>
+      <c r="B35" t="s">
+        <v>15</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -1488,24 +1486,24 @@
         <v>5.2434746467715883</v>
       </c>
       <c r="K35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>66</v>
       </c>
-      <c r="B36">
-        <v>33</v>
+      <c r="B36" t="s">
+        <v>15</v>
       </c>
       <c r="C36">
         <v>17</v>
@@ -1548,8 +1546,8 @@
       <c r="A38">
         <v>66</v>
       </c>
-      <c r="B38">
-        <v>33</v>
+      <c r="B38" t="s">
+        <v>15</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -1576,24 +1574,24 @@
         <v>8.8471320701173433</v>
       </c>
       <c r="K38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>66</v>
       </c>
-      <c r="B39">
-        <v>33</v>
+      <c r="B39" t="s">
+        <v>15</v>
       </c>
       <c r="C39">
         <v>16</v>
@@ -1636,8 +1634,8 @@
       <c r="A41">
         <v>66</v>
       </c>
-      <c r="B41">
-        <v>33</v>
+      <c r="B41" t="s">
+        <v>15</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -1664,24 +1662,24 @@
         <v>4.4429044461770175</v>
       </c>
       <c r="K41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>66</v>
       </c>
-      <c r="B42">
-        <v>33</v>
+      <c r="B42" t="s">
+        <v>15</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -1724,8 +1722,8 @@
       <c r="A44">
         <v>66</v>
       </c>
-      <c r="B44">
-        <v>33</v>
+      <c r="B44" t="s">
+        <v>15</v>
       </c>
       <c r="C44">
         <v>9</v>
@@ -1752,24 +1750,24 @@
         <v>8.5711092564619253</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>66</v>
       </c>
-      <c r="B45">
-        <v>33</v>
+      <c r="B45" t="s">
+        <v>15</v>
       </c>
       <c r="C45">
         <v>16</v>
@@ -1812,8 +1810,8 @@
       <c r="A47">
         <v>66</v>
       </c>
-      <c r="B47">
-        <v>33</v>
+      <c r="B47" t="s">
+        <v>15</v>
       </c>
       <c r="C47">
         <v>8</v>
@@ -1840,24 +1838,24 @@
         <v>4.4429044461770175</v>
       </c>
       <c r="K47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>66</v>
       </c>
-      <c r="B48">
-        <v>33</v>
+      <c r="B48" t="s">
+        <v>15</v>
       </c>
       <c r="C48">
         <v>17</v>
@@ -1900,8 +1898,8 @@
       <c r="A50">
         <v>66</v>
       </c>
-      <c r="B50">
-        <v>33</v>
+      <c r="B50" t="s">
+        <v>15</v>
       </c>
       <c r="C50">
         <v>10</v>
@@ -1928,24 +1926,24 @@
         <v>5.4090932181536058</v>
       </c>
       <c r="K50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>66</v>
       </c>
-      <c r="B51">
-        <v>33</v>
+      <c r="B51" t="s">
+        <v>15</v>
       </c>
       <c r="C51">
         <v>18</v>
@@ -1988,8 +1986,8 @@
       <c r="A53">
         <v>66</v>
       </c>
-      <c r="B53">
-        <v>33</v>
+      <c r="B53" t="s">
+        <v>15</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -2016,24 +2014,24 @@
         <v>11.998907287775296</v>
       </c>
       <c r="K53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>66</v>
       </c>
-      <c r="B54">
-        <v>33</v>
+      <c r="B54" t="s">
+        <v>15</v>
       </c>
       <c r="C54">
         <v>14</v>
@@ -2076,8 +2074,8 @@
       <c r="A56">
         <v>66</v>
       </c>
-      <c r="B56">
-        <v>33</v>
+      <c r="B56" t="s">
+        <v>15</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -2104,24 +2102,24 @@
         <v>5.2434746467715883</v>
       </c>
       <c r="K56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>66</v>
       </c>
-      <c r="B57">
-        <v>33</v>
+      <c r="B57" t="s">
+        <v>15</v>
       </c>
       <c r="C57">
         <v>18</v>
@@ -2164,8 +2162,8 @@
       <c r="A59">
         <v>66</v>
       </c>
-      <c r="B59">
-        <v>33</v>
+      <c r="B59" t="s">
+        <v>15</v>
       </c>
       <c r="C59">
         <v>8</v>
@@ -2192,24 +2190,24 @@
         <v>7.3724082754922051</v>
       </c>
       <c r="K59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>66</v>
       </c>
-      <c r="B60">
-        <v>33</v>
+      <c r="B60" t="s">
+        <v>15</v>
       </c>
       <c r="C60">
         <v>14</v>
@@ -2252,8 +2250,8 @@
       <c r="A62">
         <v>66</v>
       </c>
-      <c r="B62">
-        <v>33</v>
+      <c r="B62" t="s">
+        <v>15</v>
       </c>
       <c r="C62">
         <v>10</v>
@@ -2280,24 +2278,24 @@
         <v>8.8471320701173433</v>
       </c>
       <c r="K62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>66</v>
       </c>
-      <c r="B63">
-        <v>33</v>
+      <c r="B63" t="s">
+        <v>15</v>
       </c>
       <c r="C63">
         <v>15</v>
@@ -2340,14 +2338,14 @@
       <c r="A65">
         <v>66</v>
       </c>
-      <c r="B65">
-        <v>33</v>
+      <c r="B65" t="s">
+        <v>15</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>20.160513448774569</v>
@@ -2384,8 +2382,8 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>33</v>
+      <c r="B67" t="s">
+        <v>15</v>
       </c>
       <c r="C67">
         <v>10</v>
@@ -2412,24 +2410,24 @@
         <v>8.8471320701173433</v>
       </c>
       <c r="K67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>33</v>
+      <c r="B68" t="s">
+        <v>15</v>
       </c>
       <c r="C68">
         <v>17</v>
@@ -2472,8 +2470,8 @@
       <c r="A70">
         <v>66</v>
       </c>
-      <c r="B70">
-        <v>33</v>
+      <c r="B70" t="s">
+        <v>15</v>
       </c>
       <c r="C70">
         <v>8</v>
@@ -2500,24 +2498,24 @@
         <v>4.4429044461770175</v>
       </c>
       <c r="K70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>66</v>
       </c>
-      <c r="B71">
-        <v>33</v>
+      <c r="B71" t="s">
+        <v>15</v>
       </c>
       <c r="C71">
         <v>18</v>
@@ -2560,8 +2558,8 @@
       <c r="A73">
         <v>66</v>
       </c>
-      <c r="B73">
-        <v>33</v>
+      <c r="B73" t="s">
+        <v>15</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -2588,24 +2586,24 @@
         <v>11.65783179718734</v>
       </c>
       <c r="K73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>66</v>
       </c>
-      <c r="B74">
-        <v>33</v>
+      <c r="B74" t="s">
+        <v>15</v>
       </c>
       <c r="C74">
         <v>14</v>
@@ -2648,8 +2646,8 @@
       <c r="A76">
         <v>66</v>
       </c>
-      <c r="B76">
-        <v>33</v>
+      <c r="B76" t="s">
+        <v>15</v>
       </c>
       <c r="C76">
         <v>10</v>
@@ -2676,24 +2674,24 @@
         <v>11.998907287775296</v>
       </c>
       <c r="K76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>66</v>
       </c>
-      <c r="B77">
-        <v>33</v>
+      <c r="B77" t="s">
+        <v>15</v>
       </c>
       <c r="C77">
         <v>16</v>
@@ -2736,8 +2734,8 @@
       <c r="A79">
         <v>66</v>
       </c>
-      <c r="B79">
-        <v>33</v>
+      <c r="B79" t="s">
+        <v>15</v>
       </c>
       <c r="C79">
         <v>8</v>
@@ -2764,24 +2762,24 @@
         <v>7.3724082754922051</v>
       </c>
       <c r="K79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>66</v>
       </c>
-      <c r="B80">
-        <v>33</v>
+      <c r="B80" t="s">
+        <v>15</v>
       </c>
       <c r="C80">
         <v>16</v>
@@ -2824,8 +2822,8 @@
       <c r="A82">
         <v>66</v>
       </c>
-      <c r="B82">
-        <v>33</v>
+      <c r="B82" t="s">
+        <v>15</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -2852,24 +2850,24 @@
         <v>8.5711092564619253</v>
       </c>
       <c r="K82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>66</v>
       </c>
-      <c r="B83">
-        <v>33</v>
+      <c r="B83" t="s">
+        <v>15</v>
       </c>
       <c r="C83">
         <v>15</v>
@@ -2912,8 +2910,8 @@
       <c r="A85">
         <v>66</v>
       </c>
-      <c r="B85">
-        <v>33</v>
+      <c r="B85" t="s">
+        <v>15</v>
       </c>
       <c r="C85">
         <v>9</v>
@@ -2940,24 +2938,24 @@
         <v>8.5711092564619253</v>
       </c>
       <c r="K85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>66</v>
       </c>
-      <c r="B86">
-        <v>33</v>
+      <c r="B86" t="s">
+        <v>15</v>
       </c>
       <c r="C86">
         <v>17</v>
@@ -3000,8 +2998,8 @@
       <c r="A88">
         <v>66</v>
       </c>
-      <c r="B88">
-        <v>33</v>
+      <c r="B88" t="s">
+        <v>15</v>
       </c>
       <c r="C88">
         <v>10</v>
@@ -3028,24 +3026,24 @@
         <v>8.8471320701173433</v>
       </c>
       <c r="K88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>66</v>
       </c>
-      <c r="B89">
-        <v>33</v>
+      <c r="B89" t="s">
+        <v>15</v>
       </c>
       <c r="C89">
         <v>18</v>
@@ -3088,8 +3086,8 @@
       <c r="A91">
         <v>66</v>
       </c>
-      <c r="B91">
-        <v>33</v>
+      <c r="B91" t="s">
+        <v>15</v>
       </c>
       <c r="C91">
         <v>9</v>
@@ -3116,24 +3114,24 @@
         <v>11.65783179718734</v>
       </c>
       <c r="K91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>66</v>
       </c>
-      <c r="B92">
-        <v>33</v>
+      <c r="B92" t="s">
+        <v>15</v>
       </c>
       <c r="C92">
         <v>16</v>
@@ -3176,8 +3174,8 @@
       <c r="A94">
         <v>66</v>
       </c>
-      <c r="B94">
-        <v>33</v>
+      <c r="B94" t="s">
+        <v>15</v>
       </c>
       <c r="C94">
         <v>10</v>
@@ -3204,24 +3202,24 @@
         <v>15.293838655071948</v>
       </c>
       <c r="K94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>66</v>
       </c>
-      <c r="B95">
-        <v>33</v>
+      <c r="B95" t="s">
+        <v>15</v>
       </c>
       <c r="C95">
         <v>14</v>
@@ -3264,8 +3262,8 @@
       <c r="A97">
         <v>66</v>
       </c>
-      <c r="B97">
-        <v>33</v>
+      <c r="B97" t="s">
+        <v>15</v>
       </c>
       <c r="C97">
         <v>10</v>
@@ -3292,24 +3290,24 @@
         <v>11.998907287775296</v>
       </c>
       <c r="K97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>66</v>
       </c>
-      <c r="B98">
-        <v>33</v>
+      <c r="B98" t="s">
+        <v>15</v>
       </c>
       <c r="C98">
         <v>15</v>
@@ -3352,14 +3350,14 @@
       <c r="A100">
         <v>66</v>
       </c>
-      <c r="B100">
-        <v>33</v>
+      <c r="B100" t="s">
+        <v>15</v>
       </c>
       <c r="C100">
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>19.441053779352011</v>
@@ -3396,8 +3394,8 @@
       <c r="A102">
         <v>66</v>
       </c>
-      <c r="B102">
-        <v>33</v>
+      <c r="B102" t="s">
+        <v>15</v>
       </c>
       <c r="C102">
         <v>10</v>
@@ -3424,24 +3422,24 @@
         <v>11.998907287775296</v>
       </c>
       <c r="K102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>66</v>
       </c>
-      <c r="B103">
-        <v>33</v>
+      <c r="B103" t="s">
+        <v>15</v>
       </c>
       <c r="C103">
         <v>17</v>
@@ -3484,8 +3482,8 @@
       <c r="A105">
         <v>66</v>
       </c>
-      <c r="B105">
-        <v>33</v>
+      <c r="B105" t="s">
+        <v>15</v>
       </c>
       <c r="C105">
         <v>9</v>
@@ -3512,24 +3510,24 @@
         <v>8.5711092564619253</v>
       </c>
       <c r="K105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>66</v>
       </c>
-      <c r="B106">
-        <v>33</v>
+      <c r="B106" t="s">
+        <v>15</v>
       </c>
       <c r="C106">
         <v>18</v>
@@ -3572,8 +3570,8 @@
       <c r="A108">
         <v>66</v>
       </c>
-      <c r="B108">
-        <v>33</v>
+      <c r="B108" t="s">
+        <v>15</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -3600,24 +3598,24 @@
         <v>7.3724082754922051</v>
       </c>
       <c r="K108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>66</v>
       </c>
-      <c r="B109">
-        <v>33</v>
+      <c r="B109" t="s">
+        <v>15</v>
       </c>
       <c r="C109">
         <v>15</v>
@@ -3660,8 +3658,8 @@
       <c r="A111">
         <v>66</v>
       </c>
-      <c r="B111">
-        <v>33</v>
+      <c r="B111" t="s">
+        <v>15</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -3688,24 +3686,24 @@
         <v>7.3724082754922051</v>
       </c>
       <c r="K111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>66</v>
       </c>
-      <c r="B112">
-        <v>33</v>
+      <c r="B112" t="s">
+        <v>15</v>
       </c>
       <c r="C112">
         <v>17</v>
@@ -3748,8 +3746,8 @@
       <c r="A114">
         <v>66</v>
       </c>
-      <c r="B114">
-        <v>33</v>
+      <c r="B114" t="s">
+        <v>15</v>
       </c>
       <c r="C114">
         <v>10</v>
@@ -3776,24 +3774,24 @@
         <v>15.293838655071948</v>
       </c>
       <c r="K114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>66</v>
       </c>
-      <c r="B115">
-        <v>33</v>
+      <c r="B115" t="s">
+        <v>15</v>
       </c>
       <c r="C115">
         <v>16</v>
@@ -3836,8 +3834,8 @@
       <c r="A117">
         <v>66</v>
       </c>
-      <c r="B117">
-        <v>33</v>
+      <c r="B117" t="s">
+        <v>15</v>
       </c>
       <c r="C117">
         <v>8</v>
@@ -3864,24 +3862,24 @@
         <v>10.131073913252184</v>
       </c>
       <c r="K117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>66</v>
       </c>
-      <c r="B118">
-        <v>33</v>
+      <c r="B118" t="s">
+        <v>15</v>
       </c>
       <c r="C118">
         <v>14</v>
@@ -3924,8 +3922,8 @@
       <c r="A120">
         <v>66</v>
       </c>
-      <c r="B120">
-        <v>33</v>
+      <c r="B120" t="s">
+        <v>15</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -3952,24 +3950,24 @@
         <v>11.65783179718734</v>
       </c>
       <c r="K120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>66</v>
       </c>
-      <c r="B121">
-        <v>33</v>
+      <c r="B121" t="s">
+        <v>15</v>
       </c>
       <c r="C121">
         <v>15</v>
@@ -4012,8 +4010,8 @@
       <c r="A123">
         <v>66</v>
       </c>
-      <c r="B123">
-        <v>33</v>
+      <c r="B123" t="s">
+        <v>15</v>
       </c>
       <c r="C123">
         <v>9</v>
@@ -4040,24 +4038,24 @@
         <v>14.870280041462099</v>
       </c>
       <c r="K123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>66</v>
       </c>
-      <c r="B124">
-        <v>33</v>
+      <c r="B124" t="s">
+        <v>15</v>
       </c>
       <c r="C124">
         <v>14</v>
@@ -4100,8 +4098,8 @@
       <c r="A126">
         <v>66</v>
       </c>
-      <c r="B126">
-        <v>33</v>
+      <c r="B126" t="s">
+        <v>15</v>
       </c>
       <c r="C126">
         <v>9</v>
@@ -4128,24 +4126,24 @@
         <v>11.65783179718734</v>
       </c>
       <c r="K126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>66</v>
       </c>
-      <c r="B127">
-        <v>33</v>
+      <c r="B127" t="s">
+        <v>15</v>
       </c>
       <c r="C127">
         <v>17</v>
@@ -4188,8 +4186,8 @@
       <c r="A129">
         <v>66</v>
       </c>
-      <c r="B129">
-        <v>33</v>
+      <c r="B129" t="s">
+        <v>15</v>
       </c>
       <c r="C129">
         <v>10</v>
@@ -4216,24 +4214,24 @@
         <v>11.998907287775296</v>
       </c>
       <c r="K129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>66</v>
       </c>
-      <c r="B130">
-        <v>33</v>
+      <c r="B130" t="s">
+        <v>15</v>
       </c>
       <c r="C130">
         <v>18</v>
@@ -4276,8 +4274,8 @@
       <c r="A132">
         <v>66</v>
       </c>
-      <c r="B132">
-        <v>33</v>
+      <c r="B132" t="s">
+        <v>15</v>
       </c>
       <c r="C132">
         <v>8</v>
@@ -4304,24 +4302,24 @@
         <v>7.3724082754922051</v>
       </c>
       <c r="K132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>66</v>
       </c>
-      <c r="B133">
-        <v>33</v>
+      <c r="B133" t="s">
+        <v>15</v>
       </c>
       <c r="C133">
         <v>18</v>
@@ -4364,8 +4362,8 @@
       <c r="A135">
         <v>66</v>
       </c>
-      <c r="B135">
-        <v>33</v>
+      <c r="B135" t="s">
+        <v>15</v>
       </c>
       <c r="C135">
         <v>8</v>
@@ -4392,24 +4390,24 @@
         <v>10.131073913252184</v>
       </c>
       <c r="K135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>66</v>
       </c>
-      <c r="B136">
-        <v>33</v>
+      <c r="B136" t="s">
+        <v>15</v>
       </c>
       <c r="C136">
         <v>16</v>
@@ -4452,8 +4450,8 @@
       <c r="A138">
         <v>66</v>
       </c>
-      <c r="B138">
-        <v>33</v>
+      <c r="B138" t="s">
+        <v>15</v>
       </c>
       <c r="C138">
         <v>10</v>
@@ -4480,24 +4478,24 @@
         <v>15.293838655071948</v>
       </c>
       <c r="K138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>66</v>
       </c>
-      <c r="B139">
-        <v>33</v>
+      <c r="B139" t="s">
+        <v>15</v>
       </c>
       <c r="C139">
         <v>15</v>
@@ -4540,8 +4538,8 @@
       <c r="A141">
         <v>66</v>
       </c>
-      <c r="B141">
-        <v>33</v>
+      <c r="B141" t="s">
+        <v>15</v>
       </c>
       <c r="C141">
         <v>9</v>
@@ -4568,24 +4566,24 @@
         <v>14.870280041462099</v>
       </c>
       <c r="K141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>66</v>
       </c>
-      <c r="B142">
-        <v>33</v>
+      <c r="B142" t="s">
+        <v>15</v>
       </c>
       <c r="C142">
         <v>16</v>
@@ -4628,8 +4626,8 @@
       <c r="A144">
         <v>66</v>
       </c>
-      <c r="B144">
-        <v>33</v>
+      <c r="B144" t="s">
+        <v>15</v>
       </c>
       <c r="C144">
         <v>10</v>
@@ -4656,24 +4654,24 @@
         <v>15.293838655071948</v>
       </c>
       <c r="K144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>66</v>
       </c>
-      <c r="B145">
-        <v>33</v>
+      <c r="B145" t="s">
+        <v>15</v>
       </c>
       <c r="C145">
         <v>17</v>
@@ -4716,8 +4714,8 @@
       <c r="A147">
         <v>66</v>
       </c>
-      <c r="B147">
-        <v>33</v>
+      <c r="B147" t="s">
+        <v>15</v>
       </c>
       <c r="C147">
         <v>9</v>
@@ -4744,24 +4742,24 @@
         <v>11.65783179718734</v>
       </c>
       <c r="K147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>66</v>
       </c>
-      <c r="B148">
-        <v>33</v>
+      <c r="B148" t="s">
+        <v>15</v>
       </c>
       <c r="C148">
         <v>18</v>
@@ -4804,8 +4802,8 @@
       <c r="A150">
         <v>66</v>
       </c>
-      <c r="B150">
-        <v>33</v>
+      <c r="B150" t="s">
+        <v>15</v>
       </c>
       <c r="C150">
         <v>9</v>
@@ -4832,24 +4830,24 @@
         <v>14.870280041462099</v>
       </c>
       <c r="K150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>66</v>
       </c>
-      <c r="B151">
-        <v>33</v>
+      <c r="B151" t="s">
+        <v>15</v>
       </c>
       <c r="C151">
         <v>15</v>
@@ -4892,8 +4890,8 @@
       <c r="A153">
         <v>66</v>
       </c>
-      <c r="B153">
-        <v>33</v>
+      <c r="B153" t="s">
+        <v>15</v>
       </c>
       <c r="C153">
         <v>8</v>
@@ -4920,24 +4918,24 @@
         <v>10.131073913252184</v>
       </c>
       <c r="K153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>66</v>
       </c>
-      <c r="B154">
-        <v>33</v>
+      <c r="B154" t="s">
+        <v>15</v>
       </c>
       <c r="C154">
         <v>15</v>
@@ -4980,8 +4978,8 @@
       <c r="A156">
         <v>66</v>
       </c>
-      <c r="B156">
-        <v>33</v>
+      <c r="B156" t="s">
+        <v>15</v>
       </c>
       <c r="C156">
         <v>8</v>
@@ -5008,24 +5006,24 @@
         <v>10.131073913252184</v>
       </c>
       <c r="K156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>66</v>
       </c>
-      <c r="B157">
-        <v>33</v>
+      <c r="B157" t="s">
+        <v>15</v>
       </c>
       <c r="C157">
         <v>17</v>
@@ -5068,8 +5066,8 @@
       <c r="A159">
         <v>66</v>
       </c>
-      <c r="B159">
-        <v>33</v>
+      <c r="B159" t="s">
+        <v>15</v>
       </c>
       <c r="C159">
         <v>9</v>
@@ -5096,24 +5094,24 @@
         <v>14.870280041462099</v>
       </c>
       <c r="K159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>66</v>
       </c>
-      <c r="B160">
-        <v>33</v>
+      <c r="B160" t="s">
+        <v>15</v>
       </c>
       <c r="C160">
         <v>17</v>
@@ -5156,8 +5154,8 @@
       <c r="A162">
         <v>66</v>
       </c>
-      <c r="B162">
-        <v>33</v>
+      <c r="B162" t="s">
+        <v>15</v>
       </c>
       <c r="C162">
         <v>10</v>
@@ -5184,24 +5182,24 @@
         <v>15.293838655071948</v>
       </c>
       <c r="K162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>66</v>
       </c>
-      <c r="B163">
-        <v>33</v>
+      <c r="B163" t="s">
+        <v>15</v>
       </c>
       <c r="C163">
         <v>18</v>
@@ -5244,8 +5242,8 @@
       <c r="A165">
         <v>66</v>
       </c>
-      <c r="B165">
-        <v>33</v>
+      <c r="B165" t="s">
+        <v>15</v>
       </c>
       <c r="C165">
         <v>8</v>
@@ -5272,24 +5270,24 @@
         <v>13.039594956106605</v>
       </c>
       <c r="K165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>66</v>
       </c>
-      <c r="B166">
-        <v>33</v>
+      <c r="B166" t="s">
+        <v>15</v>
       </c>
       <c r="C166">
         <v>14</v>
@@ -5332,8 +5330,8 @@
       <c r="A168">
         <v>66</v>
       </c>
-      <c r="B168">
-        <v>33</v>
+      <c r="B168" t="s">
+        <v>15</v>
       </c>
       <c r="C168">
         <v>8</v>
@@ -5360,24 +5358,24 @@
         <v>10.131073913252184</v>
       </c>
       <c r="K168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>66</v>
       </c>
-      <c r="B169">
-        <v>33</v>
+      <c r="B169" t="s">
+        <v>15</v>
       </c>
       <c r="C169">
         <v>18</v>
@@ -5420,8 +5418,8 @@
       <c r="A171">
         <v>66</v>
       </c>
-      <c r="B171">
-        <v>33</v>
+      <c r="B171" t="s">
+        <v>15</v>
       </c>
       <c r="C171">
         <v>9</v>
@@ -5448,24 +5446,24 @@
         <v>14.870280041462099</v>
       </c>
       <c r="K171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>66</v>
       </c>
-      <c r="B172">
-        <v>33</v>
+      <c r="B172" t="s">
+        <v>15</v>
       </c>
       <c r="C172">
         <v>18</v>
@@ -5508,8 +5506,8 @@
       <c r="A174">
         <v>66</v>
       </c>
-      <c r="B174">
-        <v>33</v>
+      <c r="B174" t="s">
+        <v>15</v>
       </c>
       <c r="C174">
         <v>8</v>
@@ -5536,24 +5534,24 @@
         <v>13.039594956106605</v>
       </c>
       <c r="K174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>66</v>
       </c>
-      <c r="B175">
-        <v>33</v>
+      <c r="B175" t="s">
+        <v>15</v>
       </c>
       <c r="C175">
         <v>16</v>
@@ -5596,8 +5594,8 @@
       <c r="A177">
         <v>66</v>
       </c>
-      <c r="B177">
-        <v>33</v>
+      <c r="B177" t="s">
+        <v>15</v>
       </c>
       <c r="C177">
         <v>8</v>
@@ -5624,24 +5622,24 @@
         <v>13.039594956106605</v>
       </c>
       <c r="K177" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L177" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M177" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N177" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>66</v>
       </c>
-      <c r="B178">
-        <v>33</v>
+      <c r="B178" t="s">
+        <v>15</v>
       </c>
       <c r="C178">
         <v>15</v>
@@ -5684,8 +5682,8 @@
       <c r="A180">
         <v>66</v>
       </c>
-      <c r="B180">
-        <v>33</v>
+      <c r="B180" t="s">
+        <v>15</v>
       </c>
       <c r="C180">
         <v>8</v>
@@ -5712,24 +5710,24 @@
         <v>13.039594956106605</v>
       </c>
       <c r="K180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>66</v>
       </c>
-      <c r="B181">
-        <v>33</v>
+      <c r="B181" t="s">
+        <v>15</v>
       </c>
       <c r="C181">
         <v>17</v>
@@ -5772,8 +5770,8 @@
       <c r="A183">
         <v>66</v>
       </c>
-      <c r="B183">
-        <v>33</v>
+      <c r="B183" t="s">
+        <v>15</v>
       </c>
       <c r="C183">
         <v>8</v>
@@ -5800,24 +5798,24 @@
         <v>13.039594956106605</v>
       </c>
       <c r="K183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>66</v>
       </c>
-      <c r="B184">
-        <v>33</v>
+      <c r="B184" t="s">
+        <v>15</v>
       </c>
       <c r="C184">
         <v>18</v>
@@ -5860,14 +5858,14 @@
       <c r="A186">
         <v>66</v>
       </c>
-      <c r="B186">
-        <v>33</v>
+      <c r="B186" t="s">
+        <v>15</v>
       </c>
       <c r="C186">
         <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E186">
         <v>18.536161548352325</v>
@@ -5906,7 +5904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D73DC0-BA67-4D53-98C0-B330DFD0B03E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E8A100-D4B2-4D76-A404-BA634C353302}">
   <dimension ref="A1:O309"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5964,8 +5962,8 @@
       <c r="A2">
         <v>66</v>
       </c>
-      <c r="B2">
-        <v>33</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
         <v>43</v>
@@ -5995,24 +5993,24 @@
         <v>5.1533713081841102</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>66</v>
       </c>
-      <c r="B3">
-        <v>33</v>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
         <v>43</v>
@@ -6058,8 +6056,8 @@
       <c r="A4">
         <v>66</v>
       </c>
-      <c r="B4">
-        <v>33</v>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
       <c r="C4">
         <v>44</v>
@@ -6089,24 +6087,24 @@
         <v>5.6648151281231005</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>66</v>
       </c>
-      <c r="B5">
-        <v>33</v>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
       <c r="C5">
         <v>44</v>
@@ -6152,8 +6150,8 @@
       <c r="A7">
         <v>66</v>
       </c>
-      <c r="B7">
-        <v>33</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7">
         <v>43</v>
@@ -6183,24 +6181,24 @@
         <v>5.0627600652801057</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>66</v>
       </c>
-      <c r="B8">
-        <v>33</v>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>43</v>
@@ -6246,8 +6244,8 @@
       <c r="A9">
         <v>66</v>
       </c>
-      <c r="B9">
-        <v>33</v>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
       <c r="C9">
         <v>44</v>
@@ -6277,24 +6275,24 @@
         <v>5.4241892282630708</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>66</v>
       </c>
-      <c r="B10">
-        <v>33</v>
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
       <c r="C10">
         <v>44</v>
@@ -6340,8 +6338,8 @@
       <c r="A12">
         <v>66</v>
       </c>
-      <c r="B12">
-        <v>33</v>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
       <c r="C12">
         <v>43</v>
@@ -6371,24 +6369,24 @@
         <v>5.1533713081841102</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>66</v>
       </c>
-      <c r="B13">
-        <v>33</v>
+      <c r="B13" t="s">
+        <v>15</v>
       </c>
       <c r="C13">
         <v>43</v>
@@ -6434,8 +6432,8 @@
       <c r="A14">
         <v>66</v>
       </c>
-      <c r="B14">
-        <v>33</v>
+      <c r="B14" t="s">
+        <v>15</v>
       </c>
       <c r="C14">
         <v>44</v>
@@ -6465,24 +6463,24 @@
         <v>5.6648151281231005</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>66</v>
       </c>
-      <c r="B15">
-        <v>33</v>
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
       <c r="C15">
         <v>44</v>
@@ -6528,8 +6526,8 @@
       <c r="A17">
         <v>66</v>
       </c>
-      <c r="B17">
-        <v>33</v>
+      <c r="B17" t="s">
+        <v>15</v>
       </c>
       <c r="C17">
         <v>43</v>
@@ -6559,24 +6557,24 @@
         <v>4.1605840561263996</v>
       </c>
       <c r="L17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>66</v>
       </c>
-      <c r="B18">
-        <v>33</v>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
       <c r="C18">
         <v>43</v>
@@ -6622,8 +6620,8 @@
       <c r="A19">
         <v>66</v>
       </c>
-      <c r="B19">
-        <v>33</v>
+      <c r="B19" t="s">
+        <v>15</v>
       </c>
       <c r="C19">
         <v>44</v>
@@ -6653,24 +6651,24 @@
         <v>4.7252248362276346</v>
       </c>
       <c r="L19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>66</v>
       </c>
-      <c r="B20">
-        <v>33</v>
+      <c r="B20" t="s">
+        <v>15</v>
       </c>
       <c r="C20">
         <v>44</v>
@@ -6716,8 +6714,8 @@
       <c r="A22">
         <v>66</v>
       </c>
-      <c r="B22">
-        <v>33</v>
+      <c r="B22" t="s">
+        <v>15</v>
       </c>
       <c r="C22">
         <v>43</v>
@@ -6747,24 +6745,24 @@
         <v>5.0627600652801057</v>
       </c>
       <c r="L22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>66</v>
       </c>
-      <c r="B23">
-        <v>33</v>
+      <c r="B23" t="s">
+        <v>15</v>
       </c>
       <c r="C23">
         <v>43</v>
@@ -6810,8 +6808,8 @@
       <c r="A24">
         <v>66</v>
       </c>
-      <c r="B24">
-        <v>33</v>
+      <c r="B24" t="s">
+        <v>15</v>
       </c>
       <c r="C24">
         <v>44</v>
@@ -6841,24 +6839,24 @@
         <v>5.4241892282630708</v>
       </c>
       <c r="L24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>66</v>
       </c>
-      <c r="B25">
-        <v>33</v>
+      <c r="B25" t="s">
+        <v>15</v>
       </c>
       <c r="C25">
         <v>44</v>
@@ -6904,8 +6902,8 @@
       <c r="A27">
         <v>66</v>
       </c>
-      <c r="B27">
-        <v>33</v>
+      <c r="B27" t="s">
+        <v>15</v>
       </c>
       <c r="C27">
         <v>43</v>
@@ -6935,24 +6933,24 @@
         <v>4.1605840561263996</v>
       </c>
       <c r="L27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>66</v>
       </c>
-      <c r="B28">
-        <v>33</v>
+      <c r="B28" t="s">
+        <v>15</v>
       </c>
       <c r="C28">
         <v>43</v>
@@ -6998,8 +6996,8 @@
       <c r="A29">
         <v>66</v>
       </c>
-      <c r="B29">
-        <v>33</v>
+      <c r="B29" t="s">
+        <v>15</v>
       </c>
       <c r="C29">
         <v>44</v>
@@ -7029,24 +7027,24 @@
         <v>4.7252248362276346</v>
       </c>
       <c r="L29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>66</v>
       </c>
-      <c r="B30">
-        <v>33</v>
+      <c r="B30" t="s">
+        <v>15</v>
       </c>
       <c r="C30">
         <v>44</v>
@@ -7092,8 +7090,8 @@
       <c r="A32">
         <v>66</v>
       </c>
-      <c r="B32">
-        <v>33</v>
+      <c r="B32" t="s">
+        <v>15</v>
       </c>
       <c r="C32">
         <v>43</v>
@@ -7123,24 +7121,24 @@
         <v>8.4745749931695293</v>
       </c>
       <c r="L32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>66</v>
       </c>
-      <c r="B33">
-        <v>33</v>
+      <c r="B33" t="s">
+        <v>15</v>
       </c>
       <c r="C33">
         <v>43</v>
@@ -7186,8 +7184,8 @@
       <c r="A34">
         <v>66</v>
       </c>
-      <c r="B34">
-        <v>33</v>
+      <c r="B34" t="s">
+        <v>15</v>
       </c>
       <c r="C34">
         <v>44</v>
@@ -7217,24 +7215,24 @@
         <v>9.2196891470651572</v>
       </c>
       <c r="L34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>66</v>
       </c>
-      <c r="B35">
-        <v>33</v>
+      <c r="B35" t="s">
+        <v>15</v>
       </c>
       <c r="C35">
         <v>44</v>
@@ -7280,8 +7278,8 @@
       <c r="A37">
         <v>66</v>
       </c>
-      <c r="B37">
-        <v>33</v>
+      <c r="B37" t="s">
+        <v>15</v>
       </c>
       <c r="C37">
         <v>43</v>
@@ -7311,24 +7309,24 @@
         <v>5.1533713081841102</v>
       </c>
       <c r="L37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>66</v>
       </c>
-      <c r="B38">
-        <v>33</v>
+      <c r="B38" t="s">
+        <v>15</v>
       </c>
       <c r="C38">
         <v>43</v>
@@ -7374,8 +7372,8 @@
       <c r="A39">
         <v>66</v>
       </c>
-      <c r="B39">
-        <v>33</v>
+      <c r="B39" t="s">
+        <v>15</v>
       </c>
       <c r="C39">
         <v>44</v>
@@ -7405,24 +7403,24 @@
         <v>5.6648151281231005</v>
       </c>
       <c r="L39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>66</v>
       </c>
-      <c r="B40">
-        <v>33</v>
+      <c r="B40" t="s">
+        <v>15</v>
       </c>
       <c r="C40">
         <v>44</v>
@@ -7468,8 +7466,8 @@
       <c r="A42">
         <v>66</v>
       </c>
-      <c r="B42">
-        <v>33</v>
+      <c r="B42" t="s">
+        <v>15</v>
       </c>
       <c r="C42">
         <v>43</v>
@@ -7499,24 +7497,24 @@
         <v>5.1533713081841102</v>
       </c>
       <c r="L42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>66</v>
       </c>
-      <c r="B43">
-        <v>33</v>
+      <c r="B43" t="s">
+        <v>15</v>
       </c>
       <c r="C43">
         <v>43</v>
@@ -7562,8 +7560,8 @@
       <c r="A44">
         <v>66</v>
       </c>
-      <c r="B44">
-        <v>33</v>
+      <c r="B44" t="s">
+        <v>15</v>
       </c>
       <c r="C44">
         <v>44</v>
@@ -7593,24 +7591,24 @@
         <v>5.6648151281231005</v>
       </c>
       <c r="L44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>66</v>
       </c>
-      <c r="B45">
-        <v>33</v>
+      <c r="B45" t="s">
+        <v>15</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -7656,8 +7654,8 @@
       <c r="A47">
         <v>66</v>
       </c>
-      <c r="B47">
-        <v>33</v>
+      <c r="B47" t="s">
+        <v>15</v>
       </c>
       <c r="C47">
         <v>43</v>
@@ -7687,24 +7685,24 @@
         <v>8.3501640964378243</v>
       </c>
       <c r="L47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>66</v>
       </c>
-      <c r="B48">
-        <v>33</v>
+      <c r="B48" t="s">
+        <v>15</v>
       </c>
       <c r="C48">
         <v>43</v>
@@ -7750,8 +7748,8 @@
       <c r="A49">
         <v>66</v>
       </c>
-      <c r="B49">
-        <v>33</v>
+      <c r="B49" t="s">
+        <v>15</v>
       </c>
       <c r="C49">
         <v>44</v>
@@ -7781,24 +7779,24 @@
         <v>8.7920544164860264</v>
       </c>
       <c r="L49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>66</v>
       </c>
-      <c r="B50">
-        <v>33</v>
+      <c r="B50" t="s">
+        <v>15</v>
       </c>
       <c r="C50">
         <v>44</v>
@@ -7844,8 +7842,8 @@
       <c r="A52">
         <v>66</v>
       </c>
-      <c r="B52">
-        <v>33</v>
+      <c r="B52" t="s">
+        <v>15</v>
       </c>
       <c r="C52">
         <v>43</v>
@@ -7875,24 +7873,24 @@
         <v>5.0627600652801057</v>
       </c>
       <c r="L52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>66</v>
       </c>
-      <c r="B53">
-        <v>33</v>
+      <c r="B53" t="s">
+        <v>15</v>
       </c>
       <c r="C53">
         <v>43</v>
@@ -7938,8 +7936,8 @@
       <c r="A54">
         <v>66</v>
       </c>
-      <c r="B54">
-        <v>33</v>
+      <c r="B54" t="s">
+        <v>15</v>
       </c>
       <c r="C54">
         <v>44</v>
@@ -7969,24 +7967,24 @@
         <v>5.4241892282630708</v>
       </c>
       <c r="L54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>66</v>
       </c>
-      <c r="B55">
-        <v>33</v>
+      <c r="B55" t="s">
+        <v>15</v>
       </c>
       <c r="C55">
         <v>44</v>
@@ -8032,8 +8030,8 @@
       <c r="A57">
         <v>66</v>
       </c>
-      <c r="B57">
-        <v>33</v>
+      <c r="B57" t="s">
+        <v>15</v>
       </c>
       <c r="C57">
         <v>43</v>
@@ -8063,24 +8061,24 @@
         <v>5.0627600652801057</v>
       </c>
       <c r="L57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>66</v>
       </c>
-      <c r="B58">
-        <v>33</v>
+      <c r="B58" t="s">
+        <v>15</v>
       </c>
       <c r="C58">
         <v>43</v>
@@ -8126,8 +8124,8 @@
       <c r="A59">
         <v>66</v>
       </c>
-      <c r="B59">
-        <v>33</v>
+      <c r="B59" t="s">
+        <v>15</v>
       </c>
       <c r="C59">
         <v>44</v>
@@ -8157,24 +8155,24 @@
         <v>5.4241892282630708</v>
       </c>
       <c r="L59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>66</v>
       </c>
-      <c r="B60">
-        <v>33</v>
+      <c r="B60" t="s">
+        <v>15</v>
       </c>
       <c r="C60">
         <v>44</v>
@@ -8220,8 +8218,8 @@
       <c r="A62">
         <v>66</v>
       </c>
-      <c r="B62">
-        <v>33</v>
+      <c r="B62" t="s">
+        <v>15</v>
       </c>
       <c r="C62">
         <v>43</v>
@@ -8251,24 +8249,24 @@
         <v>8.4745749931695293</v>
       </c>
       <c r="L62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>66</v>
       </c>
-      <c r="B63">
-        <v>33</v>
+      <c r="B63" t="s">
+        <v>15</v>
       </c>
       <c r="C63">
         <v>43</v>
@@ -8314,8 +8312,8 @@
       <c r="A64">
         <v>66</v>
       </c>
-      <c r="B64">
-        <v>33</v>
+      <c r="B64" t="s">
+        <v>15</v>
       </c>
       <c r="C64">
         <v>44</v>
@@ -8345,24 +8343,24 @@
         <v>9.2196891470651572</v>
       </c>
       <c r="L64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>66</v>
       </c>
-      <c r="B65">
-        <v>33</v>
+      <c r="B65" t="s">
+        <v>15</v>
       </c>
       <c r="C65">
         <v>44</v>
@@ -8408,8 +8406,8 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>33</v>
+      <c r="B67" t="s">
+        <v>15</v>
       </c>
       <c r="C67">
         <v>43</v>
@@ -8439,24 +8437,24 @@
         <v>4.1605840561263996</v>
       </c>
       <c r="L67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>33</v>
+      <c r="B68" t="s">
+        <v>15</v>
       </c>
       <c r="C68">
         <v>43</v>
@@ -8502,8 +8500,8 @@
       <c r="A69">
         <v>66</v>
       </c>
-      <c r="B69">
-        <v>33</v>
+      <c r="B69" t="s">
+        <v>15</v>
       </c>
       <c r="C69">
         <v>44</v>
@@ -8533,24 +8531,24 @@
         <v>4.7252248362276346</v>
       </c>
       <c r="L69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>66</v>
       </c>
-      <c r="B70">
-        <v>33</v>
+      <c r="B70" t="s">
+        <v>15</v>
       </c>
       <c r="C70">
         <v>44</v>
@@ -8596,8 +8594,8 @@
       <c r="A72">
         <v>66</v>
       </c>
-      <c r="B72">
-        <v>33</v>
+      <c r="B72" t="s">
+        <v>15</v>
       </c>
       <c r="C72">
         <v>43</v>
@@ -8627,24 +8625,24 @@
         <v>8.3501640964378243</v>
       </c>
       <c r="L72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>66</v>
       </c>
-      <c r="B73">
-        <v>33</v>
+      <c r="B73" t="s">
+        <v>15</v>
       </c>
       <c r="C73">
         <v>43</v>
@@ -8690,8 +8688,8 @@
       <c r="A74">
         <v>66</v>
       </c>
-      <c r="B74">
-        <v>33</v>
+      <c r="B74" t="s">
+        <v>15</v>
       </c>
       <c r="C74">
         <v>44</v>
@@ -8721,24 +8719,24 @@
         <v>8.7920544164860264</v>
       </c>
       <c r="L74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>66</v>
       </c>
-      <c r="B75">
-        <v>33</v>
+      <c r="B75" t="s">
+        <v>15</v>
       </c>
       <c r="C75">
         <v>44</v>
@@ -8784,8 +8782,8 @@
       <c r="A77">
         <v>66</v>
       </c>
-      <c r="B77">
-        <v>33</v>
+      <c r="B77" t="s">
+        <v>15</v>
       </c>
       <c r="C77">
         <v>43</v>
@@ -8815,24 +8813,24 @@
         <v>4.1605840561263996</v>
       </c>
       <c r="L77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>66</v>
       </c>
-      <c r="B78">
-        <v>33</v>
+      <c r="B78" t="s">
+        <v>15</v>
       </c>
       <c r="C78">
         <v>43</v>
@@ -8878,8 +8876,8 @@
       <c r="A79">
         <v>66</v>
       </c>
-      <c r="B79">
-        <v>33</v>
+      <c r="B79" t="s">
+        <v>15</v>
       </c>
       <c r="C79">
         <v>44</v>
@@ -8909,24 +8907,24 @@
         <v>4.7252248362276346</v>
       </c>
       <c r="L79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>66</v>
       </c>
-      <c r="B80">
-        <v>33</v>
+      <c r="B80" t="s">
+        <v>15</v>
       </c>
       <c r="C80">
         <v>44</v>
@@ -8972,8 +8970,8 @@
       <c r="A82">
         <v>66</v>
       </c>
-      <c r="B82">
-        <v>33</v>
+      <c r="B82" t="s">
+        <v>15</v>
       </c>
       <c r="C82">
         <v>43</v>
@@ -9003,24 +9001,24 @@
         <v>5.1533713081841102</v>
       </c>
       <c r="L82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>66</v>
       </c>
-      <c r="B83">
-        <v>33</v>
+      <c r="B83" t="s">
+        <v>15</v>
       </c>
       <c r="C83">
         <v>43</v>
@@ -9066,8 +9064,8 @@
       <c r="A84">
         <v>66</v>
       </c>
-      <c r="B84">
-        <v>33</v>
+      <c r="B84" t="s">
+        <v>15</v>
       </c>
       <c r="C84">
         <v>44</v>
@@ -9097,24 +9095,24 @@
         <v>5.6648151281231005</v>
       </c>
       <c r="L84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>66</v>
       </c>
-      <c r="B85">
-        <v>33</v>
+      <c r="B85" t="s">
+        <v>15</v>
       </c>
       <c r="C85">
         <v>44</v>
@@ -9160,8 +9158,8 @@
       <c r="A87">
         <v>66</v>
       </c>
-      <c r="B87">
-        <v>33</v>
+      <c r="B87" t="s">
+        <v>15</v>
       </c>
       <c r="C87">
         <v>43</v>
@@ -9191,24 +9189,24 @@
         <v>11.355844147433871</v>
       </c>
       <c r="L87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>66</v>
       </c>
-      <c r="B88">
-        <v>33</v>
+      <c r="B88" t="s">
+        <v>15</v>
       </c>
       <c r="C88">
         <v>43</v>
@@ -9254,8 +9252,8 @@
       <c r="A89">
         <v>66</v>
       </c>
-      <c r="B89">
-        <v>33</v>
+      <c r="B89" t="s">
+        <v>15</v>
       </c>
       <c r="C89">
         <v>44</v>
@@ -9285,24 +9283,24 @@
         <v>12.64197042811672</v>
       </c>
       <c r="L89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>66</v>
       </c>
-      <c r="B90">
-        <v>33</v>
+      <c r="B90" t="s">
+        <v>15</v>
       </c>
       <c r="C90">
         <v>44</v>
@@ -9348,8 +9346,8 @@
       <c r="A92">
         <v>66</v>
       </c>
-      <c r="B92">
-        <v>33</v>
+      <c r="B92" t="s">
+        <v>15</v>
       </c>
       <c r="C92">
         <v>43</v>
@@ -9379,24 +9377,24 @@
         <v>5.0627600652801057</v>
       </c>
       <c r="L92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>66</v>
       </c>
-      <c r="B93">
-        <v>33</v>
+      <c r="B93" t="s">
+        <v>15</v>
       </c>
       <c r="C93">
         <v>43</v>
@@ -9442,8 +9440,8 @@
       <c r="A94">
         <v>66</v>
       </c>
-      <c r="B94">
-        <v>33</v>
+      <c r="B94" t="s">
+        <v>15</v>
       </c>
       <c r="C94">
         <v>44</v>
@@ -9473,24 +9471,24 @@
         <v>5.4241892282630708</v>
       </c>
       <c r="L94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>66</v>
       </c>
-      <c r="B95">
-        <v>33</v>
+      <c r="B95" t="s">
+        <v>15</v>
       </c>
       <c r="C95">
         <v>44</v>
@@ -9536,8 +9534,8 @@
       <c r="A97">
         <v>66</v>
       </c>
-      <c r="B97">
-        <v>33</v>
+      <c r="B97" t="s">
+        <v>15</v>
       </c>
       <c r="C97">
         <v>43</v>
@@ -9567,24 +9565,24 @@
         <v>7.0057952419150826</v>
       </c>
       <c r="L97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>66</v>
       </c>
-      <c r="B98">
-        <v>33</v>
+      <c r="B98" t="s">
+        <v>15</v>
       </c>
       <c r="C98">
         <v>43</v>
@@ -9630,8 +9628,8 @@
       <c r="A99">
         <v>66</v>
       </c>
-      <c r="B99">
-        <v>33</v>
+      <c r="B99" t="s">
+        <v>15</v>
       </c>
       <c r="C99">
         <v>44</v>
@@ -9661,24 +9659,24 @@
         <v>7.7390213090693285</v>
       </c>
       <c r="L99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>66</v>
       </c>
-      <c r="B100">
-        <v>33</v>
+      <c r="B100" t="s">
+        <v>15</v>
       </c>
       <c r="C100">
         <v>44</v>
@@ -9724,8 +9722,8 @@
       <c r="A102">
         <v>66</v>
       </c>
-      <c r="B102">
-        <v>33</v>
+      <c r="B102" t="s">
+        <v>15</v>
       </c>
       <c r="C102">
         <v>43</v>
@@ -9755,24 +9753,24 @@
         <v>8.4745749931695293</v>
       </c>
       <c r="L102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>66</v>
       </c>
-      <c r="B103">
-        <v>33</v>
+      <c r="B103" t="s">
+        <v>15</v>
       </c>
       <c r="C103">
         <v>43</v>
@@ -9818,8 +9816,8 @@
       <c r="A104">
         <v>66</v>
       </c>
-      <c r="B104">
-        <v>33</v>
+      <c r="B104" t="s">
+        <v>15</v>
       </c>
       <c r="C104">
         <v>44</v>
@@ -9849,24 +9847,24 @@
         <v>9.2196891470651572</v>
       </c>
       <c r="L104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>66</v>
       </c>
-      <c r="B105">
-        <v>33</v>
+      <c r="B105" t="s">
+        <v>15</v>
       </c>
       <c r="C105">
         <v>44</v>
@@ -9912,8 +9910,8 @@
       <c r="A107">
         <v>66</v>
       </c>
-      <c r="B107">
-        <v>33</v>
+      <c r="B107" t="s">
+        <v>15</v>
       </c>
       <c r="C107">
         <v>43</v>
@@ -9922,7 +9920,7 @@
         <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F107">
         <v>19.529720999658238</v>
@@ -9959,8 +9957,8 @@
       <c r="A108">
         <v>66</v>
       </c>
-      <c r="B108">
-        <v>33</v>
+      <c r="B108" t="s">
+        <v>15</v>
       </c>
       <c r="C108">
         <v>44</v>
@@ -9969,7 +9967,7 @@
         <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F108">
         <v>20.791305897890901</v>
@@ -10006,8 +10004,8 @@
       <c r="A110">
         <v>66</v>
       </c>
-      <c r="B110">
-        <v>33</v>
+      <c r="B110" t="s">
+        <v>15</v>
       </c>
       <c r="C110">
         <v>43</v>
@@ -10037,24 +10035,24 @@
         <v>8.4745749931695293</v>
       </c>
       <c r="L110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>66</v>
       </c>
-      <c r="B111">
-        <v>33</v>
+      <c r="B111" t="s">
+        <v>15</v>
       </c>
       <c r="C111">
         <v>43</v>
@@ -10100,8 +10098,8 @@
       <c r="A112">
         <v>66</v>
       </c>
-      <c r="B112">
-        <v>33</v>
+      <c r="B112" t="s">
+        <v>15</v>
       </c>
       <c r="C112">
         <v>44</v>
@@ -10131,24 +10129,24 @@
         <v>9.2196891470651572</v>
       </c>
       <c r="L112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>66</v>
       </c>
-      <c r="B113">
-        <v>33</v>
+      <c r="B113" t="s">
+        <v>15</v>
       </c>
       <c r="C113">
         <v>44</v>
@@ -10194,8 +10192,8 @@
       <c r="A115">
         <v>66</v>
       </c>
-      <c r="B115">
-        <v>33</v>
+      <c r="B115" t="s">
+        <v>15</v>
       </c>
       <c r="C115">
         <v>43</v>
@@ -10225,24 +10223,24 @@
         <v>4.1605840561263996</v>
       </c>
       <c r="L115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>66</v>
       </c>
-      <c r="B116">
-        <v>33</v>
+      <c r="B116" t="s">
+        <v>15</v>
       </c>
       <c r="C116">
         <v>43</v>
@@ -10288,8 +10286,8 @@
       <c r="A117">
         <v>66</v>
       </c>
-      <c r="B117">
-        <v>33</v>
+      <c r="B117" t="s">
+        <v>15</v>
       </c>
       <c r="C117">
         <v>44</v>
@@ -10319,24 +10317,24 @@
         <v>4.7252248362276346</v>
       </c>
       <c r="L117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>66</v>
       </c>
-      <c r="B118">
-        <v>33</v>
+      <c r="B118" t="s">
+        <v>15</v>
       </c>
       <c r="C118">
         <v>44</v>
@@ -10382,8 +10380,8 @@
       <c r="A120">
         <v>66</v>
       </c>
-      <c r="B120">
-        <v>33</v>
+      <c r="B120" t="s">
+        <v>15</v>
       </c>
       <c r="C120">
         <v>43</v>
@@ -10413,24 +10411,24 @@
         <v>11.215610500176433</v>
       </c>
       <c r="L120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>66</v>
       </c>
-      <c r="B121">
-        <v>33</v>
+      <c r="B121" t="s">
+        <v>15</v>
       </c>
       <c r="C121">
         <v>43</v>
@@ -10476,8 +10474,8 @@
       <c r="A122">
         <v>66</v>
       </c>
-      <c r="B122">
-        <v>33</v>
+      <c r="B122" t="s">
+        <v>15</v>
       </c>
       <c r="C122">
         <v>44</v>
@@ -10507,24 +10505,24 @@
         <v>12.100053094198246</v>
       </c>
       <c r="L122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>66</v>
       </c>
-      <c r="B123">
-        <v>33</v>
+      <c r="B123" t="s">
+        <v>15</v>
       </c>
       <c r="C123">
         <v>44</v>
@@ -10570,8 +10568,8 @@
       <c r="A125">
         <v>66</v>
       </c>
-      <c r="B125">
-        <v>33</v>
+      <c r="B125" t="s">
+        <v>15</v>
       </c>
       <c r="C125">
         <v>43</v>
@@ -10601,24 +10599,24 @@
         <v>11.355844147433871</v>
       </c>
       <c r="L125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>66</v>
       </c>
-      <c r="B126">
-        <v>33</v>
+      <c r="B126" t="s">
+        <v>15</v>
       </c>
       <c r="C126">
         <v>43</v>
@@ -10664,8 +10662,8 @@
       <c r="A127">
         <v>66</v>
       </c>
-      <c r="B127">
-        <v>33</v>
+      <c r="B127" t="s">
+        <v>15</v>
       </c>
       <c r="C127">
         <v>44</v>
@@ -10695,24 +10693,24 @@
         <v>12.64197042811672</v>
       </c>
       <c r="L127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>66</v>
       </c>
-      <c r="B128">
-        <v>33</v>
+      <c r="B128" t="s">
+        <v>15</v>
       </c>
       <c r="C128">
         <v>44</v>
@@ -10758,8 +10756,8 @@
       <c r="A130">
         <v>66</v>
       </c>
-      <c r="B130">
-        <v>33</v>
+      <c r="B130" t="s">
+        <v>15</v>
       </c>
       <c r="C130">
         <v>43</v>
@@ -10789,24 +10787,24 @@
         <v>7.0057952419150826</v>
       </c>
       <c r="L130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>66</v>
       </c>
-      <c r="B131">
-        <v>33</v>
+      <c r="B131" t="s">
+        <v>15</v>
       </c>
       <c r="C131">
         <v>43</v>
@@ -10852,8 +10850,8 @@
       <c r="A132">
         <v>66</v>
       </c>
-      <c r="B132">
-        <v>33</v>
+      <c r="B132" t="s">
+        <v>15</v>
       </c>
       <c r="C132">
         <v>44</v>
@@ -10883,24 +10881,24 @@
         <v>7.7390213090693285</v>
       </c>
       <c r="L132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>66</v>
       </c>
-      <c r="B133">
-        <v>33</v>
+      <c r="B133" t="s">
+        <v>15</v>
       </c>
       <c r="C133">
         <v>44</v>
@@ -10946,8 +10944,8 @@
       <c r="A135">
         <v>66</v>
       </c>
-      <c r="B135">
-        <v>33</v>
+      <c r="B135" t="s">
+        <v>15</v>
       </c>
       <c r="C135">
         <v>43</v>
@@ -10977,24 +10975,24 @@
         <v>8.3501640964378243</v>
       </c>
       <c r="L135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>66</v>
       </c>
-      <c r="B136">
-        <v>33</v>
+      <c r="B136" t="s">
+        <v>15</v>
       </c>
       <c r="C136">
         <v>43</v>
@@ -11040,8 +11038,8 @@
       <c r="A137">
         <v>66</v>
       </c>
-      <c r="B137">
-        <v>33</v>
+      <c r="B137" t="s">
+        <v>15</v>
       </c>
       <c r="C137">
         <v>44</v>
@@ -11071,24 +11069,24 @@
         <v>8.7920544164860264</v>
       </c>
       <c r="L137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>66</v>
       </c>
-      <c r="B138">
-        <v>33</v>
+      <c r="B138" t="s">
+        <v>15</v>
       </c>
       <c r="C138">
         <v>44</v>
@@ -11134,8 +11132,8 @@
       <c r="A140">
         <v>66</v>
       </c>
-      <c r="B140">
-        <v>33</v>
+      <c r="B140" t="s">
+        <v>15</v>
       </c>
       <c r="C140">
         <v>43</v>
@@ -11165,24 +11163,24 @@
         <v>8.3501640964378243</v>
       </c>
       <c r="L140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>66</v>
       </c>
-      <c r="B141">
-        <v>33</v>
+      <c r="B141" t="s">
+        <v>15</v>
       </c>
       <c r="C141">
         <v>43</v>
@@ -11228,8 +11226,8 @@
       <c r="A142">
         <v>66</v>
       </c>
-      <c r="B142">
-        <v>33</v>
+      <c r="B142" t="s">
+        <v>15</v>
       </c>
       <c r="C142">
         <v>44</v>
@@ -11259,24 +11257,24 @@
         <v>8.7920544164860264</v>
       </c>
       <c r="L142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>66</v>
       </c>
-      <c r="B143">
-        <v>33</v>
+      <c r="B143" t="s">
+        <v>15</v>
       </c>
       <c r="C143">
         <v>44</v>
@@ -11322,8 +11320,8 @@
       <c r="A145">
         <v>66</v>
       </c>
-      <c r="B145">
-        <v>33</v>
+      <c r="B145" t="s">
+        <v>15</v>
       </c>
       <c r="C145">
         <v>43</v>
@@ -11353,24 +11351,24 @@
         <v>8.4745749931695293</v>
       </c>
       <c r="L145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>66</v>
       </c>
-      <c r="B146">
-        <v>33</v>
+      <c r="B146" t="s">
+        <v>15</v>
       </c>
       <c r="C146">
         <v>43</v>
@@ -11416,8 +11414,8 @@
       <c r="A147">
         <v>66</v>
       </c>
-      <c r="B147">
-        <v>33</v>
+      <c r="B147" t="s">
+        <v>15</v>
       </c>
       <c r="C147">
         <v>44</v>
@@ -11447,24 +11445,24 @@
         <v>9.2196891470651572</v>
       </c>
       <c r="L147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>66</v>
       </c>
-      <c r="B148">
-        <v>33</v>
+      <c r="B148" t="s">
+        <v>15</v>
       </c>
       <c r="C148">
         <v>44</v>
@@ -11510,8 +11508,8 @@
       <c r="A150">
         <v>66</v>
       </c>
-      <c r="B150">
-        <v>33</v>
+      <c r="B150" t="s">
+        <v>15</v>
       </c>
       <c r="C150">
         <v>43</v>
@@ -11541,24 +11539,24 @@
         <v>11.215610500176433</v>
       </c>
       <c r="L150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>66</v>
       </c>
-      <c r="B151">
-        <v>33</v>
+      <c r="B151" t="s">
+        <v>15</v>
       </c>
       <c r="C151">
         <v>43</v>
@@ -11604,8 +11602,8 @@
       <c r="A152">
         <v>66</v>
       </c>
-      <c r="B152">
-        <v>33</v>
+      <c r="B152" t="s">
+        <v>15</v>
       </c>
       <c r="C152">
         <v>44</v>
@@ -11635,24 +11633,24 @@
         <v>12.100053094198246</v>
       </c>
       <c r="L152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>66</v>
       </c>
-      <c r="B153">
-        <v>33</v>
+      <c r="B153" t="s">
+        <v>15</v>
       </c>
       <c r="C153">
         <v>44</v>
@@ -11698,8 +11696,8 @@
       <c r="A155">
         <v>66</v>
       </c>
-      <c r="B155">
-        <v>33</v>
+      <c r="B155" t="s">
+        <v>15</v>
       </c>
       <c r="C155">
         <v>43</v>
@@ -11729,24 +11727,24 @@
         <v>15.161266628229134</v>
       </c>
       <c r="L155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>66</v>
       </c>
-      <c r="B156">
-        <v>33</v>
+      <c r="B156" t="s">
+        <v>15</v>
       </c>
       <c r="C156">
         <v>43</v>
@@ -11792,8 +11790,8 @@
       <c r="A157">
         <v>66</v>
       </c>
-      <c r="B157">
-        <v>33</v>
+      <c r="B157" t="s">
+        <v>15</v>
       </c>
       <c r="C157">
         <v>44</v>
@@ -11823,24 +11821,24 @@
         <v>15.42641068191476</v>
       </c>
       <c r="L157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>66</v>
       </c>
-      <c r="B158">
-        <v>33</v>
+      <c r="B158" t="s">
+        <v>15</v>
       </c>
       <c r="C158">
         <v>44</v>
@@ -11886,8 +11884,8 @@
       <c r="A160">
         <v>66</v>
       </c>
-      <c r="B160">
-        <v>33</v>
+      <c r="B160" t="s">
+        <v>15</v>
       </c>
       <c r="C160">
         <v>43</v>
@@ -11917,24 +11915,24 @@
         <v>11.355844147433871</v>
       </c>
       <c r="L160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>66</v>
       </c>
-      <c r="B161">
-        <v>33</v>
+      <c r="B161" t="s">
+        <v>15</v>
       </c>
       <c r="C161">
         <v>43</v>
@@ -11980,8 +11978,8 @@
       <c r="A162">
         <v>66</v>
       </c>
-      <c r="B162">
-        <v>33</v>
+      <c r="B162" t="s">
+        <v>15</v>
       </c>
       <c r="C162">
         <v>44</v>
@@ -12011,24 +12009,24 @@
         <v>12.64197042811672</v>
       </c>
       <c r="L162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>66</v>
       </c>
-      <c r="B163">
-        <v>33</v>
+      <c r="B163" t="s">
+        <v>15</v>
       </c>
       <c r="C163">
         <v>44</v>
@@ -12074,8 +12072,8 @@
       <c r="A165">
         <v>66</v>
       </c>
-      <c r="B165">
-        <v>33</v>
+      <c r="B165" t="s">
+        <v>15</v>
       </c>
       <c r="C165">
         <v>43</v>
@@ -12084,7 +12082,7 @@
         <v>9</v>
       </c>
       <c r="E165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F165">
         <v>18.832772152098858</v>
@@ -12121,8 +12119,8 @@
       <c r="A166">
         <v>66</v>
       </c>
-      <c r="B166">
-        <v>33</v>
+      <c r="B166" t="s">
+        <v>15</v>
       </c>
       <c r="C166">
         <v>44</v>
@@ -12131,7 +12129,7 @@
         <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F166">
         <v>20.049335406605159</v>
@@ -12168,8 +12166,8 @@
       <c r="A168">
         <v>66</v>
       </c>
-      <c r="B168">
-        <v>33</v>
+      <c r="B168" t="s">
+        <v>15</v>
       </c>
       <c r="C168">
         <v>43</v>
@@ -12199,24 +12197,24 @@
         <v>11.355844147433871</v>
       </c>
       <c r="L168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>66</v>
       </c>
-      <c r="B169">
-        <v>33</v>
+      <c r="B169" t="s">
+        <v>15</v>
       </c>
       <c r="C169">
         <v>43</v>
@@ -12262,8 +12260,8 @@
       <c r="A170">
         <v>66</v>
       </c>
-      <c r="B170">
-        <v>33</v>
+      <c r="B170" t="s">
+        <v>15</v>
       </c>
       <c r="C170">
         <v>44</v>
@@ -12293,24 +12291,24 @@
         <v>12.64197042811672</v>
       </c>
       <c r="L170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>66</v>
       </c>
-      <c r="B171">
-        <v>33</v>
+      <c r="B171" t="s">
+        <v>15</v>
       </c>
       <c r="C171">
         <v>44</v>
@@ -12356,8 +12354,8 @@
       <c r="A173">
         <v>66</v>
       </c>
-      <c r="B173">
-        <v>33</v>
+      <c r="B173" t="s">
+        <v>15</v>
       </c>
       <c r="C173">
         <v>43</v>
@@ -12387,24 +12385,24 @@
         <v>8.3501640964378243</v>
       </c>
       <c r="L173" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M173" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N173" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O173" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>66</v>
       </c>
-      <c r="B174">
-        <v>33</v>
+      <c r="B174" t="s">
+        <v>15</v>
       </c>
       <c r="C174">
         <v>43</v>
@@ -12450,8 +12448,8 @@
       <c r="A175">
         <v>66</v>
       </c>
-      <c r="B175">
-        <v>33</v>
+      <c r="B175" t="s">
+        <v>15</v>
       </c>
       <c r="C175">
         <v>44</v>
@@ -12481,24 +12479,24 @@
         <v>8.7920544164860264</v>
       </c>
       <c r="L175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>66</v>
       </c>
-      <c r="B176">
-        <v>33</v>
+      <c r="B176" t="s">
+        <v>15</v>
       </c>
       <c r="C176">
         <v>44</v>
@@ -12544,8 +12542,8 @@
       <c r="A178">
         <v>66</v>
       </c>
-      <c r="B178">
-        <v>33</v>
+      <c r="B178" t="s">
+        <v>15</v>
       </c>
       <c r="C178">
         <v>43</v>
@@ -12575,24 +12573,24 @@
         <v>7.0057952419150826</v>
       </c>
       <c r="L178" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M178" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N178" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O178" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>66</v>
       </c>
-      <c r="B179">
-        <v>33</v>
+      <c r="B179" t="s">
+        <v>15</v>
       </c>
       <c r="C179">
         <v>43</v>
@@ -12638,8 +12636,8 @@
       <c r="A180">
         <v>66</v>
       </c>
-      <c r="B180">
-        <v>33</v>
+      <c r="B180" t="s">
+        <v>15</v>
       </c>
       <c r="C180">
         <v>44</v>
@@ -12669,24 +12667,24 @@
         <v>7.7390213090693285</v>
       </c>
       <c r="L180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>66</v>
       </c>
-      <c r="B181">
-        <v>33</v>
+      <c r="B181" t="s">
+        <v>15</v>
       </c>
       <c r="C181">
         <v>44</v>
@@ -12732,8 +12730,8 @@
       <c r="A183">
         <v>66</v>
       </c>
-      <c r="B183">
-        <v>33</v>
+      <c r="B183" t="s">
+        <v>15</v>
       </c>
       <c r="C183">
         <v>43</v>
@@ -12763,24 +12761,24 @@
         <v>7.0057952419150826</v>
       </c>
       <c r="L183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>66</v>
       </c>
-      <c r="B184">
-        <v>33</v>
+      <c r="B184" t="s">
+        <v>15</v>
       </c>
       <c r="C184">
         <v>43</v>
@@ -12826,8 +12824,8 @@
       <c r="A185">
         <v>66</v>
       </c>
-      <c r="B185">
-        <v>33</v>
+      <c r="B185" t="s">
+        <v>15</v>
       </c>
       <c r="C185">
         <v>44</v>
@@ -12857,24 +12855,24 @@
         <v>7.7390213090693285</v>
       </c>
       <c r="L185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>66</v>
       </c>
-      <c r="B186">
-        <v>33</v>
+      <c r="B186" t="s">
+        <v>15</v>
       </c>
       <c r="C186">
         <v>44</v>
@@ -12920,8 +12918,8 @@
       <c r="A188">
         <v>66</v>
       </c>
-      <c r="B188">
-        <v>33</v>
+      <c r="B188" t="s">
+        <v>15</v>
       </c>
       <c r="C188">
         <v>43</v>
@@ -12951,24 +12949,24 @@
         <v>15.161266628229134</v>
       </c>
       <c r="L188" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M188" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N188" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O188" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>66</v>
       </c>
-      <c r="B189">
-        <v>33</v>
+      <c r="B189" t="s">
+        <v>15</v>
       </c>
       <c r="C189">
         <v>43</v>
@@ -13014,8 +13012,8 @@
       <c r="A190">
         <v>66</v>
       </c>
-      <c r="B190">
-        <v>33</v>
+      <c r="B190" t="s">
+        <v>15</v>
       </c>
       <c r="C190">
         <v>44</v>
@@ -13045,24 +13043,24 @@
         <v>15.42641068191476</v>
       </c>
       <c r="L190" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M190" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N190" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O190" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>66</v>
       </c>
-      <c r="B191">
-        <v>33</v>
+      <c r="B191" t="s">
+        <v>15</v>
       </c>
       <c r="C191">
         <v>44</v>
@@ -13108,8 +13106,8 @@
       <c r="A193">
         <v>66</v>
       </c>
-      <c r="B193">
-        <v>33</v>
+      <c r="B193" t="s">
+        <v>15</v>
       </c>
       <c r="C193">
         <v>43</v>
@@ -13139,24 +13137,24 @@
         <v>9.4884005563760851</v>
       </c>
       <c r="L193" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M193" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N193" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O193" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>66</v>
       </c>
-      <c r="B194">
-        <v>33</v>
+      <c r="B194" t="s">
+        <v>15</v>
       </c>
       <c r="C194">
         <v>43</v>
@@ -13202,8 +13200,8 @@
       <c r="A195">
         <v>66</v>
       </c>
-      <c r="B195">
-        <v>33</v>
+      <c r="B195" t="s">
+        <v>15</v>
       </c>
       <c r="C195">
         <v>44</v>
@@ -13233,24 +13231,24 @@
         <v>10.773747270128284</v>
       </c>
       <c r="L195" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M195" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N195" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O195" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>66</v>
       </c>
-      <c r="B196">
-        <v>33</v>
+      <c r="B196" t="s">
+        <v>15</v>
       </c>
       <c r="C196">
         <v>44</v>
@@ -13296,8 +13294,8 @@
       <c r="A198">
         <v>66</v>
       </c>
-      <c r="B198">
-        <v>33</v>
+      <c r="B198" t="s">
+        <v>15</v>
       </c>
       <c r="C198">
         <v>43</v>
@@ -13327,24 +13325,24 @@
         <v>11.215610500176433</v>
       </c>
       <c r="L198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>66</v>
       </c>
-      <c r="B199">
-        <v>33</v>
+      <c r="B199" t="s">
+        <v>15</v>
       </c>
       <c r="C199">
         <v>43</v>
@@ -13390,8 +13388,8 @@
       <c r="A200">
         <v>66</v>
       </c>
-      <c r="B200">
-        <v>33</v>
+      <c r="B200" t="s">
+        <v>15</v>
       </c>
       <c r="C200">
         <v>44</v>
@@ -13421,24 +13419,24 @@
         <v>12.100053094198246</v>
       </c>
       <c r="L200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>66</v>
       </c>
-      <c r="B201">
-        <v>33</v>
+      <c r="B201" t="s">
+        <v>15</v>
       </c>
       <c r="C201">
         <v>44</v>
@@ -13484,8 +13482,8 @@
       <c r="A203">
         <v>66</v>
       </c>
-      <c r="B203">
-        <v>33</v>
+      <c r="B203" t="s">
+        <v>15</v>
       </c>
       <c r="C203">
         <v>43</v>
@@ -13515,24 +13513,24 @@
         <v>14.879628934291835</v>
       </c>
       <c r="L203" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M203" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N203" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O203" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>66</v>
       </c>
-      <c r="B204">
-        <v>33</v>
+      <c r="B204" t="s">
+        <v>15</v>
       </c>
       <c r="C204">
         <v>43</v>
@@ -13578,8 +13576,8 @@
       <c r="A205">
         <v>66</v>
       </c>
-      <c r="B205">
-        <v>33</v>
+      <c r="B205" t="s">
+        <v>15</v>
       </c>
       <c r="C205">
         <v>44</v>
@@ -13609,24 +13607,24 @@
         <v>14.860931148632362</v>
       </c>
       <c r="L205" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M205" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N205" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O205" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>66</v>
       </c>
-      <c r="B206">
-        <v>33</v>
+      <c r="B206" t="s">
+        <v>15</v>
       </c>
       <c r="C206">
         <v>44</v>
@@ -13672,8 +13670,8 @@
       <c r="A208">
         <v>66</v>
       </c>
-      <c r="B208">
-        <v>33</v>
+      <c r="B208" t="s">
+        <v>15</v>
       </c>
       <c r="C208">
         <v>43</v>
@@ -13703,24 +13701,24 @@
         <v>11.215610500176433</v>
       </c>
       <c r="L208" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M208" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N208" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O208" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>66</v>
       </c>
-      <c r="B209">
-        <v>33</v>
+      <c r="B209" t="s">
+        <v>15</v>
       </c>
       <c r="C209">
         <v>43</v>
@@ -13766,8 +13764,8 @@
       <c r="A210">
         <v>66</v>
       </c>
-      <c r="B210">
-        <v>33</v>
+      <c r="B210" t="s">
+        <v>15</v>
       </c>
       <c r="C210">
         <v>44</v>
@@ -13797,24 +13795,24 @@
         <v>12.100053094198246</v>
       </c>
       <c r="L210" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M210" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N210" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O210" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>66</v>
       </c>
-      <c r="B211">
-        <v>33</v>
+      <c r="B211" t="s">
+        <v>15</v>
       </c>
       <c r="C211">
         <v>44</v>
@@ -13860,8 +13858,8 @@
       <c r="A213">
         <v>66</v>
       </c>
-      <c r="B213">
-        <v>33</v>
+      <c r="B213" t="s">
+        <v>15</v>
       </c>
       <c r="C213">
         <v>43</v>
@@ -13891,24 +13889,24 @@
         <v>11.355844147433871</v>
       </c>
       <c r="L213" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M213" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N213" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O213" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>66</v>
       </c>
-      <c r="B214">
-        <v>33</v>
+      <c r="B214" t="s">
+        <v>15</v>
       </c>
       <c r="C214">
         <v>43</v>
@@ -13954,8 +13952,8 @@
       <c r="A215">
         <v>66</v>
       </c>
-      <c r="B215">
-        <v>33</v>
+      <c r="B215" t="s">
+        <v>15</v>
       </c>
       <c r="C215">
         <v>44</v>
@@ -13985,24 +13983,24 @@
         <v>12.64197042811672</v>
       </c>
       <c r="L215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>66</v>
       </c>
-      <c r="B216">
-        <v>33</v>
+      <c r="B216" t="s">
+        <v>15</v>
       </c>
       <c r="C216">
         <v>44</v>
@@ -14048,8 +14046,8 @@
       <c r="A218">
         <v>66</v>
       </c>
-      <c r="B218">
-        <v>33</v>
+      <c r="B218" t="s">
+        <v>15</v>
       </c>
       <c r="C218">
         <v>43</v>
@@ -14079,24 +14077,24 @@
         <v>7.0057952419150826</v>
       </c>
       <c r="L218" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M218" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N218" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O218" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>66</v>
       </c>
-      <c r="B219">
-        <v>33</v>
+      <c r="B219" t="s">
+        <v>15</v>
       </c>
       <c r="C219">
         <v>43</v>
@@ -14142,8 +14140,8 @@
       <c r="A220">
         <v>66</v>
       </c>
-      <c r="B220">
-        <v>33</v>
+      <c r="B220" t="s">
+        <v>15</v>
       </c>
       <c r="C220">
         <v>44</v>
@@ -14173,24 +14171,24 @@
         <v>7.7390213090693285</v>
       </c>
       <c r="L220" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M220" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N220" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O220" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>66</v>
       </c>
-      <c r="B221">
-        <v>33</v>
+      <c r="B221" t="s">
+        <v>15</v>
       </c>
       <c r="C221">
         <v>44</v>
@@ -14236,8 +14234,8 @@
       <c r="A223">
         <v>66</v>
       </c>
-      <c r="B223">
-        <v>33</v>
+      <c r="B223" t="s">
+        <v>15</v>
       </c>
       <c r="C223">
         <v>43</v>
@@ -14267,24 +14265,24 @@
         <v>9.4884005563760851</v>
       </c>
       <c r="L223" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M223" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N223" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O223" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>66</v>
       </c>
-      <c r="B224">
-        <v>33</v>
+      <c r="B224" t="s">
+        <v>15</v>
       </c>
       <c r="C224">
         <v>43</v>
@@ -14330,8 +14328,8 @@
       <c r="A225">
         <v>66</v>
       </c>
-      <c r="B225">
-        <v>33</v>
+      <c r="B225" t="s">
+        <v>15</v>
       </c>
       <c r="C225">
         <v>44</v>
@@ -14361,24 +14359,24 @@
         <v>10.773747270128284</v>
       </c>
       <c r="L225" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M225" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N225" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O225" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>66</v>
       </c>
-      <c r="B226">
-        <v>33</v>
+      <c r="B226" t="s">
+        <v>15</v>
       </c>
       <c r="C226">
         <v>44</v>
@@ -14424,8 +14422,8 @@
       <c r="A228">
         <v>66</v>
       </c>
-      <c r="B228">
-        <v>33</v>
+      <c r="B228" t="s">
+        <v>15</v>
       </c>
       <c r="C228">
         <v>43</v>
@@ -14455,24 +14453,24 @@
         <v>15.161266628229134</v>
       </c>
       <c r="L228" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M228" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N228" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O228" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>66</v>
       </c>
-      <c r="B229">
-        <v>33</v>
+      <c r="B229" t="s">
+        <v>15</v>
       </c>
       <c r="C229">
         <v>43</v>
@@ -14518,8 +14516,8 @@
       <c r="A230">
         <v>66</v>
       </c>
-      <c r="B230">
-        <v>33</v>
+      <c r="B230" t="s">
+        <v>15</v>
       </c>
       <c r="C230">
         <v>44</v>
@@ -14549,24 +14547,24 @@
         <v>15.42641068191476</v>
       </c>
       <c r="L230" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M230" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N230" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O230" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>66</v>
       </c>
-      <c r="B231">
-        <v>33</v>
+      <c r="B231" t="s">
+        <v>15</v>
       </c>
       <c r="C231">
         <v>44</v>
@@ -14612,8 +14610,8 @@
       <c r="A233">
         <v>66</v>
       </c>
-      <c r="B233">
-        <v>33</v>
+      <c r="B233" t="s">
+        <v>15</v>
       </c>
       <c r="C233">
         <v>43</v>
@@ -14643,24 +14641,24 @@
         <v>14.879628934291835</v>
       </c>
       <c r="L233" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M233" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N233" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O233" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>66</v>
       </c>
-      <c r="B234">
-        <v>33</v>
+      <c r="B234" t="s">
+        <v>15</v>
       </c>
       <c r="C234">
         <v>43</v>
@@ -14706,8 +14704,8 @@
       <c r="A235">
         <v>66</v>
       </c>
-      <c r="B235">
-        <v>33</v>
+      <c r="B235" t="s">
+        <v>15</v>
       </c>
       <c r="C235">
         <v>44</v>
@@ -14737,24 +14735,24 @@
         <v>14.860931148632362</v>
       </c>
       <c r="L235" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M235" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N235" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O235" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>66</v>
       </c>
-      <c r="B236">
-        <v>33</v>
+      <c r="B236" t="s">
+        <v>15</v>
       </c>
       <c r="C236">
         <v>44</v>
@@ -14800,8 +14798,8 @@
       <c r="A238">
         <v>66</v>
       </c>
-      <c r="B238">
-        <v>33</v>
+      <c r="B238" t="s">
+        <v>15</v>
       </c>
       <c r="C238">
         <v>43</v>
@@ -14831,24 +14829,24 @@
         <v>15.161266628229134</v>
       </c>
       <c r="L238" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M238" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N238" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O238" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>66</v>
       </c>
-      <c r="B239">
-        <v>33</v>
+      <c r="B239" t="s">
+        <v>15</v>
       </c>
       <c r="C239">
         <v>43</v>
@@ -14894,8 +14892,8 @@
       <c r="A240">
         <v>66</v>
       </c>
-      <c r="B240">
-        <v>33</v>
+      <c r="B240" t="s">
+        <v>15</v>
       </c>
       <c r="C240">
         <v>44</v>
@@ -14925,24 +14923,24 @@
         <v>15.42641068191476</v>
       </c>
       <c r="L240" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M240" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N240" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O240" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>66</v>
       </c>
-      <c r="B241">
-        <v>33</v>
+      <c r="B241" t="s">
+        <v>15</v>
       </c>
       <c r="C241">
         <v>44</v>
@@ -14988,8 +14986,8 @@
       <c r="A243">
         <v>66</v>
       </c>
-      <c r="B243">
-        <v>33</v>
+      <c r="B243" t="s">
+        <v>15</v>
       </c>
       <c r="C243">
         <v>43</v>
@@ -15019,24 +15017,24 @@
         <v>11.215610500176433</v>
       </c>
       <c r="L243" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M243" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N243" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O243" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>66</v>
       </c>
-      <c r="B244">
-        <v>33</v>
+      <c r="B244" t="s">
+        <v>15</v>
       </c>
       <c r="C244">
         <v>43</v>
@@ -15082,8 +15080,8 @@
       <c r="A245">
         <v>66</v>
       </c>
-      <c r="B245">
-        <v>33</v>
+      <c r="B245" t="s">
+        <v>15</v>
       </c>
       <c r="C245">
         <v>44</v>
@@ -15113,24 +15111,24 @@
         <v>12.100053094198246</v>
       </c>
       <c r="L245" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M245" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N245" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O245" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>66</v>
       </c>
-      <c r="B246">
-        <v>33</v>
+      <c r="B246" t="s">
+        <v>15</v>
       </c>
       <c r="C246">
         <v>44</v>
@@ -15176,8 +15174,8 @@
       <c r="A248">
         <v>66</v>
       </c>
-      <c r="B248">
-        <v>33</v>
+      <c r="B248" t="s">
+        <v>15</v>
       </c>
       <c r="C248">
         <v>43</v>
@@ -15207,24 +15205,24 @@
         <v>14.879628934291835</v>
       </c>
       <c r="L248" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M248" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N248" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O248" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>66</v>
       </c>
-      <c r="B249">
-        <v>33</v>
+      <c r="B249" t="s">
+        <v>15</v>
       </c>
       <c r="C249">
         <v>43</v>
@@ -15270,8 +15268,8 @@
       <c r="A250">
         <v>66</v>
       </c>
-      <c r="B250">
-        <v>33</v>
+      <c r="B250" t="s">
+        <v>15</v>
       </c>
       <c r="C250">
         <v>44</v>
@@ -15301,24 +15299,24 @@
         <v>14.860931148632362</v>
       </c>
       <c r="L250" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M250" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N250" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O250" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>66</v>
       </c>
-      <c r="B251">
-        <v>33</v>
+      <c r="B251" t="s">
+        <v>15</v>
       </c>
       <c r="C251">
         <v>44</v>
@@ -15364,8 +15362,8 @@
       <c r="A253">
         <v>66</v>
       </c>
-      <c r="B253">
-        <v>33</v>
+      <c r="B253" t="s">
+        <v>15</v>
       </c>
       <c r="C253">
         <v>43</v>
@@ -15395,24 +15393,24 @@
         <v>9.4884005563760851</v>
       </c>
       <c r="L253" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M253" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N253" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O253" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>66</v>
       </c>
-      <c r="B254">
-        <v>33</v>
+      <c r="B254" t="s">
+        <v>15</v>
       </c>
       <c r="C254">
         <v>43</v>
@@ -15458,8 +15456,8 @@
       <c r="A255">
         <v>66</v>
       </c>
-      <c r="B255">
-        <v>33</v>
+      <c r="B255" t="s">
+        <v>15</v>
       </c>
       <c r="C255">
         <v>44</v>
@@ -15489,24 +15487,24 @@
         <v>10.773747270128284</v>
       </c>
       <c r="L255" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M255" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N255" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O255" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>66</v>
       </c>
-      <c r="B256">
-        <v>33</v>
+      <c r="B256" t="s">
+        <v>15</v>
       </c>
       <c r="C256">
         <v>44</v>
@@ -15552,8 +15550,8 @@
       <c r="A258">
         <v>66</v>
       </c>
-      <c r="B258">
-        <v>33</v>
+      <c r="B258" t="s">
+        <v>15</v>
       </c>
       <c r="C258">
         <v>43</v>
@@ -15583,24 +15581,24 @@
         <v>9.4884005563760851</v>
       </c>
       <c r="L258" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M258" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N258" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O258" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>66</v>
       </c>
-      <c r="B259">
-        <v>33</v>
+      <c r="B259" t="s">
+        <v>15</v>
       </c>
       <c r="C259">
         <v>43</v>
@@ -15646,8 +15644,8 @@
       <c r="A260">
         <v>66</v>
       </c>
-      <c r="B260">
-        <v>33</v>
+      <c r="B260" t="s">
+        <v>15</v>
       </c>
       <c r="C260">
         <v>44</v>
@@ -15677,24 +15675,24 @@
         <v>10.773747270128284</v>
       </c>
       <c r="L260" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M260" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N260" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O260" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>66</v>
       </c>
-      <c r="B261">
-        <v>33</v>
+      <c r="B261" t="s">
+        <v>15</v>
       </c>
       <c r="C261">
         <v>44</v>
@@ -15740,8 +15738,8 @@
       <c r="A263">
         <v>66</v>
       </c>
-      <c r="B263">
-        <v>33</v>
+      <c r="B263" t="s">
+        <v>15</v>
       </c>
       <c r="C263">
         <v>43</v>
@@ -15771,24 +15769,24 @@
         <v>14.879628934291835</v>
       </c>
       <c r="L263" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M263" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N263" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O263" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>66</v>
       </c>
-      <c r="B264">
-        <v>33</v>
+      <c r="B264" t="s">
+        <v>15</v>
       </c>
       <c r="C264">
         <v>43</v>
@@ -15834,8 +15832,8 @@
       <c r="A265">
         <v>66</v>
       </c>
-      <c r="B265">
-        <v>33</v>
+      <c r="B265" t="s">
+        <v>15</v>
       </c>
       <c r="C265">
         <v>44</v>
@@ -15865,24 +15863,24 @@
         <v>14.860931148632362</v>
       </c>
       <c r="L265" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M265" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N265" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O265" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>66</v>
       </c>
-      <c r="B266">
-        <v>33</v>
+      <c r="B266" t="s">
+        <v>15</v>
       </c>
       <c r="C266">
         <v>44</v>
@@ -15928,8 +15926,8 @@
       <c r="A268">
         <v>66</v>
       </c>
-      <c r="B268">
-        <v>33</v>
+      <c r="B268" t="s">
+        <v>15</v>
       </c>
       <c r="C268">
         <v>43</v>
@@ -15959,24 +15957,24 @@
         <v>15.161266628229134</v>
       </c>
       <c r="L268" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M268" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N268" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O268" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>66</v>
       </c>
-      <c r="B269">
-        <v>33</v>
+      <c r="B269" t="s">
+        <v>15</v>
       </c>
       <c r="C269">
         <v>43</v>
@@ -16022,8 +16020,8 @@
       <c r="A270">
         <v>66</v>
       </c>
-      <c r="B270">
-        <v>33</v>
+      <c r="B270" t="s">
+        <v>15</v>
       </c>
       <c r="C270">
         <v>44</v>
@@ -16053,24 +16051,24 @@
         <v>15.42641068191476</v>
       </c>
       <c r="L270" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M270" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N270" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O270" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>66</v>
       </c>
-      <c r="B271">
-        <v>33</v>
+      <c r="B271" t="s">
+        <v>15</v>
       </c>
       <c r="C271">
         <v>44</v>
@@ -16116,8 +16114,8 @@
       <c r="A273">
         <v>66</v>
       </c>
-      <c r="B273">
-        <v>33</v>
+      <c r="B273" t="s">
+        <v>15</v>
       </c>
       <c r="C273">
         <v>43</v>
@@ -16147,24 +16145,24 @@
         <v>12.841686440281466</v>
       </c>
       <c r="L273" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M273" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N273" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O273" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>66</v>
       </c>
-      <c r="B274">
-        <v>33</v>
+      <c r="B274" t="s">
+        <v>15</v>
       </c>
       <c r="C274">
         <v>43</v>
@@ -16210,8 +16208,8 @@
       <c r="A275">
         <v>66</v>
       </c>
-      <c r="B275">
-        <v>33</v>
+      <c r="B275" t="s">
+        <v>15</v>
       </c>
       <c r="C275">
         <v>44</v>
@@ -16241,24 +16239,24 @@
         <v>13.237503471931742</v>
       </c>
       <c r="L275" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M275" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N275" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O275" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>66</v>
       </c>
-      <c r="B276">
-        <v>33</v>
+      <c r="B276" t="s">
+        <v>15</v>
       </c>
       <c r="C276">
         <v>44</v>
@@ -16304,8 +16302,8 @@
       <c r="A278">
         <v>66</v>
       </c>
-      <c r="B278">
-        <v>33</v>
+      <c r="B278" t="s">
+        <v>15</v>
       </c>
       <c r="C278">
         <v>43</v>
@@ -16335,24 +16333,24 @@
         <v>9.4884005563760851</v>
       </c>
       <c r="L278" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M278" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N278" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O278" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>66</v>
       </c>
-      <c r="B279">
-        <v>33</v>
+      <c r="B279" t="s">
+        <v>15</v>
       </c>
       <c r="C279">
         <v>43</v>
@@ -16398,8 +16396,8 @@
       <c r="A280">
         <v>66</v>
       </c>
-      <c r="B280">
-        <v>33</v>
+      <c r="B280" t="s">
+        <v>15</v>
       </c>
       <c r="C280">
         <v>44</v>
@@ -16429,24 +16427,24 @@
         <v>10.773747270128284</v>
       </c>
       <c r="L280" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M280" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N280" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O280" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>66</v>
       </c>
-      <c r="B281">
-        <v>33</v>
+      <c r="B281" t="s">
+        <v>15</v>
       </c>
       <c r="C281">
         <v>44</v>
@@ -16492,8 +16490,8 @@
       <c r="A283">
         <v>66</v>
       </c>
-      <c r="B283">
-        <v>33</v>
+      <c r="B283" t="s">
+        <v>15</v>
       </c>
       <c r="C283">
         <v>43</v>
@@ -16523,24 +16521,24 @@
         <v>14.879628934291835</v>
       </c>
       <c r="L283" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M283" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N283" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O283" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>66</v>
       </c>
-      <c r="B284">
-        <v>33</v>
+      <c r="B284" t="s">
+        <v>15</v>
       </c>
       <c r="C284">
         <v>43</v>
@@ -16586,8 +16584,8 @@
       <c r="A285">
         <v>66</v>
       </c>
-      <c r="B285">
-        <v>33</v>
+      <c r="B285" t="s">
+        <v>15</v>
       </c>
       <c r="C285">
         <v>44</v>
@@ -16617,24 +16615,24 @@
         <v>14.860931148632362</v>
       </c>
       <c r="L285" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M285" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N285" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O285" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>66</v>
       </c>
-      <c r="B286">
-        <v>33</v>
+      <c r="B286" t="s">
+        <v>15</v>
       </c>
       <c r="C286">
         <v>44</v>
@@ -16680,8 +16678,8 @@
       <c r="A288">
         <v>66</v>
       </c>
-      <c r="B288">
-        <v>33</v>
+      <c r="B288" t="s">
+        <v>15</v>
       </c>
       <c r="C288">
         <v>43</v>
@@ -16711,24 +16709,24 @@
         <v>12.841686440281466</v>
       </c>
       <c r="L288" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M288" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N288" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O288" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>66</v>
       </c>
-      <c r="B289">
-        <v>33</v>
+      <c r="B289" t="s">
+        <v>15</v>
       </c>
       <c r="C289">
         <v>43</v>
@@ -16774,8 +16772,8 @@
       <c r="A290">
         <v>66</v>
       </c>
-      <c r="B290">
-        <v>33</v>
+      <c r="B290" t="s">
+        <v>15</v>
       </c>
       <c r="C290">
         <v>44</v>
@@ -16805,24 +16803,24 @@
         <v>13.237503471931742</v>
       </c>
       <c r="L290" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M290" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N290" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O290" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>66</v>
       </c>
-      <c r="B291">
-        <v>33</v>
+      <c r="B291" t="s">
+        <v>15</v>
       </c>
       <c r="C291">
         <v>44</v>
@@ -16868,8 +16866,8 @@
       <c r="A293">
         <v>66</v>
       </c>
-      <c r="B293">
-        <v>33</v>
+      <c r="B293" t="s">
+        <v>15</v>
       </c>
       <c r="C293">
         <v>43</v>
@@ -16899,24 +16897,24 @@
         <v>12.841686440281466</v>
       </c>
       <c r="L293" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M293" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N293" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O293" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>66</v>
       </c>
-      <c r="B294">
-        <v>33</v>
+      <c r="B294" t="s">
+        <v>15</v>
       </c>
       <c r="C294">
         <v>43</v>
@@ -16962,8 +16960,8 @@
       <c r="A295">
         <v>66</v>
       </c>
-      <c r="B295">
-        <v>33</v>
+      <c r="B295" t="s">
+        <v>15</v>
       </c>
       <c r="C295">
         <v>44</v>
@@ -16993,24 +16991,24 @@
         <v>13.237503471931742</v>
       </c>
       <c r="L295" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M295" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N295" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O295" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>66</v>
       </c>
-      <c r="B296">
-        <v>33</v>
+      <c r="B296" t="s">
+        <v>15</v>
       </c>
       <c r="C296">
         <v>44</v>
@@ -17056,8 +17054,8 @@
       <c r="A298">
         <v>66</v>
       </c>
-      <c r="B298">
-        <v>33</v>
+      <c r="B298" t="s">
+        <v>15</v>
       </c>
       <c r="C298">
         <v>43</v>
@@ -17087,24 +17085,24 @@
         <v>12.841686440281466</v>
       </c>
       <c r="L298" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M298" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N298" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O298" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>66</v>
       </c>
-      <c r="B299">
-        <v>33</v>
+      <c r="B299" t="s">
+        <v>15</v>
       </c>
       <c r="C299">
         <v>43</v>
@@ -17150,8 +17148,8 @@
       <c r="A300">
         <v>66</v>
       </c>
-      <c r="B300">
-        <v>33</v>
+      <c r="B300" t="s">
+        <v>15</v>
       </c>
       <c r="C300">
         <v>44</v>
@@ -17181,24 +17179,24 @@
         <v>13.237503471931742</v>
       </c>
       <c r="L300" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M300" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N300" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O300" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>66</v>
       </c>
-      <c r="B301">
-        <v>33</v>
+      <c r="B301" t="s">
+        <v>15</v>
       </c>
       <c r="C301">
         <v>44</v>
@@ -17244,8 +17242,8 @@
       <c r="A303">
         <v>66</v>
       </c>
-      <c r="B303">
-        <v>33</v>
+      <c r="B303" t="s">
+        <v>15</v>
       </c>
       <c r="C303">
         <v>43</v>
@@ -17275,24 +17273,24 @@
         <v>12.841686440281466</v>
       </c>
       <c r="L303" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M303" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N303" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O303" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>66</v>
       </c>
-      <c r="B304">
-        <v>33</v>
+      <c r="B304" t="s">
+        <v>15</v>
       </c>
       <c r="C304">
         <v>43</v>
@@ -17338,8 +17336,8 @@
       <c r="A305">
         <v>66</v>
       </c>
-      <c r="B305">
-        <v>33</v>
+      <c r="B305" t="s">
+        <v>15</v>
       </c>
       <c r="C305">
         <v>44</v>
@@ -17369,24 +17367,24 @@
         <v>13.237503471931742</v>
       </c>
       <c r="L305" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M305" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N305" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O305" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>66</v>
       </c>
-      <c r="B306">
-        <v>33</v>
+      <c r="B306" t="s">
+        <v>15</v>
       </c>
       <c r="C306">
         <v>44</v>
@@ -17432,8 +17430,8 @@
       <c r="A308">
         <v>66</v>
       </c>
-      <c r="B308">
-        <v>33</v>
+      <c r="B308" t="s">
+        <v>15</v>
       </c>
       <c r="C308">
         <v>43</v>
@@ -17442,7 +17440,7 @@
         <v>8</v>
       </c>
       <c r="E308" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F308">
         <v>17.956192651726244</v>
@@ -17479,8 +17477,8 @@
       <c r="A309">
         <v>66</v>
       </c>
-      <c r="B309">
-        <v>33</v>
+      <c r="B309" t="s">
+        <v>15</v>
       </c>
       <c r="C309">
         <v>44</v>
@@ -17489,7 +17487,7 @@
         <v>8</v>
       </c>
       <c r="E309" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F309">
         <v>19.116130444978406</v>

--- a/bin/Debug/Simulações/Título.xlsx
+++ b/bin/Debug/Simulações/Título.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal\Source\Repos\henrique4d\Simulador\bin\Debug\Simulações\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B27F57-8DEA-43F6-B1E9-6149B7E58027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B03242-FC78-4484-8184-11CD0FA087C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="2370" windowWidth="15375" windowHeight="8325" xr2:uid="{CDBD9FED-7F6A-487E-AD10-1FD2F2023B05}"/>
+    <workbookView xWindow="3375" yWindow="1695" windowWidth="15375" windowHeight="8325" xr2:uid="{621CF68F-8695-4F01-B98A-14893CA587B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Talhão" sheetId="2" r:id="rId1"/>
@@ -436,7 +436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B609C30-EC44-42C0-B08D-285D3DC64B23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE9A994-B1F3-4D12-A6B1-08C7A6F97172}">
   <dimension ref="A1:O186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -572,16 +572,16 @@
         <v>36.102492875003421</v>
       </c>
       <c r="L3">
-        <v>8559.5992657786519</v>
+        <v>8563.0038761922842</v>
       </c>
       <c r="M3">
-        <v>1038.252452406447</v>
+        <v>1038.6654209347253</v>
       </c>
       <c r="N3">
-        <v>12978.155655080585</v>
+        <v>12983.317761684068</v>
       </c>
       <c r="O3">
-        <v>3147.3468860526168</v>
+        <v>3148.5987542360267</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -666,16 +666,16 @@
         <v>35.609659992104028</v>
       </c>
       <c r="L6">
-        <v>8461.511731566934</v>
+        <v>8464.9163419805664</v>
       </c>
       <c r="M6">
-        <v>1026.3547432049224</v>
+        <v>1026.7677117332009</v>
       </c>
       <c r="N6">
-        <v>12829.43429006153</v>
+        <v>12834.596396665011</v>
       </c>
       <c r="O6">
-        <v>3111.2803032867532</v>
+        <v>3112.5321714701631</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -760,16 +760,16 @@
         <v>36.240650191607166</v>
       </c>
       <c r="L9">
-        <v>8949.6781745224016</v>
+        <v>8952.5970791980126</v>
       </c>
       <c r="M9">
-        <v>1011.106645458807</v>
+        <v>1011.4364141786892</v>
       </c>
       <c r="N9">
-        <v>12638.833068235086</v>
+        <v>12642.955177233616</v>
       </c>
       <c r="O9">
-        <v>2821.311806632455</v>
+        <v>2822.231967119028</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -854,16 +854,16 @@
         <v>34.777657402709139</v>
       </c>
       <c r="L12">
-        <v>8263.310097665375</v>
+        <v>8266.7147080790073</v>
       </c>
       <c r="M12">
-        <v>1002.3135087873275</v>
+        <v>1002.726477315606</v>
       </c>
       <c r="N12">
-        <v>12528.918859841593</v>
+        <v>12534.080966445073</v>
       </c>
       <c r="O12">
-        <v>3038.4019738345087</v>
+        <v>3039.6538420179186</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -948,16 +948,16 @@
         <v>35.809421419070176</v>
       </c>
       <c r="L15">
-        <v>8851.5906403106783</v>
+        <v>8854.5095449862893</v>
       </c>
       <c r="M15">
-        <v>1000.0250226625286</v>
+        <v>1000.3547913824109</v>
       </c>
       <c r="N15">
-        <v>12500.312783281608</v>
+        <v>12504.434892280136</v>
       </c>
       <c r="O15">
-        <v>2790.3905251116512</v>
+        <v>2791.3106855982242</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1042,16 +1042,16 @@
         <v>35.081419153349657</v>
       </c>
       <c r="L18">
-        <v>8653.3890064091211</v>
+        <v>8656.307911084732</v>
       </c>
       <c r="M18">
-        <v>977.63282204137579</v>
+        <v>977.96259076125818</v>
       </c>
       <c r="N18">
-        <v>12220.410275517197</v>
+        <v>12224.532384515725</v>
       </c>
       <c r="O18">
-        <v>2727.9091041134993</v>
+        <v>2728.8292646000718</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1136,16 +1136,16 @@
         <v>34.600334052198278</v>
       </c>
       <c r="L21">
-        <v>8025.8412039475088</v>
+        <v>8029.2458143611402</v>
       </c>
       <c r="M21">
-        <v>973.50927933484127</v>
+        <v>973.92224786311976</v>
       </c>
       <c r="N21">
-        <v>12168.865991685516</v>
+        <v>12174.028098288996</v>
       </c>
       <c r="O21">
-        <v>2951.0851544402426</v>
+        <v>2952.337022623652</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1230,16 +1230,16 @@
         <v>35.032917462800441</v>
       </c>
       <c r="L24">
-        <v>8238.1119852585216</v>
+        <v>8241.2644023081812</v>
       </c>
       <c r="M24">
-        <v>962.4548743697253</v>
+        <v>962.82316981908548</v>
       </c>
       <c r="N24">
-        <v>12030.685929621566</v>
+        <v>12035.289622738568</v>
       </c>
       <c r="O24">
-        <v>2804.7561853674547</v>
+        <v>2805.8294605589927</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1324,16 +1324,16 @@
         <v>35.916933214014861</v>
       </c>
       <c r="L27">
-        <v>8749.5664220994622</v>
+        <v>8752.269111613914</v>
       </c>
       <c r="M27">
-        <v>959.20999271495828</v>
+        <v>959.50628702994527</v>
       </c>
       <c r="N27">
-        <v>11990.124908936978</v>
+        <v>11993.828587874315</v>
       </c>
       <c r="O27">
-        <v>2553.9150339027178</v>
+        <v>2554.7039232087636</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1418,16 +1418,16 @@
         <v>33.790952809839993</v>
       </c>
       <c r="L30">
-        <v>7853.2646379098642</v>
+        <v>7856.6692483234956</v>
       </c>
       <c r="M30">
-        <v>952.576285002639</v>
+        <v>952.98925353091738</v>
       </c>
       <c r="N30">
-        <v>11907.203562532986</v>
+        <v>11912.365669136467</v>
       </c>
       <c r="O30">
-        <v>2887.6291092611432</v>
+        <v>2888.8809774445531</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1512,16 +1512,16 @@
         <v>34.572940105427662</v>
       </c>
       <c r="L33">
-        <v>8140.0244510467983</v>
+        <v>8143.1768680964578</v>
       </c>
       <c r="M33">
-        <v>950.9953523838733</v>
+        <v>951.3636478332337</v>
       </c>
       <c r="N33">
-        <v>11887.441904798416</v>
+        <v>11892.045597915421</v>
       </c>
       <c r="O33">
-        <v>2771.3612013249867</v>
+        <v>2772.4344765165251</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -1606,16 +1606,16 @@
         <v>35.511070839862398</v>
       </c>
       <c r="L36">
-        <v>8651.4788878877371</v>
+        <v>8654.1815774021889</v>
       </c>
       <c r="M36">
-        <v>948.45671210221656</v>
+        <v>948.75300641720355</v>
       </c>
       <c r="N36">
-        <v>11855.708901277707</v>
+        <v>11859.412580215045</v>
       </c>
       <c r="O36">
-        <v>2525.2842176797508</v>
+        <v>2526.073106985797</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -1700,16 +1700,16 @@
         <v>34.337560307587907</v>
       </c>
       <c r="L39">
-        <v>8381.4560834941749</v>
+        <v>8384.3749881697859</v>
       </c>
       <c r="M39">
-        <v>946.91069101983078</v>
+        <v>947.24045973971306</v>
       </c>
       <c r="N39">
-        <v>11836.383637747884</v>
+        <v>11840.505746746414</v>
       </c>
       <c r="O39">
-        <v>2642.184505857434</v>
+        <v>2643.1046663440065</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -1794,16 +1794,16 @@
         <v>33.796404355325791</v>
       </c>
       <c r="L42">
-        <v>7941.8228171452447</v>
+        <v>7944.9752341949043</v>
       </c>
       <c r="M42">
-        <v>927.83954568957938</v>
+        <v>928.20784113893956</v>
       </c>
       <c r="N42">
-        <v>11597.994321119742</v>
+        <v>11602.598014236744</v>
       </c>
       <c r="O42">
-        <v>2703.8812666469839</v>
+        <v>2704.9545418385219</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -1888,16 +1888,16 @@
         <v>33.629351720524397</v>
       </c>
       <c r="L45">
-        <v>8208.8795174565239</v>
+        <v>8211.7984221321349</v>
       </c>
       <c r="M45">
-        <v>927.41353041042817</v>
+        <v>927.74329913031033</v>
       </c>
       <c r="N45">
-        <v>11592.669130130351</v>
+        <v>11596.791239128879</v>
       </c>
       <c r="O45">
-        <v>2587.7811749425664</v>
+        <v>2588.7013354291389</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -1982,16 +1982,16 @@
         <v>34.825892236831336</v>
       </c>
       <c r="L48">
-        <v>8453.2772539861817</v>
+        <v>8455.9799435006353</v>
       </c>
       <c r="M48">
-        <v>926.72797965547386</v>
+        <v>927.02427397046097</v>
       </c>
       <c r="N48">
-        <v>11584.099745693424</v>
+        <v>11587.803424630762</v>
       </c>
       <c r="O48">
-        <v>2467.4310500888701</v>
+        <v>2468.2199393949163</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -2076,16 +2076,16 @@
         <v>35.796535563160219</v>
       </c>
       <c r="L51">
-        <v>8624.7723211166176</v>
+        <v>8627.2748114077785</v>
       </c>
       <c r="M51">
-        <v>920.28128336517511</v>
+        <v>920.54830432422364</v>
       </c>
       <c r="N51">
-        <v>11503.51604206469</v>
+        <v>11506.853804052795</v>
       </c>
       <c r="O51">
-        <v>2331.0081716833142</v>
+        <v>2331.6845171103087</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -2170,16 +2170,16 @@
         <v>33.211240213564707</v>
       </c>
       <c r="L54">
-        <v>7543.4812409766146</v>
+        <v>7546.885851390246</v>
       </c>
       <c r="M54">
-        <v>915.00053389631807</v>
+        <v>915.41350242459635</v>
       </c>
       <c r="N54">
-        <v>11437.506673703974</v>
+        <v>11442.668780307455</v>
       </c>
       <c r="O54">
-        <v>2773.7223971108788</v>
+        <v>2774.9742652942887</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -2264,16 +2264,16 @@
         <v>35.413221098682889</v>
       </c>
       <c r="L57">
-        <v>8526.6847869048906</v>
+        <v>8529.1872771960516</v>
       </c>
       <c r="M57">
-        <v>909.81513788264647</v>
+        <v>910.08215884169488</v>
       </c>
       <c r="N57">
-        <v>11372.689223533082</v>
+        <v>11376.026985521186</v>
       </c>
       <c r="O57">
-        <v>2304.4981566620481</v>
+        <v>2305.1745020890421</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -2358,16 +2358,16 @@
         <v>32.493758730967158</v>
       </c>
       <c r="L60">
-        <v>7477.4062256298166</v>
+        <v>7480.810836043448</v>
       </c>
       <c r="M60">
-        <v>906.98584248420025</v>
+        <v>907.39881101247852</v>
       </c>
       <c r="N60">
-        <v>11337.323031052503</v>
+        <v>11342.485137655982</v>
       </c>
       <c r="O60">
-        <v>2749.4267510951768</v>
+        <v>2750.6786192785862</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -2452,16 +2452,16 @@
         <v>33.44723578787859</v>
       </c>
       <c r="L63">
-        <v>7741.0099926019475</v>
+        <v>7744.1624096516061</v>
       </c>
       <c r="M63">
-        <v>904.37867478086901</v>
+        <v>904.74697023022918</v>
       </c>
       <c r="N63">
-        <v>11304.733434760861</v>
+        <v>11309.337127877865</v>
       </c>
       <c r="O63">
-        <v>2635.5123232838951</v>
+        <v>2636.585598475433</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -2499,16 +2499,16 @@
         <v>33.524257297915014</v>
       </c>
       <c r="L65">
-        <v>6063.2315082401419</v>
+        <v>6067.8634431209884</v>
       </c>
       <c r="M65">
-        <v>903.60029152502534</v>
+        <v>904.29058641199617</v>
       </c>
       <c r="N65">
-        <v>11295.003644062817</v>
+        <v>11303.632330149951</v>
       </c>
       <c r="O65">
-        <v>3033.1252994760489</v>
+        <v>3035.4424201160127</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -2593,16 +2593,16 @@
         <v>33.89108817829014</v>
       </c>
       <c r="L68">
-        <v>8209.0053291254117</v>
+        <v>8211.7080186398653</v>
       </c>
       <c r="M68">
-        <v>899.94858740189227</v>
+        <v>900.24488171687938</v>
       </c>
       <c r="N68">
-        <v>11249.357342523654</v>
+        <v>11253.061021460991</v>
       </c>
       <c r="O68">
-        <v>2396.1304037292321</v>
+        <v>2396.9192930352783</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -2687,16 +2687,16 @@
         <v>34.766107973597983</v>
       </c>
       <c r="L71">
-        <v>8328.4831530033352</v>
+        <v>8330.9856432944962</v>
       </c>
       <c r="M71">
-        <v>888.66660813358703</v>
+        <v>888.93362909263556</v>
       </c>
       <c r="N71">
-        <v>11108.332601669837</v>
+        <v>11111.670363657944</v>
       </c>
       <c r="O71">
-        <v>2250.9304088927138</v>
+        <v>2251.6067543197082</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -2781,16 +2781,16 @@
         <v>32.134912591917072</v>
       </c>
       <c r="L74">
-        <v>7307.8344239796397</v>
+        <v>7311.2390343932711</v>
       </c>
       <c r="M74">
-        <v>886.41731661568679</v>
+        <v>886.83028514396528</v>
       </c>
       <c r="N74">
-        <v>11080.216457696086</v>
+        <v>11085.378564299564</v>
       </c>
       <c r="O74">
-        <v>2687.075551545478</v>
+        <v>2688.3274197288879</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -2875,16 +2875,16 @@
         <v>32.580408732079682</v>
       </c>
       <c r="L77">
-        <v>7842.8685512097427</v>
+        <v>7845.7874558853528</v>
       </c>
       <c r="M77">
-        <v>886.06275633047983</v>
+        <v>886.392525050362</v>
       </c>
       <c r="N77">
-        <v>11075.784454130997</v>
+        <v>11079.906563129523</v>
       </c>
       <c r="O77">
-        <v>2472.3992539067181</v>
+        <v>2473.3194143932906</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -2969,16 +2969,16 @@
         <v>32.494306901510669</v>
       </c>
       <c r="L80">
-        <v>7833.0211051764818</v>
+        <v>7835.9400098520919</v>
       </c>
       <c r="M80">
-        <v>884.95022268056914</v>
+        <v>885.27999140045131</v>
       </c>
       <c r="N80">
-        <v>11061.877783507112</v>
+        <v>11065.999892505642</v>
       </c>
       <c r="O80">
-        <v>2469.2949282296331</v>
+        <v>2470.2150887162056</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -3063,16 +3063,16 @@
         <v>32.691813295010846</v>
       </c>
       <c r="L83">
-        <v>7568.4334265642983</v>
+        <v>7571.585843613957</v>
       </c>
       <c r="M83">
-        <v>884.21663310406939</v>
+        <v>884.58492855342968</v>
       </c>
       <c r="N83">
-        <v>11052.707913800867</v>
+        <v>11057.31160691787</v>
       </c>
       <c r="O83">
-        <v>2576.7567258958388</v>
+        <v>2577.8300010873763</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -3157,16 +3157,16 @@
         <v>33.224538919877418</v>
       </c>
       <c r="L86">
-        <v>8036.4287630877589</v>
+        <v>8039.1314526022124</v>
       </c>
       <c r="M86">
-        <v>881.02911657718505</v>
+        <v>881.32541089217216</v>
       </c>
       <c r="N86">
-        <v>11012.863957214813</v>
+        <v>11016.567636152151</v>
       </c>
       <c r="O86">
-        <v>2345.7569491784284</v>
+        <v>2346.5458384844746</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -3251,16 +3251,16 @@
         <v>33.668978850309095</v>
       </c>
       <c r="L89">
-        <v>8090.2639859294586</v>
+        <v>8092.7664762206196</v>
       </c>
       <c r="M89">
-        <v>863.24812372209976</v>
+        <v>863.51514468114829</v>
       </c>
       <c r="N89">
-        <v>10790.601546526246</v>
+        <v>10793.939308514353</v>
       </c>
       <c r="O89">
-        <v>2186.5471643934657</v>
+        <v>2187.2235098204601</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -3345,16 +3345,16 @@
         <v>31.638622063138001</v>
       </c>
       <c r="L92">
-        <v>7607.221734212766</v>
+        <v>7610.1406388883761</v>
       </c>
       <c r="M92">
-        <v>859.4401160521802</v>
+        <v>859.76988477206237</v>
       </c>
       <c r="N92">
-        <v>10743.001450652253</v>
+        <v>10747.123559650779</v>
       </c>
       <c r="O92">
-        <v>2398.1135495468061</v>
+        <v>2399.0337100333782</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -3439,16 +3439,16 @@
         <v>31.774792782546491</v>
       </c>
       <c r="L95">
-        <v>7047.3656097234516</v>
+        <v>7050.770220137083</v>
       </c>
       <c r="M95">
-        <v>854.82326918661181</v>
+        <v>855.23623771489019</v>
       </c>
       <c r="N95">
-        <v>10685.290864832648</v>
+        <v>10690.452971436127</v>
       </c>
       <c r="O95">
-        <v>2591.3017091016454</v>
+        <v>2592.5535772850549</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -3533,16 +3533,16 @@
         <v>32.029797397921143</v>
       </c>
       <c r="L98">
-        <v>7295.9098665234042</v>
+        <v>7299.0622835730628</v>
       </c>
       <c r="M98">
-        <v>852.37782960014761</v>
+        <v>852.74612504950778</v>
       </c>
       <c r="N98">
-        <v>10654.722870001846</v>
+        <v>10659.326563118848</v>
       </c>
       <c r="O98">
-        <v>2483.9730708483203</v>
+        <v>2485.0463460398578</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -3580,16 +3580,16 @@
         <v>32.74359780906137</v>
       </c>
       <c r="L100">
-        <v>5288.4559204251846</v>
+        <v>5293.4584100964994</v>
       </c>
       <c r="M100">
-        <v>846.57448571057694</v>
+        <v>847.37528280229697</v>
       </c>
       <c r="N100">
-        <v>10582.181071382212</v>
+        <v>10592.191035028711</v>
       </c>
       <c r="O100">
-        <v>2857.1881808659837</v>
+        <v>2859.8908703804377</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -3674,16 +3674,16 @@
         <v>32.062542638560672</v>
       </c>
       <c r="L103">
-        <v>7708.572538165984</v>
+        <v>7711.2752276804376</v>
       </c>
       <c r="M103">
-        <v>845.08642502569796</v>
+        <v>845.38271934068496</v>
       </c>
       <c r="N103">
-        <v>10563.580312821225</v>
+        <v>10567.283991758562</v>
       </c>
       <c r="O103">
-        <v>2250.058842393224</v>
+        <v>2250.8477316992703</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -3768,16 +3768,16 @@
         <v>33.039460106252633</v>
       </c>
       <c r="L106">
-        <v>7917.6874198918076</v>
+        <v>7920.1899101829686</v>
       </c>
       <c r="M106">
-        <v>844.83384242182285</v>
+        <v>845.10086338087103</v>
       </c>
       <c r="N106">
-        <v>10560.423030272785</v>
+        <v>10563.760792260888</v>
       </c>
       <c r="O106">
-        <v>2139.9050768464258</v>
+        <v>2140.5814222734198</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -3862,16 +3862,16 @@
         <v>31.481098821396202</v>
       </c>
       <c r="L109">
-        <v>7192.5750142842535</v>
+        <v>7195.7274313339121</v>
       </c>
       <c r="M109">
-        <v>840.3052658370168</v>
+        <v>840.67356128637698</v>
       </c>
       <c r="N109">
-        <v>10503.815822962712</v>
+        <v>10508.419516079714</v>
       </c>
       <c r="O109">
-        <v>2448.7915794458704</v>
+        <v>2449.8648546374079</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -3956,16 +3956,16 @@
         <v>32.156261443158613</v>
       </c>
       <c r="L112">
-        <v>7660.5703508077149</v>
+        <v>7663.2730403221685</v>
       </c>
       <c r="M112">
-        <v>839.82397251491625</v>
+        <v>840.12026682990336</v>
       </c>
       <c r="N112">
-        <v>10497.799656436455</v>
+        <v>10501.503335373793</v>
       </c>
       <c r="O112">
-        <v>2236.0474614812674</v>
+        <v>2236.8363507873137</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -4050,16 +4050,16 @@
         <v>30.78736168873894</v>
       </c>
       <c r="L115">
-        <v>7331.1916832463485</v>
+        <v>7334.1105879219585</v>
       </c>
       <c r="M115">
-        <v>828.25510431924465</v>
+        <v>828.58487303912693</v>
       </c>
       <c r="N115">
-        <v>10353.188803990557</v>
+        <v>10357.310912989085</v>
       </c>
       <c r="O115">
-        <v>2311.097365658331</v>
+        <v>2312.0175261449035</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -4144,16 +4144,16 @@
         <v>30.429777244155026</v>
       </c>
       <c r="L118">
-        <v>6802.4780281443909</v>
+        <v>6805.8826385580223</v>
       </c>
       <c r="M118">
-        <v>825.11917624445061</v>
+        <v>825.532144772729</v>
       </c>
       <c r="N118">
-        <v>10313.989703055631</v>
+        <v>10319.151809659113</v>
       </c>
       <c r="O118">
-        <v>2501.2570535770274</v>
+        <v>2502.5089217604368</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -4238,16 +4238,16 @@
         <v>31.025224951050017</v>
       </c>
       <c r="L121">
-        <v>7060.2630495264275</v>
+        <v>7063.4154665760861</v>
       </c>
       <c r="M121">
-        <v>824.84731920476929</v>
+        <v>825.21561465412947</v>
       </c>
       <c r="N121">
-        <v>10310.591490059616</v>
+        <v>10315.195183176616</v>
       </c>
       <c r="O121">
-        <v>2403.7445101396152</v>
+        <v>2404.8177853311527</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -4332,16 +4332,16 @@
         <v>30.410088055577884</v>
       </c>
       <c r="L124">
-        <v>6779.8519807699304</v>
+        <v>6783.2565911835618</v>
       </c>
       <c r="M124">
-        <v>822.37470790599491</v>
+        <v>822.78767643427341</v>
       </c>
       <c r="N124">
-        <v>10279.683848824936</v>
+        <v>10284.845955428416</v>
       </c>
       <c r="O124">
-        <v>2492.9375029139028</v>
+        <v>2494.1893710973127</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -4426,16 +4426,16 @@
         <v>31.176155185439079</v>
       </c>
       <c r="L127">
-        <v>7472.9257211690028</v>
+        <v>7475.6284106834564</v>
       </c>
       <c r="M127">
-        <v>819.25259844383845</v>
+        <v>819.54889275882567</v>
       </c>
       <c r="N127">
-        <v>10240.65748054798</v>
+        <v>10244.361159485321</v>
       </c>
       <c r="O127">
-        <v>2181.2757828007116</v>
+        <v>2182.0646721067578</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
@@ -4520,16 +4520,16 @@
         <v>31.685581197521209</v>
       </c>
       <c r="L130">
-        <v>7602.5657601881221</v>
+        <v>7605.0682504792831</v>
       </c>
       <c r="M130">
-        <v>811.20970086642842</v>
+        <v>811.47672182547694</v>
       </c>
       <c r="N130">
-        <v>10140.121260830356</v>
+        <v>10143.459022818461</v>
       </c>
       <c r="O130">
-        <v>2054.7374763005828</v>
+        <v>2055.4138217275777</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
@@ -4614,16 +4614,16 @@
         <v>32.030531378240426</v>
       </c>
       <c r="L133">
-        <v>7541.829007611761</v>
+        <v>7544.3314979029219</v>
       </c>
       <c r="M133">
-        <v>804.72896206807718</v>
+        <v>804.99598302712559</v>
       </c>
       <c r="N133">
-        <v>10059.112025850965</v>
+        <v>10062.449787839068</v>
       </c>
       <c r="O133">
-        <v>2038.3222178675726</v>
+        <v>2038.9985632945668</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -4708,16 +4708,16 @@
         <v>30.146628633846213</v>
       </c>
       <c r="L136">
-        <v>7101.865338377519</v>
+        <v>7104.7842430531291</v>
       </c>
       <c r="M136">
-        <v>802.34653121147198</v>
+        <v>802.67629993135415</v>
       </c>
       <c r="N136">
-        <v>10029.331640143399</v>
+        <v>10033.453749141927</v>
       </c>
       <c r="O136">
-        <v>2238.8041377082855</v>
+        <v>2239.724298194858</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
@@ -4802,16 +4802,16 @@
         <v>30.558044826911889</v>
       </c>
       <c r="L139">
-        <v>6831.1089484113709</v>
+        <v>6834.2613654610295</v>
       </c>
       <c r="M139">
-        <v>798.0753498512745</v>
+        <v>798.44364530063467</v>
       </c>
       <c r="N139">
-        <v>9975.9418731409314</v>
+        <v>9980.5455662579334</v>
       </c>
       <c r="O139">
-        <v>2325.7264662413436</v>
+        <v>2326.7997414328815</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
@@ -4896,16 +4896,16 @@
         <v>29.593245052641404</v>
       </c>
       <c r="L142">
-        <v>7063.6780542928245</v>
+        <v>7066.5969589684346</v>
       </c>
       <c r="M142">
-        <v>798.03225130585747</v>
+        <v>798.36202002573975</v>
       </c>
       <c r="N142">
-        <v>9975.4031413232187</v>
+        <v>9979.5252503217471</v>
       </c>
       <c r="O142">
-        <v>2226.76591316541</v>
+        <v>2227.686073651982</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
@@ -4990,16 +4990,16 @@
         <v>30.162147612856629</v>
       </c>
       <c r="L145">
-        <v>7203.6730865311456</v>
+        <v>7206.3757760455992</v>
       </c>
       <c r="M145">
-        <v>789.73458517896063</v>
+        <v>790.03087949394762</v>
       </c>
       <c r="N145">
-        <v>9871.6823147370087</v>
+        <v>9875.3859936743465</v>
       </c>
       <c r="O145">
-        <v>2102.6835053842342</v>
+        <v>2103.47239469028</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
@@ -5084,16 +5084,16 @@
         <v>30.848437491795259</v>
       </c>
       <c r="L148">
-        <v>7366.9189431911427</v>
+        <v>7369.4214334823037</v>
       </c>
       <c r="M148">
-        <v>786.06569159954711</v>
+        <v>786.3327125585954</v>
       </c>
       <c r="N148">
-        <v>9825.8211449943374</v>
+        <v>9829.158906982444</v>
       </c>
       <c r="O148">
-        <v>1991.0494581593684</v>
+        <v>1991.7258035863626</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -5178,16 +5178,16 @@
         <v>29.284320415074518</v>
       </c>
       <c r="L151">
-        <v>6563.5953194578478</v>
+        <v>6566.7477365075065</v>
       </c>
       <c r="M151">
-        <v>766.82185431645098</v>
+        <v>767.19014976581138</v>
       </c>
       <c r="N151">
-        <v>9585.2731789556383</v>
+        <v>9589.8768720726403</v>
       </c>
       <c r="O151">
-        <v>2234.6484975489893</v>
+        <v>2235.7217727405268</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
@@ -5272,16 +5272,16 @@
         <v>29.433765293138777</v>
       </c>
       <c r="L154">
-        <v>6554.9066536911805</v>
+        <v>6558.0590707408392</v>
       </c>
       <c r="M154">
-        <v>765.80676144883023</v>
+        <v>766.17505689819029</v>
       </c>
       <c r="N154">
-        <v>9572.5845181103759</v>
+        <v>9577.1882112273779</v>
       </c>
       <c r="O154">
-        <v>2231.6903453540131</v>
+        <v>2232.763620545551</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
@@ -5366,16 +5366,16 @@
         <v>29.771926075517403</v>
       </c>
       <c r="L157">
-        <v>6967.5693253337577</v>
+        <v>6970.2720148482113</v>
       </c>
       <c r="M157">
-        <v>763.850664064184</v>
+        <v>764.14695837917111</v>
       </c>
       <c r="N157">
-        <v>9548.1333008022993</v>
+        <v>9551.8369797396372</v>
       </c>
       <c r="O157">
-        <v>2033.7670681354157</v>
+        <v>2034.5559574414619</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
@@ -5460,16 +5460,16 @@
         <v>29.038273131823647</v>
       </c>
       <c r="L160">
-        <v>6936.1594575776207</v>
+        <v>6938.8621470920743</v>
       </c>
       <c r="M160">
-        <v>760.40721811862909</v>
+        <v>760.7035124336162</v>
       </c>
       <c r="N160">
-        <v>9505.0902264828619</v>
+        <v>9508.7939054202016</v>
       </c>
       <c r="O160">
-        <v>2024.5988271500473</v>
+        <v>2025.3877164560936</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5554,16 +5554,16 @@
         <v>29.657858370665778</v>
       </c>
       <c r="L163">
-        <v>7121.83766345002</v>
+        <v>7124.340153741181</v>
       </c>
       <c r="M163">
-        <v>759.91500538412947</v>
+        <v>760.18202634317777</v>
       </c>
       <c r="N163">
-        <v>9498.9375673016184</v>
+        <v>9502.2753292897214</v>
       </c>
       <c r="O163">
-        <v>1924.8115976648437</v>
+        <v>1925.4879430918379</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5648,16 +5648,16 @@
         <v>28.301819432413158</v>
       </c>
       <c r="L166">
-        <v>6112.4726452037366</v>
+        <v>6115.8772556173681</v>
       </c>
       <c r="M166">
-        <v>741.42369485948018</v>
+        <v>741.83666338775856</v>
       </c>
       <c r="N166">
-        <v>9267.7961857435021</v>
+        <v>9272.9582923469825</v>
       </c>
       <c r="O166">
-        <v>2247.5435062570923</v>
+        <v>2248.7953744405022</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -5742,16 +5742,16 @@
         <v>29.522221110202558</v>
       </c>
       <c r="L169">
-        <v>6861.562547355893</v>
+        <v>6864.0650376470539</v>
       </c>
       <c r="M169">
-        <v>732.14310498501118</v>
+        <v>732.41012594405947</v>
       </c>
       <c r="N169">
-        <v>9151.7888123126395</v>
+        <v>9155.1265743007425</v>
       </c>
       <c r="O169">
-        <v>1854.4673149507596</v>
+        <v>1855.1436603777538</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -5836,16 +5836,16 @@
         <v>28.596421360801294</v>
       </c>
       <c r="L172">
-        <v>6854.3240344964943</v>
+        <v>6856.8265247876552</v>
       </c>
       <c r="M172">
-        <v>731.37074049167927</v>
+        <v>731.63776145072757</v>
       </c>
       <c r="N172">
-        <v>9142.1342561459896</v>
+        <v>9145.4720181340927</v>
       </c>
       <c r="O172">
-        <v>1852.5109696702261</v>
+        <v>1853.1873150972203</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
@@ -5930,16 +5930,16 @@
         <v>27.748510007372278</v>
       </c>
       <c r="L175">
-        <v>6396.2987187266335</v>
+        <v>6399.2176234022436</v>
       </c>
       <c r="M175">
-        <v>722.63382154401097</v>
+        <v>722.96359026389325</v>
       </c>
       <c r="N175">
-        <v>9032.9227693001376</v>
+        <v>9037.0448782986659</v>
       </c>
       <c r="O175">
-        <v>2016.3801135625213</v>
+        <v>2017.3002740490933</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
@@ -6024,16 +6024,16 @@
         <v>27.316603033454115</v>
       </c>
       <c r="L178">
-        <v>5896.2159838916559</v>
+        <v>5899.3684009413146</v>
       </c>
       <c r="M178">
-        <v>688.85223024254958</v>
+        <v>689.22052569190964</v>
       </c>
       <c r="N178">
-        <v>8610.6528780318695</v>
+        <v>8615.2565711488714</v>
       </c>
       <c r="O178">
-        <v>2007.4318339778688</v>
+        <v>2008.5051091694065</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -6118,16 +6118,16 @@
         <v>27.302051912746819</v>
       </c>
       <c r="L181">
-        <v>6268.7801220114288</v>
+        <v>6271.4828115258824</v>
       </c>
       <c r="M181">
-        <v>687.24280096652126</v>
+        <v>687.53909528150825</v>
       </c>
       <c r="N181">
-        <v>8590.5350120815165</v>
+        <v>8594.2386910188543</v>
       </c>
       <c r="O181">
-        <v>1829.7971608510761</v>
+        <v>1830.5860501571221</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
@@ -6212,16 +6212,16 @@
         <v>26.95665687611762</v>
       </c>
       <c r="L184">
-        <v>6186.9446989302987</v>
+        <v>6189.4471892214597</v>
       </c>
       <c r="M184">
-        <v>660.1599666231881</v>
+        <v>660.42698758223651</v>
       </c>
       <c r="N184">
-        <v>8251.999582789851</v>
+        <v>8255.3373447779559</v>
       </c>
       <c r="O184">
-        <v>1672.1390564304368</v>
+        <v>1672.815401857431</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
@@ -6259,16 +6259,16 @@
         <v>29.044256743241107</v>
       </c>
       <c r="L186">
-        <v>3495.3298692438148</v>
+        <v>3500.7325580888346</v>
       </c>
       <c r="M186">
-        <v>608.23899038590719</v>
+        <v>609.17913799182554</v>
       </c>
       <c r="N186">
-        <v>7602.9873798238395</v>
+        <v>7614.7392248978194</v>
       </c>
       <c r="O186">
-        <v>2039.491406976616</v>
+        <v>2042.6438240262746</v>
       </c>
     </row>
   </sheetData>
@@ -6277,7 +6277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6EDA2C-3D0B-40AB-A91D-1DE205C3C948}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0200E803-9603-4B4A-900A-6F993585DB80}">
   <dimension ref="A1:P309"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6422,16 +6422,16 @@
         <v>35.825271648743929</v>
       </c>
       <c r="M3">
-        <v>8264.8504503031363</v>
+        <v>8268.2550607167686</v>
       </c>
       <c r="N3">
-        <v>1002.5003487145329</v>
+        <v>1002.9133172428114</v>
       </c>
       <c r="O3">
-        <v>12531.254358931661</v>
+        <v>12536.416465535143</v>
       </c>
       <c r="P3">
-        <v>3038.9683583026767</v>
+        <v>3040.2202264860866</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -6522,16 +6522,16 @@
         <v>36.379714101262906</v>
       </c>
       <c r="M5">
-        <v>8854.3480812541657</v>
+        <v>8857.752691667798</v>
       </c>
       <c r="N5">
-        <v>1074.0045560983608</v>
+        <v>1074.4175246266393</v>
       </c>
       <c r="O5">
-        <v>13425.05695122951</v>
+        <v>13430.219057832992</v>
       </c>
       <c r="P5">
-        <v>3255.7254138025569</v>
+        <v>3256.9772819859668</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -6622,16 +6622,16 @@
         <v>35.398923613435365</v>
       </c>
       <c r="M8">
-        <v>8216.4162359319052</v>
+        <v>8219.8208463455376</v>
       </c>
       <c r="N8">
-        <v>996.62543094211367</v>
+        <v>997.03839947039216</v>
       </c>
       <c r="O8">
-        <v>12457.81788677642</v>
+        <v>12462.979993379902</v>
       </c>
       <c r="P8">
-        <v>3021.1591981952461</v>
+        <v>3022.411066378656</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -6722,16 +6722,16 @@
         <v>35.820396370772684</v>
       </c>
       <c r="M10">
-        <v>8706.607227201961</v>
+        <v>8710.0118376155933</v>
       </c>
       <c r="N10">
-        <v>1056.0840554677311</v>
+        <v>1056.4970239960096</v>
       </c>
       <c r="O10">
-        <v>13201.050693346639</v>
+        <v>13206.212799950119</v>
       </c>
       <c r="P10">
-        <v>3201.4014083782608</v>
+        <v>3202.6532765616707</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -6822,16 +6822,16 @@
         <v>35.932919464507521</v>
       </c>
       <c r="M13">
-        <v>8543.1715777727695</v>
+        <v>8546.0904824483805</v>
       </c>
       <c r="N13">
-        <v>965.18080171545569</v>
+        <v>965.51057043533797</v>
       </c>
       <c r="O13">
-        <v>12064.760021443195</v>
+        <v>12068.882130441725</v>
       </c>
       <c r="P13">
-        <v>2693.1639739932198</v>
+        <v>2694.0841344797923</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -6922,16 +6922,16 @@
         <v>36.548380918706812</v>
       </c>
       <c r="M15">
-        <v>9356.1847712720337</v>
+        <v>9359.1036759476447</v>
       </c>
       <c r="N15">
-        <v>1057.0324892021581</v>
+        <v>1057.3622579220405</v>
       </c>
       <c r="O15">
-        <v>13212.906115026975</v>
+        <v>13217.028224025506</v>
       </c>
       <c r="P15">
-        <v>2949.4596392716908</v>
+        <v>2950.3797997582633</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -7022,16 +7022,16 @@
         <v>34.521768746398941</v>
       </c>
       <c r="M18">
-        <v>7999.91711454498</v>
+        <v>8003.3217249586114</v>
       </c>
       <c r="N18">
-        <v>970.36476887788706</v>
+        <v>970.77773740616533</v>
       </c>
       <c r="O18">
-        <v>12129.559610973589</v>
+        <v>12134.721717577066</v>
       </c>
       <c r="P18">
-        <v>2941.5529205679159</v>
+        <v>2942.8047887513253</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -7122,16 +7122,16 @@
         <v>35.033546059019343</v>
       </c>
       <c r="M20">
-        <v>8526.70308078577</v>
+        <v>8530.1076911994023</v>
       </c>
       <c r="N20">
-        <v>1034.262248696768</v>
+        <v>1034.6752172250465</v>
       </c>
       <c r="O20">
-        <v>12928.278108709599</v>
+        <v>12933.440215313081</v>
       </c>
       <c r="P20">
-        <v>3135.2510271011015</v>
+        <v>3136.5028952845114</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -7222,16 +7222,16 @@
         <v>35.559864933612502</v>
       </c>
       <c r="M23">
-        <v>8494.737363401533</v>
+        <v>8497.656268077144</v>
       </c>
       <c r="N23">
-        <v>959.70885567858636</v>
+        <v>960.03862439846864</v>
       </c>
       <c r="O23">
-        <v>11996.36069598233</v>
+        <v>12000.482804980858</v>
       </c>
       <c r="P23">
-        <v>2677.8954896761475</v>
+        <v>2678.81565016272</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -7322,16 +7322,16 @@
         <v>36.05897790452785</v>
       </c>
       <c r="M25">
-        <v>9208.4439172198236</v>
+        <v>9211.3628218954345</v>
       </c>
       <c r="N25">
-        <v>1040.3411896464709</v>
+        <v>1040.6709583663533</v>
       </c>
       <c r="O25">
-        <v>13004.264870580886</v>
+        <v>13008.386979579416</v>
       </c>
       <c r="P25">
-        <v>2902.8855605471554</v>
+        <v>2903.8057210337279</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -7422,16 +7422,16 @@
         <v>34.79235442495564</v>
       </c>
       <c r="M28">
-        <v>8278.2382420146096</v>
+        <v>8281.1571466902205</v>
       </c>
       <c r="N28">
-        <v>935.24946215609316</v>
+        <v>935.57923087597555</v>
       </c>
       <c r="O28">
-        <v>11690.618276951163</v>
+        <v>11694.740385949694</v>
       </c>
       <c r="P28">
-        <v>2609.6459375265167</v>
+        <v>2610.5660980130892</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -7522,16 +7522,16 @@
         <v>35.370483881743681</v>
       </c>
       <c r="M30">
-        <v>9028.5397708036326</v>
+        <v>9031.4586754792435</v>
       </c>
       <c r="N30">
-        <v>1020.0161819266584</v>
+        <v>1020.3459506465408</v>
       </c>
       <c r="O30">
-        <v>12750.202274083231</v>
+        <v>12754.324383081759</v>
       </c>
       <c r="P30">
-        <v>2846.1722707004819</v>
+        <v>2847.0924311870544</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -7622,16 +7622,16 @@
         <v>34.305497943878706</v>
       </c>
       <c r="M33">
-        <v>7690.6195519024932</v>
+        <v>7694.0241623161246</v>
       </c>
       <c r="N33">
-        <v>932.8479479420314</v>
+        <v>933.26091647030967</v>
       </c>
       <c r="O33">
-        <v>11660.599349275391</v>
+        <v>11665.76145587887</v>
       </c>
       <c r="P33">
-        <v>2827.8248486780994</v>
+        <v>2829.0767168615089</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -7722,16 +7722,16 @@
         <v>34.895170160517857</v>
       </c>
       <c r="M35">
-        <v>8361.0628559925244</v>
+        <v>8364.4674664061567</v>
       </c>
       <c r="N35">
-        <v>1014.1706107276513</v>
+        <v>1014.5835792559297</v>
       </c>
       <c r="O35">
-        <v>12677.13263409564</v>
+        <v>12682.294740699122</v>
       </c>
       <c r="P35">
-        <v>3074.3454602023858</v>
+        <v>3075.5973283857957</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -7822,16 +7822,16 @@
         <v>34.78235290116131</v>
       </c>
       <c r="M38">
-        <v>7950.7200865832574</v>
+        <v>7953.8725036329161</v>
       </c>
       <c r="N38">
-        <v>928.87900962919537</v>
+        <v>929.24730507855566</v>
       </c>
       <c r="O38">
-        <v>11610.987620364942</v>
+        <v>11615.591313481946</v>
       </c>
       <c r="P38">
-        <v>2706.9104402651383</v>
+        <v>2707.9837154566762</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -7922,16 +7922,16 @@
         <v>35.283482024439571</v>
       </c>
       <c r="M40">
-        <v>8525.5038839337849</v>
+        <v>8528.6563009834445</v>
       </c>
       <c r="N40">
-        <v>996.03073911025513</v>
+        <v>996.39903455961542</v>
       </c>
       <c r="O40">
-        <v>12450.384238878189</v>
+        <v>12454.987931995192</v>
       </c>
       <c r="P40">
-        <v>2902.6019304697711</v>
+        <v>2903.6752056613091</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -8022,16 +8022,16 @@
         <v>35.696789385960315</v>
       </c>
       <c r="M43">
-        <v>8455.0801837173931</v>
+        <v>8457.7828732318467</v>
       </c>
       <c r="N43">
-        <v>926.92563381693878</v>
+        <v>927.22192813192578</v>
       </c>
       <c r="O43">
-        <v>11586.570422711735</v>
+        <v>11590.274101649073</v>
       </c>
       <c r="P43">
-        <v>2467.9573080910932</v>
+        <v>2468.746197397139</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -8122,16 +8122,16 @@
         <v>36.137077042069414</v>
       </c>
       <c r="M45">
-        <v>9044.0526604815295</v>
+        <v>9046.7553499959831</v>
       </c>
       <c r="N45">
-        <v>991.49435161297777</v>
+        <v>991.79064592796476</v>
       </c>
       <c r="O45">
-        <v>12393.679395162222</v>
+        <v>12397.38307409956</v>
       </c>
       <c r="P45">
-        <v>2639.8727597143425</v>
+        <v>2640.6616490203887</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -8222,16 +8222,16 @@
         <v>33.620192725039075</v>
       </c>
       <c r="M48">
-        <v>7615.9541645694408</v>
+        <v>7619.3587749830722</v>
       </c>
       <c r="N48">
-        <v>923.7912714433603</v>
+        <v>924.2042399716388</v>
       </c>
       <c r="O48">
-        <v>11547.390893042004</v>
+        <v>11552.552999645484</v>
       </c>
       <c r="P48">
-        <v>2800.3705407108887</v>
+        <v>2801.6224088942986</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -8322,16 +8322,16 @@
         <v>33.961712894640918</v>
       </c>
       <c r="M50">
-        <v>8090.5751112502876</v>
+        <v>8093.979721663919</v>
       </c>
       <c r="N50">
-        <v>981.36129856191758</v>
+        <v>981.77426709019596</v>
       </c>
       <c r="O50">
-        <v>12267.016232023969</v>
+        <v>12272.178338627449</v>
       </c>
       <c r="P50">
-        <v>2974.8876778113977</v>
+        <v>2976.1395459948076</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -8422,16 +8422,16 @@
         <v>34.384428068206631</v>
       </c>
       <c r="M53">
-        <v>7902.2858722120209</v>
+        <v>7905.4382892616795</v>
       </c>
       <c r="N53">
-        <v>923.22046240487009</v>
+        <v>923.58875785423038</v>
       </c>
       <c r="O53">
-        <v>11540.255780060876</v>
+        <v>11544.859473177879</v>
       </c>
       <c r="P53">
-        <v>2690.4204772027006</v>
+        <v>2691.4937523942385</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -8522,16 +8522,16 @@
         <v>34.761452142648686</v>
       </c>
       <c r="M55">
-        <v>8377.7630298815766</v>
+        <v>8380.9154469312361</v>
       </c>
       <c r="N55">
-        <v>978.77024236287662</v>
+        <v>979.1385378122369</v>
       </c>
       <c r="O55">
-        <v>12234.628029535957</v>
+        <v>12239.231722652961</v>
       </c>
       <c r="P55">
-        <v>2852.3019254472733</v>
+        <v>2853.3752006388117</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -8622,16 +8622,16 @@
         <v>35.345679239235601</v>
       </c>
       <c r="M58">
-        <v>8406.6459693461566</v>
+        <v>8409.3486588606102</v>
       </c>
       <c r="N58">
-        <v>921.61581843033343</v>
+        <v>921.91211274532043</v>
       </c>
       <c r="O58">
-        <v>11520.197730379168</v>
+        <v>11523.901409316504</v>
       </c>
       <c r="P58">
-        <v>2453.8198226123227</v>
+        <v>2454.608711918369</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -8722,16 +8722,16 @@
         <v>35.676462440489203</v>
       </c>
       <c r="M60">
-        <v>8896.3118064293158</v>
+        <v>8899.0144959437694</v>
       </c>
       <c r="N60">
-        <v>975.29760577409968</v>
+        <v>975.59390008908679</v>
       </c>
       <c r="O60">
-        <v>12191.220072176246</v>
+        <v>12194.923751113585</v>
       </c>
       <c r="P60">
-        <v>2596.7486127471789</v>
+        <v>2597.5375020532251</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -8822,16 +8822,16 @@
         <v>34.004348999582454</v>
       </c>
       <c r="M63">
-        <v>7904.2510870607966</v>
+        <v>7907.1699917364067</v>
       </c>
       <c r="N63">
-        <v>892.99756322563678</v>
+        <v>893.32733194551906</v>
       </c>
       <c r="O63">
-        <v>11162.469540320459</v>
+        <v>11166.591649318989</v>
       </c>
       <c r="P63">
-        <v>2491.7495891635344</v>
+        <v>2492.6697496501065</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -8922,16 +8922,16 @@
         <v>34.670771615593367</v>
       </c>
       <c r="M65">
-        <v>8858.6610799275531</v>
+        <v>8861.5799846031641</v>
       </c>
       <c r="N65">
-        <v>1000.8238188140248</v>
+        <v>1001.1535875339072</v>
       </c>
       <c r="O65">
-        <v>12510.297735175309</v>
+        <v>12514.419844173839</v>
       </c>
       <c r="P65">
-        <v>2792.6194225513336</v>
+        <v>2793.5395830379061</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -9022,16 +9022,16 @@
         <v>33.565750192305991</v>
       </c>
       <c r="M68">
-        <v>7685.7867508251011</v>
+        <v>7688.9391678747597</v>
       </c>
       <c r="N68">
-        <v>897.92696857418832</v>
+        <v>898.29526402354838</v>
       </c>
       <c r="O68">
-        <v>11224.087107177354</v>
+        <v>11228.690800294355</v>
       </c>
       <c r="P68">
-        <v>2616.7109608811006</v>
+        <v>2617.7842360726381</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -9122,16 +9122,16 @@
         <v>34.027058518345584</v>
       </c>
       <c r="M70">
-        <v>8197.8588834653892</v>
+        <v>8201.0113005150488</v>
       </c>
       <c r="N70">
-        <v>957.75212280497033</v>
+        <v>958.12041825433062</v>
       </c>
       <c r="O70">
-        <v>11971.901535062128</v>
+        <v>11976.505228179132</v>
       </c>
       <c r="P70">
-        <v>2791.0515724128677</v>
+        <v>2792.1248476044057</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -9222,16 +9222,16 @@
         <v>33.404706933097771</v>
       </c>
       <c r="M73">
-        <v>7829.5856997277388</v>
+        <v>7832.5046044033488</v>
       </c>
       <c r="N73">
-        <v>884.56210131895875</v>
+        <v>884.89187003884103</v>
       </c>
       <c r="O73">
-        <v>11057.026266486984</v>
+        <v>11061.148375485513</v>
       </c>
       <c r="P73">
-        <v>2468.2119451587228</v>
+        <v>2469.1321056452948</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -9322,16 +9322,16 @@
         <v>33.853996507951031</v>
       </c>
       <c r="M75">
-        <v>8588.1733351853109</v>
+        <v>8591.0922398609218</v>
       </c>
       <c r="N75">
-        <v>970.26495950189747</v>
+        <v>970.59472822177963</v>
       </c>
       <c r="O75">
-        <v>12128.311993773717</v>
+        <v>12132.434102772246</v>
       </c>
       <c r="P75">
-        <v>2707.3504047264105</v>
+        <v>2708.270565212983</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -9422,16 +9422,16 @@
         <v>34.623316407558548</v>
       </c>
       <c r="M78">
-        <v>8190.1468479592349</v>
+        <v>8192.8495374736885</v>
       </c>
       <c r="N78">
-        <v>897.88114283271523</v>
+        <v>898.17743714770222</v>
       </c>
       <c r="O78">
-        <v>11223.514285408941</v>
+        <v>11227.217964346277</v>
       </c>
       <c r="P78">
-        <v>2390.6257928441464</v>
+        <v>2391.4146821501927</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -9522,16 +9522,16 @@
         <v>35.028468066104125</v>
       </c>
       <c r="M80">
-        <v>8716.4076600131284</v>
+        <v>8719.110349527582</v>
       </c>
       <c r="N80">
-        <v>955.57481647823249</v>
+        <v>955.87111079321971</v>
       </c>
       <c r="O80">
-        <v>11944.685205977907</v>
+        <v>11948.388884915246</v>
       </c>
       <c r="P80">
-        <v>2544.2363073335937</v>
+        <v>2545.0251966396399</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -9622,16 +9622,16 @@
         <v>35.572684524350294</v>
       </c>
       <c r="M83">
-        <v>8312.0663509507995</v>
+        <v>8314.5688412419604</v>
       </c>
       <c r="N83">
-        <v>886.9149009465267</v>
+        <v>887.18192190557511</v>
       </c>
       <c r="O83">
-        <v>11086.436261831583</v>
+        <v>11089.774023819689</v>
       </c>
       <c r="P83">
-        <v>2246.4934570158885</v>
+        <v>2247.1698024428829</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -9722,16 +9722,16 @@
         <v>36.020386601970152</v>
       </c>
       <c r="M85">
-        <v>8937.4782912824357</v>
+        <v>8939.9807815735967</v>
       </c>
       <c r="N85">
-        <v>953.64766578382364</v>
+        <v>953.91468674287205</v>
       </c>
       <c r="O85">
-        <v>11920.595822297795</v>
+        <v>11923.9335842859</v>
       </c>
       <c r="P85">
-        <v>2415.52288635074</v>
+        <v>2416.199231777734</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -9822,16 +9822,16 @@
         <v>33.001247021813597</v>
       </c>
       <c r="M88">
-        <v>7232.3316783234513</v>
+        <v>7235.7362887370828</v>
       </c>
       <c r="N88">
-        <v>877.25907118773034</v>
+        <v>877.67203971600861</v>
       </c>
       <c r="O88">
-        <v>10965.738389846629</v>
+        <v>10970.900496450107</v>
       </c>
       <c r="P88">
-        <v>2659.3133486606434</v>
+        <v>2660.5652168440533</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -9922,16 +9922,16 @@
         <v>33.421233405315817</v>
       </c>
       <c r="M90">
-        <v>7854.6308036297778</v>
+        <v>7858.0354140434092</v>
       </c>
       <c r="N90">
-        <v>952.74199660490569</v>
+        <v>953.15496513318419</v>
       </c>
       <c r="O90">
-        <v>11909.274957561322</v>
+        <v>11914.437064164802</v>
       </c>
       <c r="P90">
-        <v>2888.1314455611141</v>
+        <v>2889.3833137445235</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -10022,16 +10022,16 @@
         <v>35.241080496888053</v>
       </c>
       <c r="M93">
-        <v>8263.6321365795575</v>
+        <v>8266.1346268707184</v>
       </c>
       <c r="N93">
-        <v>881.74686875961106</v>
+        <v>882.01388971865947</v>
       </c>
       <c r="O93">
-        <v>11021.835859495139</v>
+        <v>11025.173621483244</v>
       </c>
       <c r="P93">
-        <v>2233.4031926836924</v>
+        <v>2234.0795381106868</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -10122,16 +10122,16 @@
         <v>35.585361700477726</v>
       </c>
       <c r="M95">
-        <v>8789.7374372302238</v>
+        <v>8792.2399275213847</v>
       </c>
       <c r="N95">
-        <v>937.88340700568187</v>
+        <v>938.15042796473028</v>
       </c>
       <c r="O95">
-        <v>11723.542587571023</v>
+        <v>11726.880349559129</v>
       </c>
       <c r="P95">
-        <v>2375.5931206404039</v>
+        <v>2376.2694660673978</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -10222,16 +10222,16 @@
         <v>32.255541658423375</v>
       </c>
       <c r="M98">
-        <v>7286.8087188413847</v>
+        <v>7290.2133292550161</v>
       </c>
       <c r="N98">
-        <v>883.86696475393035</v>
+        <v>884.27993328220873</v>
       </c>
       <c r="O98">
-        <v>11048.33705942413</v>
+        <v>11053.499166027608</v>
       </c>
       <c r="P98">
-        <v>2679.3444434013718</v>
+        <v>2680.5963115847817</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -10322,16 +10322,16 @@
         <v>32.731975803510934</v>
       </c>
       <c r="M100">
-        <v>7668.0037324182485</v>
+        <v>7671.40834283188</v>
       </c>
       <c r="N100">
-        <v>930.10472021447003</v>
+        <v>930.51768874274831</v>
       </c>
       <c r="O100">
-        <v>11626.309002680875</v>
+        <v>11631.471109284354</v>
       </c>
       <c r="P100">
-        <v>2819.5090587889813</v>
+        <v>2820.7609269723907</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -10422,16 +10422,16 @@
         <v>33.198297783715375</v>
       </c>
       <c r="M103">
-        <v>7402.5609477927583</v>
+        <v>7405.7133648424169</v>
       </c>
       <c r="N103">
-        <v>864.83782689178076</v>
+        <v>865.20612234114094</v>
       </c>
       <c r="O103">
-        <v>10810.472836147259</v>
+        <v>10815.076529264261</v>
       </c>
       <c r="P103">
-        <v>2520.2836090397914</v>
+        <v>2521.3568842313293</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -10522,16 +10522,16 @@
         <v>33.696173792041805</v>
       </c>
       <c r="M105">
-        <v>8079.4590374111367</v>
+        <v>8082.6114544607954</v>
       </c>
       <c r="N105">
-        <v>943.91952266995713</v>
+        <v>944.28781811931742</v>
       </c>
       <c r="O105">
-        <v>11798.994033374463</v>
+        <v>11803.597726491467</v>
       </c>
       <c r="P105">
-        <v>2750.7410375279992</v>
+        <v>2751.8143127195367</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -10572,16 +10572,16 @@
         <v>33.156184210526689</v>
       </c>
       <c r="M107">
-        <v>5735.553158960156</v>
+        <v>5740.1850938410025</v>
       </c>
       <c r="N107">
-        <v>854.76655467472744</v>
+        <v>855.45684956169816</v>
       </c>
       <c r="O107">
-        <v>10684.581933434092</v>
+        <v>10693.210619521227</v>
       </c>
       <c r="P107">
-        <v>2869.2045436973945</v>
+        <v>2871.5216643373583</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -10622,16 +10622,16 @@
         <v>33.892330385303346</v>
       </c>
       <c r="M108">
-        <v>6390.9098575201278</v>
+        <v>6395.5417924009744</v>
       </c>
       <c r="N108">
-        <v>952.43402837532324</v>
+        <v>953.12432326229407</v>
       </c>
       <c r="O108">
-        <v>11905.425354691541</v>
+        <v>11914.054040778676</v>
       </c>
       <c r="P108">
-        <v>3197.0460552547033</v>
+        <v>3199.3631758946672</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -10722,16 +10722,16 @@
         <v>33.676435608063088</v>
       </c>
       <c r="M111">
-        <v>7839.7430668070119</v>
+        <v>7842.4457563214655</v>
       </c>
       <c r="N111">
-        <v>859.46657550999885</v>
+        <v>859.76286982498607</v>
       </c>
       <c r="O111">
-        <v>10743.332193874985</v>
+        <v>10747.035872812326</v>
       </c>
       <c r="P111">
-        <v>2288.3462693284787</v>
+        <v>2289.1351586345245</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -10822,16 +10822,16 @@
         <v>34.105740748517192</v>
       </c>
       <c r="M113">
-        <v>8578.2675914438114</v>
+        <v>8580.970280958265</v>
       </c>
       <c r="N113">
-        <v>940.43059929378569</v>
+        <v>940.72689360877268</v>
       </c>
       <c r="O113">
-        <v>11755.38249117232</v>
+        <v>11759.086170109658</v>
       </c>
       <c r="P113">
-        <v>2503.9145381299859</v>
+        <v>2504.7034274360321</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -10922,16 +10922,16 @@
         <v>34.558848933637506</v>
       </c>
       <c r="M116">
-        <v>8047.1330151926395</v>
+        <v>8049.6355054838004</v>
       </c>
       <c r="N116">
-        <v>858.64595874607096</v>
+        <v>858.91297970511937</v>
       </c>
       <c r="O116">
-        <v>10733.074484325887</v>
+        <v>10736.412246313992</v>
       </c>
       <c r="P116">
-        <v>2174.8902021576041</v>
+        <v>2175.5665475845985</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -11022,16 +11022,16 @@
         <v>34.973367013558466</v>
       </c>
       <c r="M118">
-        <v>8609.833290814031</v>
+        <v>8612.3357811051919</v>
       </c>
       <c r="N118">
-        <v>918.68725752110322</v>
+        <v>918.95427848015163</v>
       </c>
       <c r="O118">
-        <v>11483.59071901379</v>
+        <v>11486.928481001894</v>
       </c>
       <c r="P118">
-        <v>2326.9706156278235</v>
+        <v>2327.6469610548179</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -11122,16 +11122,16 @@
         <v>32.099965095188544</v>
       </c>
       <c r="M121">
-        <v>7070.4748117745658</v>
+        <v>7073.8794221881972</v>
       </c>
       <c r="N121">
-        <v>857.62634266677469</v>
+        <v>858.03931119505307</v>
       </c>
       <c r="O121">
-        <v>10720.329283334684</v>
+        <v>10725.491389938163</v>
       </c>
       <c r="P121">
-        <v>2599.7989147366707</v>
+        <v>2601.0507829200806</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -11222,16 +11222,16 @@
         <v>32.169860088645599</v>
       </c>
       <c r="M123">
-        <v>7545.1940361847137</v>
+        <v>7548.5986465983451</v>
       </c>
       <c r="N123">
-        <v>915.208290564599</v>
+        <v>915.62125909287749</v>
       </c>
       <c r="O123">
-        <v>11440.103632057488</v>
+        <v>11445.265738660968</v>
       </c>
       <c r="P123">
-        <v>2774.3521883542853</v>
+        <v>2775.6040565376952</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -11322,16 +11322,16 @@
         <v>32.358647232782843</v>
       </c>
       <c r="M126">
-        <v>7384.1932654379416</v>
+        <v>7387.1121701135517</v>
       </c>
       <c r="N126">
-        <v>834.24305728567765</v>
+        <v>834.57282600555982</v>
       </c>
       <c r="O126">
-        <v>10428.038216070971</v>
+        <v>10432.160325069497</v>
       </c>
       <c r="P126">
-        <v>2327.8056747942987</v>
+        <v>2328.7258352808713</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -11422,16 +11422,16 @@
         <v>32.802170231376522</v>
       </c>
       <c r="M128">
-        <v>8301.5438369815438</v>
+        <v>8304.4627416571548</v>
       </c>
       <c r="N128">
-        <v>937.88245537528201</v>
+        <v>938.21222409516417</v>
       </c>
       <c r="O128">
-        <v>11723.530692191025</v>
+        <v>11727.652801189552</v>
       </c>
       <c r="P128">
-        <v>2616.9928330191374</v>
+        <v>2617.9129935057099</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -11522,16 +11522,16 @@
         <v>32.210637249809039</v>
       </c>
       <c r="M131">
-        <v>7500.4402539996827</v>
+        <v>7503.3591586752927</v>
       </c>
       <c r="N131">
-        <v>847.37627843143378</v>
+        <v>847.70604715131606</v>
       </c>
       <c r="O131">
-        <v>10592.203480392922</v>
+        <v>10596.32558939145</v>
       </c>
       <c r="P131">
-        <v>2364.4515736656522</v>
+        <v>2365.3717341522247</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -11622,16 +11622,16 @@
         <v>32.777976553212305</v>
       </c>
       <c r="M133">
-        <v>8165.6019563532809</v>
+        <v>8168.520861028891</v>
       </c>
       <c r="N133">
-        <v>922.52416692970439</v>
+        <v>922.85393564958667</v>
       </c>
       <c r="O133">
-        <v>11531.552086621305</v>
+        <v>11535.674195619833</v>
       </c>
       <c r="P133">
-        <v>2574.1382827936145</v>
+        <v>2575.0584432801866</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -11722,16 +11722,16 @@
         <v>32.558679579465043</v>
       </c>
       <c r="M136">
-        <v>7327.8955604597004</v>
+        <v>7331.047977509359</v>
       </c>
       <c r="N136">
-        <v>856.11470366718788</v>
+        <v>856.48299911654817</v>
       </c>
       <c r="O136">
-        <v>10701.433795839848</v>
+        <v>10706.037488956852</v>
       </c>
       <c r="P136">
-        <v>2494.8629535145947</v>
+        <v>2495.9362287061326</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -11822,16 +11822,16 @@
         <v>32.824947010556656</v>
       </c>
       <c r="M138">
-        <v>7808.9712926688962</v>
+        <v>7812.1237097185549</v>
       </c>
       <c r="N138">
-        <v>912.31856254095089</v>
+        <v>912.68685799031118</v>
       </c>
       <c r="O138">
-        <v>11403.982031761885</v>
+        <v>11408.585724878889</v>
       </c>
       <c r="P138">
-        <v>2658.650498277083</v>
+        <v>2659.7237734686205</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
@@ -11922,16 +11922,16 @@
         <v>33.112066604312794</v>
       </c>
       <c r="M141">
-        <v>7765.0776794739522</v>
+        <v>7767.7803689884058</v>
       </c>
       <c r="N141">
-        <v>851.28105154404477</v>
+        <v>851.57734585903177</v>
       </c>
       <c r="O141">
-        <v>10641.013144300559</v>
+        <v>10644.716823237897</v>
       </c>
       <c r="P141">
-        <v>2266.5521545092079</v>
+        <v>2267.3410438152541</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
@@ -12022,16 +12022,16 @@
         <v>33.337011235442041</v>
       </c>
       <c r="M143">
-        <v>8307.7798467015655</v>
+        <v>8310.4825362160191</v>
       </c>
       <c r="N143">
-        <v>910.77718161032521</v>
+        <v>911.07347592531244</v>
       </c>
       <c r="O143">
-        <v>11384.714770129065</v>
+        <v>11388.418449066405</v>
       </c>
       <c r="P143">
-        <v>2424.9617438476489</v>
+        <v>2425.7506331536952</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -12122,16 +12122,16 @@
         <v>33.445436423870191</v>
       </c>
       <c r="M146">
-        <v>7698.4589866030983</v>
+        <v>7700.9614768942592</v>
       </c>
       <c r="N146">
-        <v>821.44170910798368</v>
+        <v>821.70873006703209</v>
       </c>
       <c r="O146">
-        <v>10268.021363849795</v>
+        <v>10271.3591258379</v>
       </c>
       <c r="P146">
-        <v>2080.6544380544728</v>
+        <v>2081.3307834814673</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -12222,16 +12222,16 @@
         <v>33.892521276747999</v>
       </c>
       <c r="M148">
-        <v>8482.0689852558189</v>
+        <v>8484.5714755469799</v>
       </c>
       <c r="N148">
-        <v>905.05453833621596</v>
+        <v>905.32155929526436</v>
       </c>
       <c r="O148">
-        <v>11313.181729202699</v>
+        <v>11316.519491190804</v>
       </c>
       <c r="P148">
-        <v>2292.4398907324585</v>
+        <v>2293.1162361594529</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
@@ -12322,16 +12322,16 @@
         <v>31.570025546985914</v>
       </c>
       <c r="M151">
-        <v>7222.3363988890542</v>
+        <v>7225.2553035646642</v>
       </c>
       <c r="N151">
-        <v>815.95697479316902</v>
+        <v>816.28674351305131</v>
       </c>
       <c r="O151">
-        <v>10199.462184914613</v>
+        <v>10203.584293913142</v>
       </c>
       <c r="P151">
-        <v>2276.781640222991</v>
+        <v>2277.701800709563</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
@@ -12422,16 +12422,16 @@
         <v>31.707218579290085</v>
       </c>
       <c r="M153">
-        <v>7992.1070695364779</v>
+        <v>7995.0259742120879</v>
       </c>
       <c r="N153">
-        <v>902.92325731119126</v>
+        <v>903.25302603107355</v>
       </c>
       <c r="O153">
-        <v>11286.540716389891</v>
+        <v>11290.662825388419</v>
       </c>
       <c r="P153">
-        <v>2519.4454588706212</v>
+        <v>2520.3656193571937</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
@@ -12522,16 +12522,16 @@
         <v>31.350788963915733</v>
       </c>
       <c r="M156">
-        <v>6687.5347245799476</v>
+        <v>6690.939334993579</v>
       </c>
       <c r="N156">
-        <v>811.17691526844851</v>
+        <v>811.58988379672701</v>
       </c>
       <c r="O156">
-        <v>10139.711440855606</v>
+        <v>10144.873547459087</v>
       </c>
       <c r="P156">
-        <v>2458.9926394014133</v>
+        <v>2460.2445075848227</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
@@ -12622,16 +12622,16 @@
         <v>32.19879660117725</v>
       </c>
       <c r="M158">
-        <v>7407.1964948669556</v>
+        <v>7410.601105280587</v>
       </c>
       <c r="N158">
-        <v>898.46962310477511</v>
+        <v>898.88259163305338</v>
       </c>
       <c r="O158">
-        <v>11230.870288809689</v>
+        <v>11236.032395413167</v>
       </c>
       <c r="P158">
-        <v>2723.6107788018776</v>
+        <v>2724.862646985287</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
@@ -12722,16 +12722,16 @@
         <v>31.857167776875929</v>
       </c>
       <c r="M161">
-        <v>6970.9431128326787</v>
+        <v>6974.0955298823374</v>
       </c>
       <c r="N161">
-        <v>814.41211164712445</v>
+        <v>814.78040709648474</v>
       </c>
       <c r="O161">
-        <v>10180.151395589055</v>
+        <v>10184.755088706059</v>
       </c>
       <c r="P161">
-        <v>2373.3345514783696</v>
+        <v>2374.4078266699075</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
@@ -12822,16 +12822,16 @@
         <v>32.202427018966361</v>
       </c>
       <c r="M163">
-        <v>7620.8766202141296</v>
+        <v>7624.0290372637883</v>
       </c>
       <c r="N163">
-        <v>890.34354755317077</v>
+        <v>890.71184300253094</v>
       </c>
       <c r="O163">
-        <v>11129.294344414635</v>
+        <v>11133.898037531637</v>
       </c>
       <c r="P163">
-        <v>2594.6115902182705</v>
+        <v>2595.684865409808</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
@@ -12872,16 +12872,16 @@
         <v>32.336979624159412</v>
       </c>
       <c r="M165">
-        <v>5021.385055767747</v>
+        <v>5026.3875454390618</v>
       </c>
       <c r="N165">
-        <v>803.82185936790108</v>
+        <v>804.62265645962123</v>
       </c>
       <c r="O165">
-        <v>10047.773242098763</v>
+        <v>10057.783205745265</v>
       </c>
       <c r="P165">
-        <v>2712.8981027345317</v>
+        <v>2715.6007922489857</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
@@ -12922,16 +12922,16 @@
         <v>33.150215993963336</v>
       </c>
       <c r="M166">
-        <v>5555.5267850826222</v>
+        <v>5560.529274753937</v>
       </c>
       <c r="N166">
-        <v>889.32711205325279</v>
+        <v>890.1279091449727</v>
       </c>
       <c r="O166">
-        <v>11116.58890066566</v>
+        <v>11126.598864312158</v>
       </c>
       <c r="P166">
-        <v>3001.4782589974357</v>
+        <v>3004.1809485118897</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
@@ -13022,16 +13022,16 @@
         <v>31.966296132972019</v>
       </c>
       <c r="M169">
-        <v>7343.8878536391985</v>
+        <v>7346.5905431536521</v>
       </c>
       <c r="N169">
-        <v>805.10625038474029</v>
+        <v>805.4025446997274</v>
       </c>
       <c r="O169">
-        <v>10063.828129809253</v>
+        <v>10067.531808746593</v>
       </c>
       <c r="P169">
-        <v>2143.6108593143617</v>
+        <v>2144.3997486204075</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
@@ -13122,16 +13122,16 @@
         <v>32.158789144149324</v>
       </c>
       <c r="M171">
-        <v>8073.2572226927696</v>
+        <v>8075.9599122072232</v>
       </c>
       <c r="N171">
-        <v>885.06659966665552</v>
+        <v>885.36289398164251</v>
       </c>
       <c r="O171">
-        <v>11063.332495833194</v>
+        <v>11067.036174770532</v>
       </c>
       <c r="P171">
-        <v>2356.5068254720868</v>
+        <v>2357.2957147781326</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
@@ -13222,16 +13222,16 @@
         <v>32.912421253661577</v>
       </c>
       <c r="M174">
-        <v>7623.7935992700404</v>
+        <v>7626.2960895612014</v>
       </c>
       <c r="N174">
-        <v>813.47475578799981</v>
+        <v>813.74177674704811</v>
       </c>
       <c r="O174">
-        <v>10168.434447349997</v>
+        <v>10171.772209338102</v>
       </c>
       <c r="P174">
-        <v>2060.4747021107041</v>
+        <v>2061.1510475376986</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
@@ -13322,16 +13322,16 @@
         <v>33.16649895884369</v>
       </c>
       <c r="M176">
-        <v>8211.5812405135748</v>
+        <v>8214.0837308047358</v>
       </c>
       <c r="N176">
-        <v>876.19292905564589</v>
+        <v>876.45995001469407</v>
       </c>
       <c r="O176">
-        <v>10952.411613195572</v>
+        <v>10955.749375183676</v>
       </c>
       <c r="P176">
-        <v>2219.335451582147</v>
+        <v>2220.011797009141</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
@@ -13422,16 +13422,16 @@
         <v>31.285005250623726</v>
       </c>
       <c r="M179">
-        <v>6998.7501147316461</v>
+        <v>7001.9025317813048</v>
       </c>
       <c r="N179">
-        <v>817.6607910250159</v>
+        <v>818.02908647437607</v>
       </c>
       <c r="O179">
-        <v>10220.759887812699</v>
+        <v>10225.363580929701</v>
       </c>
       <c r="P179">
-        <v>2382.8017523020799</v>
+        <v>2383.8750274936174</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
@@ -13522,16 +13522,16 @@
         <v>31.677192392168681</v>
       </c>
       <c r="M181">
-        <v>7386.3999138368608</v>
+        <v>7389.5523308865195</v>
       </c>
       <c r="N181">
-        <v>862.94974064901771</v>
+        <v>863.31803609837789</v>
       </c>
       <c r="O181">
-        <v>10786.871758112722</v>
+        <v>10791.475451229724</v>
       </c>
       <c r="P181">
-        <v>2514.7814065896614</v>
+        <v>2515.8546817811989</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
@@ -13622,16 +13622,16 @@
         <v>31.988236314158691</v>
       </c>
       <c r="M184">
-        <v>7435.9322337458962</v>
+        <v>7438.6349232603498</v>
       </c>
       <c r="N184">
-        <v>815.19702344848872</v>
+        <v>815.49331776347572</v>
       </c>
       <c r="O184">
-        <v>10189.96279310611</v>
+        <v>10193.666472043446</v>
       </c>
       <c r="P184">
-        <v>2170.4777364600686</v>
+        <v>2171.2666257661149</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
@@ -13722,16 +13722,16 @@
         <v>32.324286572158542</v>
       </c>
       <c r="M186">
-        <v>7885.2084678695337</v>
+        <v>7887.9111573839873</v>
       </c>
       <c r="N186">
-        <v>864.45092158134389</v>
+        <v>864.74721589633111</v>
       </c>
       <c r="O186">
-        <v>10805.636519766798</v>
+        <v>10809.340198704138</v>
       </c>
       <c r="P186">
-        <v>2301.6171865024667</v>
+        <v>2302.4060758085129</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
@@ -13822,16 +13822,16 @@
         <v>30.317320580449923</v>
       </c>
       <c r="M189">
-        <v>6824.2335860806324</v>
+        <v>6827.1524907562425</v>
       </c>
       <c r="N189">
-        <v>770.98056427236065</v>
+        <v>771.31033299224282</v>
       </c>
       <c r="O189">
-        <v>9637.257053404508</v>
+        <v>9641.3791624030346</v>
       </c>
       <c r="P189">
-        <v>2151.2830307615477</v>
+        <v>2152.2031912481198</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
@@ -13922,16 +13922,16 @@
         <v>31.257402797027961</v>
       </c>
       <c r="M191">
-        <v>7838.1497804120645</v>
+        <v>7841.0686850876746</v>
       </c>
       <c r="N191">
-        <v>885.52964436612865</v>
+        <v>885.85941308601093</v>
       </c>
       <c r="O191">
-        <v>11069.120554576608</v>
+        <v>11073.242663575136</v>
       </c>
       <c r="P191">
-        <v>2470.9117005551147</v>
+        <v>2471.8318610416873</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
@@ -14022,16 +14022,16 @@
         <v>30.311872948718595</v>
       </c>
       <c r="M194">
-        <v>6643.6463268958978</v>
+        <v>6647.0509373095292</v>
       </c>
       <c r="N194">
-        <v>805.85339075371655</v>
+        <v>806.26635928199505</v>
       </c>
       <c r="O194">
-        <v>10073.167384421457</v>
+        <v>10078.329491024939</v>
       </c>
       <c r="P194">
-        <v>2442.8549666557992</v>
+        <v>2444.1068348392087</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
@@ -14122,16 +14122,16 @@
         <v>30.547681539591462</v>
       </c>
       <c r="M196">
-        <v>6961.309729392884</v>
+        <v>6964.7143398065155</v>
       </c>
       <c r="N196">
-        <v>844.38496173518467</v>
+        <v>844.79793026346306</v>
       </c>
       <c r="O196">
-        <v>10554.812021689808</v>
+        <v>10559.974128293288</v>
       </c>
       <c r="P196">
-        <v>2559.6591404982551</v>
+        <v>2560.911008681665</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
@@ -14222,16 +14222,16 @@
         <v>31.015971312025872</v>
       </c>
       <c r="M199">
-        <v>6809.0862462837931</v>
+        <v>6812.2386633334518</v>
       </c>
       <c r="N199">
-        <v>795.50244758344809</v>
+        <v>795.87074303280815</v>
       </c>
       <c r="O199">
-        <v>9943.780594793101</v>
+        <v>9948.3842879101012</v>
       </c>
       <c r="P199">
-        <v>2318.2285941413579</v>
+        <v>2319.3018693328959</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
@@ -14322,16 +14322,16 @@
         <v>31.034478590074162</v>
       </c>
       <c r="M201">
-        <v>7311.4398527690619</v>
+        <v>7314.5922698187205</v>
       </c>
       <c r="N201">
-        <v>854.1921908260905</v>
+        <v>854.56048627545067</v>
       </c>
       <c r="O201">
-        <v>10677.402385326131</v>
+        <v>10682.006078443133</v>
       </c>
       <c r="P201">
-        <v>2489.2604261378724</v>
+        <v>2490.3337013294099</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
@@ -14422,16 +14422,16 @@
         <v>30.08678854436825</v>
       </c>
       <c r="M204">
-        <v>6479.517350995764</v>
+        <v>6482.9219614093954</v>
       </c>
       <c r="N204">
-        <v>785.9450625191738</v>
+        <v>786.3580310474523</v>
       </c>
       <c r="O204">
-        <v>9824.3132814896726</v>
+        <v>9829.475388093153</v>
       </c>
       <c r="P204">
-        <v>2382.5050828387443</v>
+        <v>2383.7569510221538</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
@@ -14522,16 +14522,16 @@
         <v>30.733387566787517</v>
       </c>
       <c r="M206">
-        <v>7080.1866105440968</v>
+        <v>7083.5912209577282</v>
       </c>
       <c r="N206">
-        <v>858.80435329281602</v>
+        <v>859.21732182109452</v>
       </c>
       <c r="O206">
-        <v>10735.054416160199</v>
+        <v>10740.216522763681</v>
       </c>
       <c r="P206">
-        <v>2603.3699229890617</v>
+        <v>2604.6217911724711</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
@@ -14622,16 +14622,16 @@
         <v>31.22406395810432</v>
       </c>
       <c r="M209">
-        <v>7182.0309870903093</v>
+        <v>7184.7336766047629</v>
       </c>
       <c r="N209">
-        <v>787.36197412082311</v>
+        <v>787.65826843581033</v>
       </c>
       <c r="O209">
-        <v>9842.0246765102893</v>
+        <v>9845.7283554476289</v>
       </c>
       <c r="P209">
-        <v>2096.3663828594463</v>
+        <v>2097.1552721654925</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
@@ -14722,16 +14722,16 @@
         <v>31.128246412773841</v>
       </c>
       <c r="M211">
-        <v>7763.8204552476964</v>
+        <v>7766.52314476215</v>
       </c>
       <c r="N211">
-        <v>851.1432227668538</v>
+        <v>851.43951708184102</v>
       </c>
       <c r="O211">
-        <v>10639.290284585672</v>
+        <v>10642.993963523013</v>
       </c>
       <c r="P211">
-        <v>2266.1851827419769</v>
+        <v>2266.9740720480231</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
@@ -14822,16 +14822,16 @@
         <v>31.568125538485578</v>
       </c>
       <c r="M214">
-        <v>7213.9857620208259</v>
+        <v>7216.4882523119868</v>
       </c>
       <c r="N214">
-        <v>769.74740063527997</v>
+        <v>770.01442159432838</v>
       </c>
       <c r="O214">
-        <v>9621.842507940999</v>
+        <v>9625.1802699291038</v>
       </c>
       <c r="P214">
-        <v>1949.7163676432606</v>
+        <v>1950.392713070255</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
@@ -14922,16 +14922,16 @@
         <v>31.803036856556837</v>
       </c>
       <c r="M216">
-        <v>7991.1457583554184</v>
+        <v>7993.6482486465793</v>
       </c>
       <c r="N216">
-        <v>852.67200109757698</v>
+        <v>852.93902205662539</v>
       </c>
       <c r="O216">
-        <v>10658.400013719713</v>
+        <v>10661.737775707817</v>
       </c>
       <c r="P216">
-        <v>2159.7585849579054</v>
+        <v>2160.4349303848999</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
@@ -15022,16 +15022,16 @@
         <v>31.851025979627138</v>
       </c>
       <c r="M219">
-        <v>7294.6481535419825</v>
+        <v>7297.1506438331435</v>
       </c>
       <c r="N219">
-        <v>778.35424687128398</v>
+        <v>778.62126783033239</v>
       </c>
       <c r="O219">
-        <v>9729.4280858910497</v>
+        <v>9732.7658478791545</v>
       </c>
       <c r="P219">
-        <v>1971.5169076207603</v>
+        <v>1972.1932530477545</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
@@ -15122,16 +15122,16 @@
         <v>32.210036776853705</v>
       </c>
       <c r="M221">
-        <v>7789.0098616815394</v>
+        <v>7791.5123519727003</v>
       </c>
       <c r="N221">
-        <v>831.10367726487038</v>
+        <v>831.37069822391879</v>
       </c>
       <c r="O221">
-        <v>10388.795965810879</v>
+        <v>10392.133727798984</v>
       </c>
       <c r="P221">
-        <v>2105.1275281143849</v>
+        <v>2105.8038735413788</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
@@ -15222,16 +15222,16 @@
         <v>30.005444918824711</v>
       </c>
       <c r="M224">
-        <v>6795.5079140103862</v>
+        <v>6798.4268186859963</v>
       </c>
       <c r="N224">
-        <v>767.73522769610486</v>
+        <v>768.06499641598703</v>
       </c>
       <c r="O224">
-        <v>9596.6903462013106</v>
+        <v>9600.8124551998371</v>
       </c>
       <c r="P224">
-        <v>2142.227500921832</v>
+        <v>2143.1476614084045</v>
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
@@ -15322,16 +15322,16 @@
         <v>30.28781234886771</v>
       </c>
       <c r="M226">
-        <v>7408.2227627446518</v>
+        <v>7411.1416674202619</v>
       </c>
       <c r="N226">
-        <v>836.957834726839</v>
+        <v>837.28760344672128</v>
       </c>
       <c r="O226">
-        <v>10461.972934085486</v>
+        <v>10466.095043084017</v>
       </c>
       <c r="P226">
-        <v>2335.3807744947394</v>
+        <v>2336.3009349813115</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.25">
@@ -15422,16 +15422,16 @@
         <v>30.181035854302042</v>
       </c>
       <c r="M229">
-        <v>6459.9497668523045</v>
+        <v>6463.1021839019631</v>
       </c>
       <c r="N229">
-        <v>754.71299157090311</v>
+        <v>755.0812870202634</v>
       </c>
       <c r="O229">
-        <v>9433.9123946362888</v>
+        <v>9438.5160877532926</v>
       </c>
       <c r="P229">
-        <v>2199.3612247762453</v>
+        <v>2200.4344999677833</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
@@ -15522,16 +15522,16 @@
         <v>30.935053799521732</v>
       </c>
       <c r="M231">
-        <v>7202.2681299704373</v>
+        <v>7205.4205470200959</v>
       </c>
       <c r="N231">
-        <v>841.43770813164588</v>
+        <v>841.80600358100594</v>
       </c>
       <c r="O231">
-        <v>10517.971351645574</v>
+        <v>10522.575044762574</v>
       </c>
       <c r="P231">
-        <v>2452.0917077064423</v>
+        <v>2453.1649828979798</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
@@ -15622,16 +15622,16 @@
         <v>29.211320213345871</v>
       </c>
       <c r="M234">
-        <v>6616.216212496447</v>
+        <v>6619.1351171720571</v>
       </c>
       <c r="N234">
-        <v>747.47941208561383</v>
+        <v>747.80918080549611</v>
       </c>
       <c r="O234">
-        <v>9343.4926510701735</v>
+        <v>9347.6147600687018</v>
       </c>
       <c r="P234">
-        <v>2085.7072792503427</v>
+        <v>2086.6274397369148</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
@@ -15722,16 +15722,16 @@
         <v>29.975169891936936</v>
       </c>
       <c r="M236">
-        <v>7511.139896089202</v>
+        <v>7514.0588007648121</v>
       </c>
       <c r="N236">
-        <v>848.58509052610111</v>
+        <v>848.91485924598339</v>
       </c>
       <c r="O236">
-        <v>10607.313631576264</v>
+        <v>10611.435740574792</v>
       </c>
       <c r="P236">
-        <v>2367.8245470804773</v>
+        <v>2368.7447075670493</v>
       </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
@@ -15822,16 +15822,16 @@
         <v>29.783178193713663</v>
       </c>
       <c r="M239">
-        <v>6773.8191437537062</v>
+        <v>6776.5218332681598</v>
       </c>
       <c r="N239">
-        <v>742.60994180479133</v>
+        <v>742.90623611977833</v>
       </c>
       <c r="O239">
-        <v>9282.6242725598913</v>
+        <v>9286.3279514972292</v>
       </c>
       <c r="P239">
-        <v>1977.213237043984</v>
+        <v>1978.00212635003</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.25">
@@ -15922,16 +15922,16 @@
         <v>30.541117031999594</v>
       </c>
       <c r="M241">
-        <v>7633.527029308585</v>
+        <v>7636.2297188230386</v>
       </c>
       <c r="N241">
-        <v>836.85922855312992</v>
+        <v>837.15552286811692</v>
       </c>
       <c r="O241">
-        <v>10460.740356914124</v>
+        <v>10464.444035851462</v>
       </c>
       <c r="P241">
-        <v>2228.1537737244839</v>
+        <v>2228.9426630305302</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.25">
@@ -16022,16 +16022,16 @@
         <v>30.86712848444386</v>
       </c>
       <c r="M244">
-        <v>7052.1288954719384</v>
+        <v>7054.6313857630994</v>
       </c>
       <c r="N244">
-        <v>752.47693373792401</v>
+        <v>752.74395469697242</v>
       </c>
       <c r="O244">
-        <v>9405.9616717240497</v>
+        <v>9409.2994337121545</v>
       </c>
       <c r="P244">
-        <v>1905.9714820368583</v>
+        <v>1906.6478274638525</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.25">
@@ -16122,16 +16122,16 @@
         <v>30.829746499146658</v>
       </c>
       <c r="M246">
-        <v>7681.708990910347</v>
+        <v>7684.2114812015079</v>
       </c>
       <c r="N246">
-        <v>819.65444946117009</v>
+        <v>819.9214704202185</v>
       </c>
       <c r="O246">
-        <v>10245.680618264625</v>
+        <v>10249.018380252732</v>
       </c>
       <c r="P246">
-        <v>2076.1274342818783</v>
+        <v>2076.8037797088728</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
@@ -16222,16 +16222,16 @@
         <v>29.00130212939105</v>
       </c>
       <c r="M249">
-        <v>6251.9323932681191</v>
+        <v>6255.0848103177777</v>
       </c>
       <c r="N249">
-        <v>730.41041647627662</v>
+        <v>730.77871192563691</v>
       </c>
       <c r="O249">
-        <v>9130.1302059534573</v>
+        <v>9134.7338990704611</v>
       </c>
       <c r="P249">
-        <v>2128.539413144144</v>
+        <v>2129.6126883356819</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.25">
@@ -16322,16 +16322,16 @@
         <v>29.567338700757983</v>
       </c>
       <c r="M251">
-        <v>6875.2582456475766</v>
+        <v>6878.4106626972352</v>
       </c>
       <c r="N251">
-        <v>803.23329215662545</v>
+        <v>803.60158760598574</v>
       </c>
       <c r="O251">
-        <v>10040.416151957817</v>
+        <v>10045.019845074821</v>
       </c>
       <c r="P251">
-        <v>2340.7575819538342</v>
+        <v>2341.8308571453717</v>
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">
@@ -16422,16 +16422,16 @@
         <v>29.347085308653924</v>
       </c>
       <c r="M254">
-        <v>6382.2577614051252</v>
+        <v>6385.4101784547838</v>
       </c>
       <c r="N254">
-        <v>745.63626992934246</v>
+        <v>746.00456537870252</v>
       </c>
       <c r="O254">
-        <v>9320.4533741167797</v>
+        <v>9325.0570672337817</v>
       </c>
       <c r="P254">
-        <v>2172.9101236961064</v>
+        <v>2173.9833988876444</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.25">
@@ -16522,16 +16522,16 @@
         <v>29.520445277623633</v>
       </c>
       <c r="M256">
-        <v>6727.5555459772359</v>
+        <v>6730.7079630268945</v>
       </c>
       <c r="N256">
-        <v>785.977252968318</v>
+        <v>786.34554841767806</v>
       </c>
       <c r="O256">
-        <v>9824.715662103974</v>
+        <v>9829.3193552209759</v>
       </c>
       <c r="P256">
-        <v>2290.4705670119197</v>
+        <v>2291.5438422034576</v>
       </c>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.25">
@@ -16622,16 +16622,16 @@
         <v>29.751517484540834</v>
       </c>
       <c r="M259">
-        <v>6755.2025022116413</v>
+        <v>6757.9051917260949</v>
       </c>
       <c r="N259">
-        <v>740.56900997611945</v>
+        <v>740.86530429110655</v>
       </c>
       <c r="O259">
-        <v>9257.1126247014927</v>
+        <v>9260.8163036388323</v>
       </c>
       <c r="P259">
-        <v>1971.7792168398551</v>
+        <v>1972.5681061459011</v>
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.25">
@@ -16722,16 +16722,16 @@
         <v>29.792334666493971</v>
       </c>
       <c r="M261">
-        <v>7179.936148455874</v>
+        <v>7182.6388379703276</v>
       </c>
       <c r="N261">
-        <v>787.13231815224856</v>
+        <v>787.42861246723555</v>
       </c>
       <c r="O261">
-        <v>9839.153976903106</v>
+        <v>9842.8576558404438</v>
       </c>
       <c r="P261">
-        <v>2095.7549194309763</v>
+        <v>2096.5438087370226</v>
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.25">
@@ -16822,16 +16822,16 @@
         <v>28.742236671733373</v>
       </c>
       <c r="M264">
-        <v>6565.8017701695208</v>
+        <v>6568.5044596839743</v>
       </c>
       <c r="N264">
-        <v>719.80511539690247</v>
+        <v>720.10140971188946</v>
       </c>
       <c r="O264">
-        <v>8997.56394246128</v>
+        <v>9001.2676213986178</v>
       </c>
       <c r="P264">
-        <v>1916.494948607683</v>
+        <v>1917.283837913729</v>
       </c>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.25">
@@ -16922,16 +16922,16 @@
         <v>29.334309591913922</v>
       </c>
       <c r="M266">
-        <v>7306.5171449857207</v>
+        <v>7309.2198345001743</v>
       </c>
       <c r="N266">
-        <v>801.0093208403556</v>
+        <v>801.30561515534282</v>
       </c>
       <c r="O266">
-        <v>10012.616510504446</v>
+        <v>10016.320189441785</v>
       </c>
       <c r="P266">
-        <v>2132.7027056924117</v>
+        <v>2133.4915949984579</v>
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.25">
@@ -17022,16 +17022,16 @@
         <v>29.260560600864341</v>
       </c>
       <c r="M269">
-        <v>6686.4075745521732</v>
+        <v>6688.9100648433341</v>
       </c>
       <c r="N269">
-        <v>713.45370227869932</v>
+        <v>713.72072323774773</v>
       </c>
       <c r="O269">
-        <v>8918.1712784837418</v>
+        <v>8921.5090404718467</v>
       </c>
       <c r="P269">
-        <v>1807.1283641106545</v>
+        <v>1807.8047095376487</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.25">
@@ -17122,16 +17122,16 @@
         <v>30.055156140467211</v>
       </c>
       <c r="M271">
-        <v>7557.2677523478669</v>
+        <v>7559.7702426390279</v>
       </c>
       <c r="N271">
-        <v>806.37630848955951</v>
+        <v>806.64332944860791</v>
       </c>
       <c r="O271">
-        <v>10079.703856119493</v>
+        <v>10083.041618107598</v>
       </c>
       <c r="P271">
-        <v>2042.4948312190327</v>
+        <v>2043.1711766460271</v>
       </c>
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.25">
@@ -17222,16 +17222,16 @@
         <v>27.859419338198617</v>
       </c>
       <c r="M274">
-        <v>5811.8651944640933</v>
+        <v>5815.2698048777247</v>
       </c>
       <c r="N274">
-        <v>704.96095714816124</v>
+        <v>705.37392567643963</v>
       </c>
       <c r="O274">
-        <v>8812.0119643520156</v>
+        <v>8817.1740709554942</v>
       </c>
       <c r="P274">
-        <v>2137.0107704791208</v>
+        <v>2138.2626386625302</v>
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.25">
@@ -17322,16 +17322,16 @@
         <v>28.744219526627699</v>
       </c>
       <c r="M276">
-        <v>6413.08009594338</v>
+        <v>6416.4847063570114</v>
       </c>
       <c r="N276">
-        <v>777.88643257079912</v>
+        <v>778.2994010990775</v>
       </c>
       <c r="O276">
-        <v>9723.5804071349885</v>
+        <v>9728.7425137384689</v>
       </c>
       <c r="P276">
-        <v>2358.0762420350638</v>
+        <v>2359.3281102184737</v>
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.25">
@@ -17422,16 +17422,16 @@
         <v>29.476390148300563</v>
       </c>
       <c r="M279">
-        <v>6625.3004105932687</v>
+        <v>6627.8029008844296</v>
       </c>
       <c r="N279">
-        <v>706.93343980948373</v>
+        <v>707.20046076853214</v>
       </c>
       <c r="O279">
-        <v>8836.667997618546</v>
+        <v>8840.0057596066508</v>
       </c>
       <c r="P279">
-        <v>1790.6129949816805</v>
+        <v>1791.2893404086747</v>
       </c>
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.25">
@@ -17522,16 +17522,16 @@
         <v>29.56805207210455</v>
       </c>
       <c r="M281">
-        <v>7097.8246841185173</v>
+        <v>7100.3271744096783</v>
       </c>
       <c r="N281">
-        <v>757.35277016053851</v>
+        <v>757.61979111958692</v>
       </c>
       <c r="O281">
-        <v>9466.9096270067312</v>
+        <v>9470.247388994836</v>
       </c>
       <c r="P281">
-        <v>1918.3216349198387</v>
+        <v>1918.9979803468332</v>
       </c>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.25">
@@ -17622,16 +17622,16 @@
         <v>28.277449163438511</v>
       </c>
       <c r="M284">
-        <v>6478.3902009679841</v>
+        <v>6480.8926912591451</v>
       </c>
       <c r="N284">
-        <v>691.25781253264688</v>
+        <v>691.52483349169506</v>
       </c>
       <c r="O284">
-        <v>8640.7226566580866</v>
+        <v>8644.0604186461878</v>
       </c>
       <c r="P284">
-        <v>1750.907726669634</v>
+        <v>1751.5840720966282</v>
       </c>
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.25">
@@ -17722,16 +17722,16 @@
         <v>28.915393558164073</v>
       </c>
       <c r="M286">
-        <v>7230.2578680250044</v>
+        <v>7232.7603583161654</v>
       </c>
       <c r="N286">
-        <v>771.48366845071155</v>
+        <v>771.75068940975996</v>
       </c>
       <c r="O286">
-        <v>9643.5458556338945</v>
+        <v>9646.8836176219993</v>
       </c>
       <c r="P286">
-        <v>1954.114212670818</v>
+        <v>1954.7905580978124</v>
       </c>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.25">
@@ -17822,16 +17822,16 @@
         <v>27.262372157947453</v>
       </c>
       <c r="M289">
-        <v>5948.5640559647782</v>
+        <v>5951.4829606403882</v>
       </c>
       <c r="N289">
-        <v>672.05015986447484</v>
+        <v>672.37992858435712</v>
       </c>
       <c r="O289">
-        <v>8400.6269983059356</v>
+        <v>8404.7491073044639</v>
       </c>
       <c r="P289">
-        <v>1875.235475101146</v>
+        <v>1876.1556355877183</v>
       </c>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.25">
@@ -17922,16 +17922,16 @@
         <v>28.234647856797103</v>
       </c>
       <c r="M291">
-        <v>6844.0333814884889</v>
+        <v>6846.952286164099</v>
       </c>
       <c r="N291">
-        <v>773.21748322354711</v>
+        <v>773.54725194342939</v>
       </c>
       <c r="O291">
-        <v>9665.2185402943378</v>
+        <v>9669.340649292868</v>
       </c>
       <c r="P291">
-        <v>2157.5247520238963</v>
+        <v>2158.4449125104684</v>
       </c>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.25">
@@ -18022,16 +18022,16 @@
         <v>26.922424203632737</v>
       </c>
       <c r="M294">
-        <v>5584.2802367364502</v>
+        <v>5587.4326537861089</v>
       </c>
       <c r="N294">
-        <v>652.40891885312953</v>
+        <v>652.7772143024896</v>
       </c>
       <c r="O294">
-        <v>8155.1114856641188</v>
+        <v>8159.7151787811199</v>
       </c>
       <c r="P294">
-        <v>1901.2298646630118</v>
+        <v>1902.3031398545495</v>
       </c>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.25">
@@ -18122,16 +18122,16 @@
         <v>27.710781863275493</v>
       </c>
       <c r="M296">
-        <v>6208.1517310468616</v>
+        <v>6211.3041480965203</v>
       </c>
       <c r="N296">
-        <v>725.29554163196963</v>
+        <v>725.66383708132969</v>
       </c>
       <c r="O296">
-        <v>9066.194270399621</v>
+        <v>9070.7979635166212</v>
       </c>
       <c r="P296">
-        <v>2113.633803292726</v>
+        <v>2114.7070784842635</v>
       </c>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.25">
@@ -18222,16 +18222,16 @@
         <v>26.90793261959368</v>
       </c>
       <c r="M299">
-        <v>5898.1496136378519</v>
+        <v>5900.8523031523055</v>
       </c>
       <c r="N299">
-        <v>646.6107890374484</v>
+        <v>646.90708335243551</v>
       </c>
       <c r="O299">
-        <v>8082.6348629681052</v>
+        <v>8086.3385419054439</v>
       </c>
       <c r="P299">
-        <v>1721.613648469538</v>
+        <v>1722.4025377755843</v>
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.25">
@@ -18322,16 +18322,16 @@
         <v>27.696171205899958</v>
       </c>
       <c r="M301">
-        <v>6639.4106303850058</v>
+        <v>6642.1133198994594</v>
       </c>
       <c r="N301">
-        <v>727.87481289559412</v>
+        <v>728.17110721058111</v>
       </c>
       <c r="O301">
-        <v>9098.435161194926</v>
+        <v>9102.1388401322638</v>
       </c>
       <c r="P301">
-        <v>1937.980673232614</v>
+        <v>1938.76956253866</v>
       </c>
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.25">
@@ -18422,16 +18422,16 @@
         <v>26.545050891973247</v>
       </c>
       <c r="M304">
-        <v>5810.7380444363134</v>
+        <v>5813.2405347274744</v>
       </c>
       <c r="N304">
-        <v>620.01792809533276</v>
+        <v>620.28494905438117</v>
       </c>
       <c r="O304">
-        <v>7750.2241011916594</v>
+        <v>7753.5618631797643</v>
       </c>
       <c r="P304">
-        <v>1570.4620783935734</v>
+        <v>1571.1384238205678</v>
       </c>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.25">
@@ -18522,16 +18522,16 @@
         <v>27.368262860261996</v>
       </c>
       <c r="M306">
-        <v>6563.151353424284</v>
+        <v>6565.653843715445</v>
       </c>
       <c r="N306">
-        <v>700.30200515104343</v>
+        <v>700.56902611009184</v>
       </c>
       <c r="O306">
-        <v>8753.7750643880427</v>
+        <v>8757.1128263761475</v>
       </c>
       <c r="P306">
-        <v>1773.8160344673001</v>
+        <v>1774.4923798942943</v>
       </c>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.25">
@@ -18572,16 +18572,16 @@
         <v>28.593532129508951</v>
       </c>
       <c r="M308">
-        <v>3245.012229330825</v>
+        <v>3250.4149181758448</v>
       </c>
       <c r="N308">
-        <v>564.68002620453831</v>
+        <v>565.62017381045666</v>
       </c>
       <c r="O308">
-        <v>7058.5003275567287</v>
+        <v>7070.2521726307077</v>
       </c>
       <c r="P308">
-        <v>1893.4334683227009</v>
+        <v>1896.5858853723598</v>
       </c>
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.25">
@@ -18622,16 +18622,16 @@
         <v>29.494981356973263</v>
       </c>
       <c r="M309">
-        <v>3745.6475091568045</v>
+        <v>3751.0501980018244</v>
       </c>
       <c r="N309">
-        <v>651.79795456727607</v>
+        <v>652.73810217319442</v>
       </c>
       <c r="O309">
-        <v>8147.4744320909504</v>
+        <v>8159.2262771649303</v>
       </c>
       <c r="P309">
-        <v>2185.5493456305308</v>
+        <v>2188.7017626801894</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/Simulações/Título.xlsx
+++ b/bin/Debug/Simulações/Título.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal\Source\Repos\henrique4d\Simulador\bin\Debug\Simulações\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8303746A-16F5-47DD-810F-A191978FDF57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8AC30E-F538-4D29-A340-6E3352AF34B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{A1109A55-8B37-41D4-A23F-80F4FAE6CE8E}"/>
+    <workbookView xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{0EA0CA40-A094-4107-A219-0188A63B313A}"/>
   </bookViews>
   <sheets>
     <sheet name="Talhão" sheetId="2" r:id="rId1"/>
@@ -439,7 +439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DB22DA-F2EC-4541-AF2A-D78420315831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1207DC4F-76E9-4843-9576-8FBE5E104517}">
   <dimension ref="A1:O186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6280,7 +6280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A37CF5-426D-4391-9F61-52361BFEF497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8C639C-5B9B-49D7-B25D-04C1D308CA58}">
   <dimension ref="A1:P309"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
